--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_34.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1127988.399487807</v>
+        <v>1133366.941458247</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7024305.338384028</v>
+        <v>5923717.618902254</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14660963.01911776</v>
+        <v>12530186.6620563</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5754207.38569883</v>
+        <v>6537220.483292454</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>145.8327464505409</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>167.3144551584022</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L11" t="n">
-        <v>170.2938696529567</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M11" t="n">
-        <v>157.4954113531601</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N11" t="n">
-        <v>155.3834392613658</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O11" t="n">
-        <v>160.1941363949306</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P11" t="n">
-        <v>171.5714850078676</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.502379967731</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>105.8649109507975</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>101.9957273309275</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L12" t="n">
-        <v>90.3553968397086</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M12" t="n">
-        <v>85.88809423000004</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N12" t="n">
-        <v>73.60710973268431</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O12" t="n">
-        <v>89.78036266371195</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P12" t="n">
-        <v>91.58500595490335</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.6455817925041</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,19 +8851,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>107.2159712812904</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M13" t="n">
-        <v>109.753013963864</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N13" t="n">
-        <v>99.20643774735849</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O13" t="n">
-        <v>112.1514739208908</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P13" t="n">
-        <v>115.2194770025959</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>145.8327464505409</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>167.3144551584022</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L14" t="n">
-        <v>170.2938696529567</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M14" t="n">
-        <v>157.4954113531601</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N14" t="n">
-        <v>155.3834392613658</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O14" t="n">
-        <v>160.1941363949306</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P14" t="n">
-        <v>171.5714850078676</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.502379967731</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>105.8649109507975</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K15" t="n">
-        <v>101.9957273309275</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L15" t="n">
-        <v>90.3553968397086</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M15" t="n">
-        <v>85.88809423000004</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N15" t="n">
-        <v>73.60710973268431</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O15" t="n">
-        <v>89.78036266371195</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P15" t="n">
-        <v>91.58500595490335</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.6455817925041</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,19 +9088,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>107.2159712812904</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M16" t="n">
-        <v>109.753013963864</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N16" t="n">
-        <v>99.20643774735849</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O16" t="n">
-        <v>112.1514739208908</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P16" t="n">
-        <v>115.2194770025959</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>145.8327464505409</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>167.3144551584022</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L17" t="n">
-        <v>170.2938696529567</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M17" t="n">
-        <v>157.4954113531601</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N17" t="n">
-        <v>155.3834392613658</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O17" t="n">
-        <v>160.1941363949306</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P17" t="n">
-        <v>171.5714850078676</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q17" t="n">
-        <v>177.502379967731</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>105.8649109507975</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K18" t="n">
-        <v>101.9957273309275</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L18" t="n">
-        <v>90.3553968397086</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M18" t="n">
-        <v>85.88809423000004</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N18" t="n">
-        <v>73.60710973268431</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O18" t="n">
-        <v>89.78036266371195</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P18" t="n">
-        <v>91.58500595490335</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.6455817925041</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9325,19 +9325,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>107.2159712812904</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M19" t="n">
-        <v>109.753013963864</v>
+        <v>129.0262495446562</v>
       </c>
       <c r="N19" t="n">
-        <v>99.20643774735849</v>
+        <v>118.0213988638391</v>
       </c>
       <c r="O19" t="n">
-        <v>112.1514739208908</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P19" t="n">
-        <v>115.2194770025959</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>145.8327464505409</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>167.3144551584022</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L20" t="n">
-        <v>170.2938696529567</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M20" t="n">
-        <v>157.4954113531601</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N20" t="n">
-        <v>155.3834392613658</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O20" t="n">
-        <v>160.1941363949306</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P20" t="n">
-        <v>171.5714850078676</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.502379967731</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>105.8649109507975</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K21" t="n">
-        <v>101.9957273309275</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L21" t="n">
-        <v>90.3553968397086</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M21" t="n">
-        <v>85.88809423000004</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N21" t="n">
-        <v>73.60710973268431</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O21" t="n">
-        <v>89.78036266371195</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P21" t="n">
-        <v>91.58500595490335</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.6455817925041</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,19 +9562,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>107.2159712812904</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M22" t="n">
-        <v>109.753013963864</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N22" t="n">
-        <v>99.20643774735849</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O22" t="n">
-        <v>112.1514739208908</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P22" t="n">
-        <v>115.2194770025959</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>145.8327464505409</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>167.3144551584022</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L23" t="n">
-        <v>170.2938696529567</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M23" t="n">
-        <v>157.4954113531601</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N23" t="n">
-        <v>155.3834392613658</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O23" t="n">
-        <v>160.1941363949306</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P23" t="n">
-        <v>171.5714850078676</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.502379967731</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>105.8649109507975</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K24" t="n">
-        <v>101.9957273309275</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L24" t="n">
-        <v>90.3553968397086</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M24" t="n">
-        <v>85.88809423000004</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N24" t="n">
-        <v>73.60710973268431</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O24" t="n">
-        <v>89.78036266371195</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P24" t="n">
-        <v>91.58500595490335</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.6455817925041</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9799,19 +9799,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>107.2159712812904</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M25" t="n">
-        <v>109.753013963864</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N25" t="n">
-        <v>99.20643774735849</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O25" t="n">
-        <v>112.1514739208908</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P25" t="n">
-        <v>115.2194770025959</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>145.8327464505409</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>167.3144551584022</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L26" t="n">
-        <v>170.2938696529567</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M26" t="n">
-        <v>157.4954113531601</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N26" t="n">
-        <v>155.3834392613658</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O26" t="n">
-        <v>160.1941363949306</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P26" t="n">
-        <v>171.5714850078676</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q26" t="n">
-        <v>177.502379967731</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>105.8649109507975</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K27" t="n">
-        <v>101.9957273309275</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L27" t="n">
-        <v>90.3553968397086</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M27" t="n">
-        <v>85.88809423000004</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N27" t="n">
-        <v>73.60710973268431</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O27" t="n">
-        <v>89.78036266371195</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P27" t="n">
-        <v>91.58500595490335</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.6455817925041</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10036,19 +10036,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>107.2159712812904</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M28" t="n">
-        <v>109.753013963864</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N28" t="n">
-        <v>99.20643774735849</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O28" t="n">
-        <v>112.1514739208908</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P28" t="n">
-        <v>115.2194770025959</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>145.8327464505409</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>167.3144551584022</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L29" t="n">
-        <v>170.2938696529567</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M29" t="n">
-        <v>157.4954113531601</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N29" t="n">
-        <v>155.3834392613658</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O29" t="n">
-        <v>160.1941363949306</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P29" t="n">
-        <v>171.5714850078676</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.502379967731</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>105.8649109507975</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K30" t="n">
-        <v>101.9957273309275</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L30" t="n">
-        <v>90.3553968397086</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M30" t="n">
-        <v>85.88809423000004</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N30" t="n">
-        <v>73.60710973268431</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O30" t="n">
-        <v>89.78036266371195</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P30" t="n">
-        <v>91.58500595490335</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.6455817925041</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10273,19 +10273,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>107.2159712812904</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M31" t="n">
-        <v>109.753013963864</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N31" t="n">
-        <v>99.20643774735849</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O31" t="n">
-        <v>112.1514739208908</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P31" t="n">
-        <v>115.2194770025959</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>145.8327464505409</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>167.3144551584022</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L32" t="n">
-        <v>170.2938696529567</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M32" t="n">
-        <v>157.4954113531601</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N32" t="n">
-        <v>155.3834392613658</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O32" t="n">
-        <v>160.1941363949306</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P32" t="n">
-        <v>171.5714850078676</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.502379967731</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>105.8649109507975</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K33" t="n">
-        <v>101.9957273309275</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L33" t="n">
-        <v>90.3553968397086</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M33" t="n">
-        <v>85.88809423000004</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N33" t="n">
-        <v>73.60710973268431</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O33" t="n">
-        <v>89.78036266371195</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P33" t="n">
-        <v>91.58500595490335</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.6455817925041</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,19 +10510,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>107.2159712812904</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M34" t="n">
-        <v>109.753013963864</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N34" t="n">
-        <v>99.20643774735849</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O34" t="n">
-        <v>112.1514739208908</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P34" t="n">
-        <v>115.2194770025959</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>145.8327464505409</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>167.3144551584022</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L35" t="n">
-        <v>170.2938696529567</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M35" t="n">
-        <v>157.4954113531601</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N35" t="n">
-        <v>155.3834392613658</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O35" t="n">
-        <v>160.1941363949306</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P35" t="n">
-        <v>171.5714850078676</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.502379967731</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>105.8649109507975</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K36" t="n">
-        <v>101.9957273309275</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L36" t="n">
-        <v>90.3553968397086</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M36" t="n">
-        <v>85.88809423000004</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N36" t="n">
-        <v>73.60710973268431</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O36" t="n">
-        <v>89.78036266371195</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P36" t="n">
-        <v>91.58500595490335</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.6455817925041</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,19 +10747,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>107.2159712812904</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M37" t="n">
-        <v>109.753013963864</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N37" t="n">
-        <v>99.20643774735849</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O37" t="n">
-        <v>112.1514739208908</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P37" t="n">
-        <v>115.2194770025959</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>145.8327464505409</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>167.3144551584022</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L38" t="n">
-        <v>170.2938696529567</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M38" t="n">
-        <v>157.4954113531601</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N38" t="n">
-        <v>155.3834392613658</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O38" t="n">
-        <v>160.1941363949306</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P38" t="n">
-        <v>171.5714850078676</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.502379967731</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>105.8649109507975</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K39" t="n">
-        <v>101.9957273309275</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L39" t="n">
-        <v>90.3553968397086</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M39" t="n">
-        <v>85.88809423000004</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N39" t="n">
-        <v>73.60710973268431</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O39" t="n">
-        <v>89.78036266371195</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P39" t="n">
-        <v>91.58500595490335</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.6455817925041</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10984,19 +10984,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>107.2159712812904</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M40" t="n">
-        <v>109.753013963864</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N40" t="n">
-        <v>99.20643774735849</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O40" t="n">
-        <v>112.1514739208908</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P40" t="n">
-        <v>115.2194770025959</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>145.8327464505409</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>167.3144551584022</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L41" t="n">
-        <v>170.2938696529567</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M41" t="n">
-        <v>157.4954113531601</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N41" t="n">
-        <v>155.3834392613658</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O41" t="n">
-        <v>160.1941363949306</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P41" t="n">
-        <v>171.5714850078676</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q41" t="n">
-        <v>177.502379967731</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>105.8649109507975</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K42" t="n">
-        <v>101.9957273309275</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L42" t="n">
-        <v>90.3553968397086</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M42" t="n">
-        <v>85.88809423000004</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N42" t="n">
-        <v>73.60710973268431</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O42" t="n">
-        <v>89.78036266371195</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P42" t="n">
-        <v>91.58500595490335</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.6455817925041</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,19 +11221,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>107.2159712812904</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M43" t="n">
-        <v>109.753013963864</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N43" t="n">
-        <v>99.20643774735849</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O43" t="n">
-        <v>112.1514739208908</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P43" t="n">
-        <v>115.2194770025959</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>145.8327464505409</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>167.3144551584022</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L44" t="n">
-        <v>170.2938696529567</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M44" t="n">
-        <v>157.4954113531601</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N44" t="n">
-        <v>155.3834392613658</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O44" t="n">
-        <v>160.1941363949306</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P44" t="n">
-        <v>171.5714850078676</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q44" t="n">
-        <v>177.502379967731</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>105.8649109507975</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K45" t="n">
-        <v>101.9957273309275</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L45" t="n">
-        <v>90.3553968397086</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M45" t="n">
-        <v>85.88809423000004</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N45" t="n">
-        <v>73.60710973268431</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O45" t="n">
-        <v>89.78036266371195</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P45" t="n">
-        <v>91.58500595490335</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.6455817925041</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,19 +11458,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>107.2159712812904</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M46" t="n">
-        <v>109.753013963864</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N46" t="n">
-        <v>99.20643774735849</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O46" t="n">
-        <v>112.1514739208908</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P46" t="n">
-        <v>115.2194770025959</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.887848835465</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>335.2258234250963</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>194.4808937474265</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>123.8073669168263</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>199.5657937982642</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2796743688757</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3124618134629</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.1215321493664</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>81.7537277694981</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.37529092466649</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>167.5598968335298</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>199.2699733100723</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9267778037482</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,19 +23428,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8048745798117</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>160.5725318391047</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>149.8537966748535</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
-        <v>80.20157226632458</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6475002703408634</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.57830583243795</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>168.9254437845474</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>220.773299303641</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>227.1504144649713</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3088781867465</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.0863413931397</v>
+        <v>307.6462469397352</v>
       </c>
       <c r="C14" t="n">
-        <v>364.6253915006667</v>
+        <v>290.1852970472622</v>
       </c>
       <c r="D14" t="n">
-        <v>354.0355413503421</v>
+        <v>279.5954468969376</v>
       </c>
       <c r="E14" t="n">
-        <v>381.2828698019209</v>
+        <v>306.8427753485165</v>
       </c>
       <c r="F14" t="n">
-        <v>406.2285454713706</v>
+        <v>331.7884510179661</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2403485651241</v>
+        <v>340.0743538035741</v>
       </c>
       <c r="H14" t="n">
-        <v>334.5783231547555</v>
+        <v>262.9453521705555</v>
       </c>
       <c r="I14" t="n">
-        <v>193.8333934770857</v>
+        <v>129.9605273939005</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>123.1598666464854</v>
+        <v>65.937686961534</v>
       </c>
       <c r="S14" t="n">
-        <v>198.9182935279234</v>
+        <v>130.7242458026525</v>
       </c>
       <c r="T14" t="n">
-        <v>220.6321740985349</v>
+        <v>147.3919510462234</v>
       </c>
       <c r="U14" t="n">
-        <v>250.664961543122</v>
+        <v>176.246795065066</v>
       </c>
       <c r="V14" t="n">
-        <v>327.104758199794</v>
+        <v>252.6646637463896</v>
       </c>
       <c r="W14" t="n">
-        <v>348.5934684470722</v>
+        <v>274.1533739936677</v>
       </c>
       <c r="X14" t="n">
-        <v>369.0836004081282</v>
+        <v>294.6435059547237</v>
       </c>
       <c r="Y14" t="n">
-        <v>385.5904383857127</v>
+        <v>311.1503439323083</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.8856833795265</v>
+        <v>91.44558892612203</v>
       </c>
       <c r="C15" t="n">
-        <v>172.0609987179749</v>
+        <v>97.62090426457043</v>
       </c>
       <c r="D15" t="n">
-        <v>146.7975652942979</v>
+        <v>72.35747084089344</v>
       </c>
       <c r="E15" t="n">
-        <v>156.9975801850601</v>
+        <v>82.55748573165563</v>
       </c>
       <c r="F15" t="n">
-        <v>144.421712123043</v>
+        <v>69.98161766963857</v>
       </c>
       <c r="G15" t="n">
-        <v>136.4740318790256</v>
+        <v>62.18059368999398</v>
       </c>
       <c r="H15" t="n">
-        <v>109.4440360692917</v>
+        <v>36.42033237969913</v>
       </c>
       <c r="I15" t="n">
-        <v>81.10622749915723</v>
+        <v>11.71548249894209</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>85.72779065432562</v>
+        <v>20.39324917663426</v>
       </c>
       <c r="S15" t="n">
-        <v>166.9123965631889</v>
+        <v>95.19637789758782</v>
       </c>
       <c r="T15" t="n">
-        <v>198.6224730397315</v>
+        <v>124.7735062484265</v>
       </c>
       <c r="U15" t="n">
-        <v>225.2792775334074</v>
+        <v>150.8488315184485</v>
       </c>
       <c r="V15" t="n">
-        <v>232.1530868790844</v>
+        <v>157.7129924256799</v>
       </c>
       <c r="W15" t="n">
-        <v>251.0474828905787</v>
+        <v>176.6073884371743</v>
       </c>
       <c r="X15" t="n">
-        <v>205.1254849331366</v>
+        <v>130.6853904797322</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.0351955069635</v>
+        <v>130.5951010535591</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.1844799115964</v>
+        <v>104.744385458192</v>
       </c>
       <c r="C16" t="n">
-        <v>166.599320828287</v>
+        <v>92.15922637488252</v>
       </c>
       <c r="D16" t="n">
-        <v>147.9679727478715</v>
+        <v>73.52787829446704</v>
       </c>
       <c r="E16" t="n">
-        <v>145.7864623762283</v>
+        <v>71.34636792282386</v>
       </c>
       <c r="F16" t="n">
-        <v>144.7735477525904</v>
+        <v>70.33345329918593</v>
       </c>
       <c r="G16" t="n">
-        <v>167.1573743094708</v>
+        <v>92.84023154161339</v>
       </c>
       <c r="H16" t="n">
-        <v>159.9250315687638</v>
+        <v>86.57808937413189</v>
       </c>
       <c r="I16" t="n">
-        <v>149.2062964045127</v>
+        <v>78.46369445828564</v>
       </c>
       <c r="J16" t="n">
-        <v>79.5540719959837</v>
+        <v>13.80666171075308</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.93080556209708</v>
+        <v>5.786238159361147</v>
       </c>
       <c r="R16" t="n">
-        <v>168.2779435142065</v>
+        <v>99.36620394003411</v>
       </c>
       <c r="S16" t="n">
-        <v>220.1257990333001</v>
+        <v>147.8284171362013</v>
       </c>
       <c r="T16" t="n">
-        <v>226.5029141946304</v>
+        <v>152.5881587612905</v>
       </c>
       <c r="U16" t="n">
-        <v>285.6613779164056</v>
+        <v>211.2279899185764</v>
       </c>
       <c r="V16" t="n">
-        <v>251.4901430534871</v>
+        <v>177.0500486000827</v>
       </c>
       <c r="W16" t="n">
-        <v>285.8754980662501</v>
+        <v>211.4354036128457</v>
       </c>
       <c r="X16" t="n">
-        <v>225.0621551186963</v>
+        <v>150.6220606652918</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.9371530817539</v>
+        <v>143.4970586283495</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.0863413931397</v>
+        <v>307.6462469397352</v>
       </c>
       <c r="C17" t="n">
-        <v>364.6253915006667</v>
+        <v>290.1852970472622</v>
       </c>
       <c r="D17" t="n">
-        <v>354.0355413503421</v>
+        <v>279.5954468969376</v>
       </c>
       <c r="E17" t="n">
-        <v>381.2828698019209</v>
+        <v>306.8427753485165</v>
       </c>
       <c r="F17" t="n">
-        <v>406.2285454713706</v>
+        <v>331.7884510179661</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2403485651241</v>
+        <v>340.0743538035741</v>
       </c>
       <c r="H17" t="n">
-        <v>334.5783231547555</v>
+        <v>262.9453521705555</v>
       </c>
       <c r="I17" t="n">
-        <v>193.8333934770857</v>
+        <v>129.9605273939005</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>123.1598666464854</v>
+        <v>65.937686961534</v>
       </c>
       <c r="S17" t="n">
-        <v>198.9182935279234</v>
+        <v>130.7242458026525</v>
       </c>
       <c r="T17" t="n">
-        <v>220.6321740985349</v>
+        <v>147.3919510462234</v>
       </c>
       <c r="U17" t="n">
-        <v>250.664961543122</v>
+        <v>176.246795065066</v>
       </c>
       <c r="V17" t="n">
-        <v>327.104758199794</v>
+        <v>252.6646637463896</v>
       </c>
       <c r="W17" t="n">
-        <v>348.5934684470722</v>
+        <v>274.1533739936677</v>
       </c>
       <c r="X17" t="n">
-        <v>369.0836004081282</v>
+        <v>294.6435059547237</v>
       </c>
       <c r="Y17" t="n">
-        <v>385.5904383857127</v>
+        <v>311.1503439323083</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.8856833795265</v>
+        <v>91.44558892612203</v>
       </c>
       <c r="C18" t="n">
-        <v>172.0609987179749</v>
+        <v>97.62090426457043</v>
       </c>
       <c r="D18" t="n">
-        <v>146.7975652942979</v>
+        <v>72.35747084089344</v>
       </c>
       <c r="E18" t="n">
-        <v>156.9975801850601</v>
+        <v>82.55748573165563</v>
       </c>
       <c r="F18" t="n">
-        <v>144.421712123043</v>
+        <v>69.98161766963857</v>
       </c>
       <c r="G18" t="n">
-        <v>136.4740318790256</v>
+        <v>62.18059368999398</v>
       </c>
       <c r="H18" t="n">
-        <v>109.4440360692917</v>
+        <v>36.42033237969913</v>
       </c>
       <c r="I18" t="n">
-        <v>81.10622749915723</v>
+        <v>11.71548249894209</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>85.72779065432562</v>
+        <v>20.39324917663426</v>
       </c>
       <c r="S18" t="n">
-        <v>166.9123965631889</v>
+        <v>95.19637789758782</v>
       </c>
       <c r="T18" t="n">
-        <v>198.6224730397315</v>
+        <v>124.7735062484265</v>
       </c>
       <c r="U18" t="n">
-        <v>225.2792775334074</v>
+        <v>150.8488315184485</v>
       </c>
       <c r="V18" t="n">
-        <v>232.1530868790844</v>
+        <v>157.7129924256799</v>
       </c>
       <c r="W18" t="n">
-        <v>251.0474828905787</v>
+        <v>176.6073884371743</v>
       </c>
       <c r="X18" t="n">
-        <v>205.1254849331366</v>
+        <v>130.6853904797322</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.0351955069635</v>
+        <v>130.5951010535591</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.1844799115964</v>
+        <v>104.744385458192</v>
       </c>
       <c r="C19" t="n">
-        <v>166.599320828287</v>
+        <v>92.15922637488252</v>
       </c>
       <c r="D19" t="n">
-        <v>147.9679727478715</v>
+        <v>73.52787829446704</v>
       </c>
       <c r="E19" t="n">
-        <v>145.7864623762283</v>
+        <v>71.34636792282386</v>
       </c>
       <c r="F19" t="n">
-        <v>144.7735477525904</v>
+        <v>70.33345329918593</v>
       </c>
       <c r="G19" t="n">
-        <v>167.1573743094708</v>
+        <v>92.84023154161339</v>
       </c>
       <c r="H19" t="n">
-        <v>159.9250315687638</v>
+        <v>86.57808937413189</v>
       </c>
       <c r="I19" t="n">
-        <v>149.2062964045127</v>
+        <v>78.46369445828564</v>
       </c>
       <c r="J19" t="n">
-        <v>79.5540719959837</v>
+        <v>13.80666171075308</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.93080556209708</v>
+        <v>5.786238159361147</v>
       </c>
       <c r="R19" t="n">
-        <v>168.2779435142065</v>
+        <v>99.36620394003411</v>
       </c>
       <c r="S19" t="n">
-        <v>220.1257990333001</v>
+        <v>147.8284171362013</v>
       </c>
       <c r="T19" t="n">
-        <v>226.5029141946304</v>
+        <v>152.5881587612905</v>
       </c>
       <c r="U19" t="n">
-        <v>285.6613779164056</v>
+        <v>211.2279899185764</v>
       </c>
       <c r="V19" t="n">
-        <v>251.4901430534871</v>
+        <v>177.0500486000827</v>
       </c>
       <c r="W19" t="n">
-        <v>285.8754980662501</v>
+        <v>211.4354036128457</v>
       </c>
       <c r="X19" t="n">
-        <v>225.0621551186963</v>
+        <v>150.6220606652918</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.9371530817539</v>
+        <v>143.4970586283495</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.0863413931397</v>
+        <v>307.6462469397352</v>
       </c>
       <c r="C20" t="n">
-        <v>364.6253915006667</v>
+        <v>290.1852970472622</v>
       </c>
       <c r="D20" t="n">
-        <v>354.0355413503421</v>
+        <v>279.5954468969376</v>
       </c>
       <c r="E20" t="n">
-        <v>381.2828698019209</v>
+        <v>306.8427753485165</v>
       </c>
       <c r="F20" t="n">
-        <v>406.2285454713706</v>
+        <v>331.7884510179661</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2403485651241</v>
+        <v>340.0743538035741</v>
       </c>
       <c r="H20" t="n">
-        <v>334.5783231547555</v>
+        <v>262.9453521705555</v>
       </c>
       <c r="I20" t="n">
-        <v>193.8333934770857</v>
+        <v>129.9605273939005</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>123.1598666464854</v>
+        <v>65.937686961534</v>
       </c>
       <c r="S20" t="n">
-        <v>198.9182935279234</v>
+        <v>130.7242458026525</v>
       </c>
       <c r="T20" t="n">
-        <v>220.6321740985349</v>
+        <v>147.3919510462234</v>
       </c>
       <c r="U20" t="n">
-        <v>250.664961543122</v>
+        <v>176.246795065066</v>
       </c>
       <c r="V20" t="n">
-        <v>327.104758199794</v>
+        <v>252.6646637463896</v>
       </c>
       <c r="W20" t="n">
-        <v>348.5934684470722</v>
+        <v>274.1533739936677</v>
       </c>
       <c r="X20" t="n">
-        <v>369.0836004081282</v>
+        <v>294.6435059547237</v>
       </c>
       <c r="Y20" t="n">
-        <v>385.5904383857127</v>
+        <v>311.1503439323083</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.8856833795265</v>
+        <v>91.44558892612203</v>
       </c>
       <c r="C21" t="n">
-        <v>172.0609987179749</v>
+        <v>97.62090426457043</v>
       </c>
       <c r="D21" t="n">
-        <v>146.7975652942979</v>
+        <v>72.35747084089344</v>
       </c>
       <c r="E21" t="n">
-        <v>156.9975801850601</v>
+        <v>82.55748573165563</v>
       </c>
       <c r="F21" t="n">
-        <v>144.421712123043</v>
+        <v>69.98161766963857</v>
       </c>
       <c r="G21" t="n">
-        <v>136.4740318790256</v>
+        <v>62.18059368999398</v>
       </c>
       <c r="H21" t="n">
-        <v>109.4440360692917</v>
+        <v>36.42033237969913</v>
       </c>
       <c r="I21" t="n">
-        <v>81.10622749915723</v>
+        <v>11.71548249894209</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>85.72779065432562</v>
+        <v>20.39324917663426</v>
       </c>
       <c r="S21" t="n">
-        <v>166.9123965631889</v>
+        <v>95.19637789758782</v>
       </c>
       <c r="T21" t="n">
-        <v>198.6224730397315</v>
+        <v>124.7735062484265</v>
       </c>
       <c r="U21" t="n">
-        <v>225.2792775334074</v>
+        <v>150.8488315184485</v>
       </c>
       <c r="V21" t="n">
-        <v>232.1530868790844</v>
+        <v>157.7129924256799</v>
       </c>
       <c r="W21" t="n">
-        <v>251.0474828905787</v>
+        <v>176.6073884371743</v>
       </c>
       <c r="X21" t="n">
-        <v>205.1254849331366</v>
+        <v>130.6853904797322</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.0351955069635</v>
+        <v>130.5951010535591</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.1844799115964</v>
+        <v>104.744385458192</v>
       </c>
       <c r="C22" t="n">
-        <v>166.599320828287</v>
+        <v>92.15922637488252</v>
       </c>
       <c r="D22" t="n">
-        <v>147.9679727478715</v>
+        <v>73.52787829446704</v>
       </c>
       <c r="E22" t="n">
-        <v>145.7864623762283</v>
+        <v>71.34636792282386</v>
       </c>
       <c r="F22" t="n">
-        <v>144.7735477525904</v>
+        <v>70.33345329918593</v>
       </c>
       <c r="G22" t="n">
-        <v>167.1573743094708</v>
+        <v>92.84023154161339</v>
       </c>
       <c r="H22" t="n">
-        <v>159.9250315687638</v>
+        <v>86.57808937413189</v>
       </c>
       <c r="I22" t="n">
-        <v>149.2062964045127</v>
+        <v>78.46369445828564</v>
       </c>
       <c r="J22" t="n">
-        <v>79.5540719959837</v>
+        <v>13.80666171075308</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.93080556209708</v>
+        <v>5.786238159361147</v>
       </c>
       <c r="R22" t="n">
-        <v>168.2779435142065</v>
+        <v>99.36620394003411</v>
       </c>
       <c r="S22" t="n">
-        <v>220.1257990333001</v>
+        <v>147.8284171362013</v>
       </c>
       <c r="T22" t="n">
-        <v>226.5029141946304</v>
+        <v>152.5881587612905</v>
       </c>
       <c r="U22" t="n">
-        <v>285.6613779164056</v>
+        <v>211.2279899185764</v>
       </c>
       <c r="V22" t="n">
-        <v>251.4901430534871</v>
+        <v>177.0500486000827</v>
       </c>
       <c r="W22" t="n">
-        <v>285.8754980662501</v>
+        <v>211.4354036128457</v>
       </c>
       <c r="X22" t="n">
-        <v>225.0621551186963</v>
+        <v>150.6220606652918</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.9371530817539</v>
+        <v>143.4970586283495</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.0863413931397</v>
+        <v>307.6462469397352</v>
       </c>
       <c r="C23" t="n">
-        <v>364.6253915006667</v>
+        <v>290.1852970472622</v>
       </c>
       <c r="D23" t="n">
-        <v>354.0355413503421</v>
+        <v>279.5954468969376</v>
       </c>
       <c r="E23" t="n">
-        <v>381.2828698019209</v>
+        <v>306.8427753485165</v>
       </c>
       <c r="F23" t="n">
-        <v>406.2285454713706</v>
+        <v>331.7884510179661</v>
       </c>
       <c r="G23" t="n">
-        <v>414.2403485651241</v>
+        <v>340.0743538035741</v>
       </c>
       <c r="H23" t="n">
-        <v>334.5783231547555</v>
+        <v>262.9453521705555</v>
       </c>
       <c r="I23" t="n">
-        <v>193.8333934770857</v>
+        <v>129.9605273939005</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>123.1598666464854</v>
+        <v>65.937686961534</v>
       </c>
       <c r="S23" t="n">
-        <v>198.9182935279234</v>
+        <v>130.7242458026525</v>
       </c>
       <c r="T23" t="n">
-        <v>220.6321740985349</v>
+        <v>147.3919510462234</v>
       </c>
       <c r="U23" t="n">
-        <v>250.664961543122</v>
+        <v>176.246795065066</v>
       </c>
       <c r="V23" t="n">
-        <v>327.104758199794</v>
+        <v>252.6646637463896</v>
       </c>
       <c r="W23" t="n">
-        <v>348.5934684470722</v>
+        <v>274.1533739936677</v>
       </c>
       <c r="X23" t="n">
-        <v>369.0836004081282</v>
+        <v>294.6435059547237</v>
       </c>
       <c r="Y23" t="n">
-        <v>385.5904383857127</v>
+        <v>311.1503439323083</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.8856833795265</v>
+        <v>91.44558892612203</v>
       </c>
       <c r="C24" t="n">
-        <v>172.0609987179749</v>
+        <v>97.62090426457043</v>
       </c>
       <c r="D24" t="n">
-        <v>146.7975652942979</v>
+        <v>72.35747084089344</v>
       </c>
       <c r="E24" t="n">
-        <v>156.9975801850601</v>
+        <v>82.55748573165563</v>
       </c>
       <c r="F24" t="n">
-        <v>144.421712123043</v>
+        <v>69.98161766963857</v>
       </c>
       <c r="G24" t="n">
-        <v>136.4740318790256</v>
+        <v>62.18059368999398</v>
       </c>
       <c r="H24" t="n">
-        <v>109.4440360692917</v>
+        <v>36.42033237969913</v>
       </c>
       <c r="I24" t="n">
-        <v>81.10622749915723</v>
+        <v>11.71548249894209</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>85.72779065432562</v>
+        <v>20.39324917663426</v>
       </c>
       <c r="S24" t="n">
-        <v>166.9123965631889</v>
+        <v>95.19637789758782</v>
       </c>
       <c r="T24" t="n">
-        <v>198.6224730397315</v>
+        <v>124.7735062484265</v>
       </c>
       <c r="U24" t="n">
-        <v>225.2792775334074</v>
+        <v>150.8488315184485</v>
       </c>
       <c r="V24" t="n">
-        <v>232.1530868790844</v>
+        <v>157.7129924256799</v>
       </c>
       <c r="W24" t="n">
-        <v>251.0474828905787</v>
+        <v>176.6073884371743</v>
       </c>
       <c r="X24" t="n">
-        <v>205.1254849331366</v>
+        <v>130.6853904797322</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.0351955069635</v>
+        <v>130.5951010535591</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.1844799115964</v>
+        <v>104.744385458192</v>
       </c>
       <c r="C25" t="n">
-        <v>166.599320828287</v>
+        <v>92.15922637488252</v>
       </c>
       <c r="D25" t="n">
-        <v>147.9679727478715</v>
+        <v>73.52787829446704</v>
       </c>
       <c r="E25" t="n">
-        <v>145.7864623762283</v>
+        <v>71.34636792282386</v>
       </c>
       <c r="F25" t="n">
-        <v>144.7735477525904</v>
+        <v>70.33345329918593</v>
       </c>
       <c r="G25" t="n">
-        <v>167.1573743094708</v>
+        <v>92.84023154161339</v>
       </c>
       <c r="H25" t="n">
-        <v>159.9250315687638</v>
+        <v>86.57808937413189</v>
       </c>
       <c r="I25" t="n">
-        <v>149.2062964045127</v>
+        <v>78.46369445828564</v>
       </c>
       <c r="J25" t="n">
-        <v>79.5540719959837</v>
+        <v>13.80666171075308</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.93080556209708</v>
+        <v>5.786238159361147</v>
       </c>
       <c r="R25" t="n">
-        <v>168.2779435142065</v>
+        <v>99.36620394003411</v>
       </c>
       <c r="S25" t="n">
-        <v>220.1257990333001</v>
+        <v>147.8284171362013</v>
       </c>
       <c r="T25" t="n">
-        <v>226.5029141946304</v>
+        <v>152.5881587612905</v>
       </c>
       <c r="U25" t="n">
-        <v>285.6613779164056</v>
+        <v>211.2279899185764</v>
       </c>
       <c r="V25" t="n">
-        <v>251.4901430534871</v>
+        <v>177.0500486000827</v>
       </c>
       <c r="W25" t="n">
-        <v>285.8754980662501</v>
+        <v>211.4354036128457</v>
       </c>
       <c r="X25" t="n">
-        <v>225.0621551186963</v>
+        <v>150.6220606652918</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.9371530817539</v>
+        <v>143.4970586283495</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.0863413931397</v>
+        <v>307.6462469397352</v>
       </c>
       <c r="C26" t="n">
-        <v>364.6253915006667</v>
+        <v>290.1852970472622</v>
       </c>
       <c r="D26" t="n">
-        <v>354.0355413503421</v>
+        <v>279.5954468969376</v>
       </c>
       <c r="E26" t="n">
-        <v>381.2828698019209</v>
+        <v>306.8427753485165</v>
       </c>
       <c r="F26" t="n">
-        <v>406.2285454713706</v>
+        <v>331.7884510179661</v>
       </c>
       <c r="G26" t="n">
-        <v>414.2403485651241</v>
+        <v>340.0743538035741</v>
       </c>
       <c r="H26" t="n">
-        <v>334.5783231547555</v>
+        <v>262.9453521705555</v>
       </c>
       <c r="I26" t="n">
-        <v>193.8333934770857</v>
+        <v>129.9605273939005</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>123.1598666464854</v>
+        <v>65.937686961534</v>
       </c>
       <c r="S26" t="n">
-        <v>198.9182935279234</v>
+        <v>130.7242458026525</v>
       </c>
       <c r="T26" t="n">
-        <v>220.6321740985349</v>
+        <v>147.3919510462234</v>
       </c>
       <c r="U26" t="n">
-        <v>250.664961543122</v>
+        <v>176.246795065066</v>
       </c>
       <c r="V26" t="n">
-        <v>327.104758199794</v>
+        <v>252.6646637463896</v>
       </c>
       <c r="W26" t="n">
-        <v>348.5934684470722</v>
+        <v>274.1533739936677</v>
       </c>
       <c r="X26" t="n">
-        <v>369.0836004081282</v>
+        <v>294.6435059547237</v>
       </c>
       <c r="Y26" t="n">
-        <v>385.5904383857127</v>
+        <v>311.1503439323083</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.8856833795265</v>
+        <v>91.44558892612203</v>
       </c>
       <c r="C27" t="n">
-        <v>172.0609987179749</v>
+        <v>97.62090426457043</v>
       </c>
       <c r="D27" t="n">
-        <v>146.7975652942979</v>
+        <v>72.35747084089344</v>
       </c>
       <c r="E27" t="n">
-        <v>156.9975801850601</v>
+        <v>82.55748573165563</v>
       </c>
       <c r="F27" t="n">
-        <v>144.421712123043</v>
+        <v>69.98161766963857</v>
       </c>
       <c r="G27" t="n">
-        <v>136.4740318790256</v>
+        <v>62.18059368999398</v>
       </c>
       <c r="H27" t="n">
-        <v>109.4440360692917</v>
+        <v>36.42033237969913</v>
       </c>
       <c r="I27" t="n">
-        <v>81.10622749915723</v>
+        <v>11.71548249894209</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>85.72779065432562</v>
+        <v>20.39324917663426</v>
       </c>
       <c r="S27" t="n">
-        <v>166.9123965631889</v>
+        <v>95.19637789758782</v>
       </c>
       <c r="T27" t="n">
-        <v>198.6224730397315</v>
+        <v>124.7735062484265</v>
       </c>
       <c r="U27" t="n">
-        <v>225.2792775334074</v>
+        <v>150.8488315184485</v>
       </c>
       <c r="V27" t="n">
-        <v>232.1530868790844</v>
+        <v>157.7129924256799</v>
       </c>
       <c r="W27" t="n">
-        <v>251.0474828905787</v>
+        <v>176.6073884371743</v>
       </c>
       <c r="X27" t="n">
-        <v>205.1254849331366</v>
+        <v>130.6853904797322</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.0351955069635</v>
+        <v>130.5951010535591</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.1844799115964</v>
+        <v>104.744385458192</v>
       </c>
       <c r="C28" t="n">
-        <v>166.599320828287</v>
+        <v>92.15922637488252</v>
       </c>
       <c r="D28" t="n">
-        <v>147.9679727478715</v>
+        <v>73.52787829446704</v>
       </c>
       <c r="E28" t="n">
-        <v>145.7864623762283</v>
+        <v>71.34636792282386</v>
       </c>
       <c r="F28" t="n">
-        <v>144.7735477525904</v>
+        <v>70.33345329918593</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1573743094708</v>
+        <v>92.84023154161339</v>
       </c>
       <c r="H28" t="n">
-        <v>159.9250315687638</v>
+        <v>86.57808937413189</v>
       </c>
       <c r="I28" t="n">
-        <v>149.2062964045127</v>
+        <v>78.46369445828564</v>
       </c>
       <c r="J28" t="n">
-        <v>79.5540719959837</v>
+        <v>13.80666171075308</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.93080556209708</v>
+        <v>5.786238159361147</v>
       </c>
       <c r="R28" t="n">
-        <v>168.2779435142065</v>
+        <v>99.36620394003411</v>
       </c>
       <c r="S28" t="n">
-        <v>220.1257990333001</v>
+        <v>147.8284171362013</v>
       </c>
       <c r="T28" t="n">
-        <v>226.5029141946304</v>
+        <v>152.5881587612905</v>
       </c>
       <c r="U28" t="n">
-        <v>285.6613779164056</v>
+        <v>211.2279899185764</v>
       </c>
       <c r="V28" t="n">
-        <v>251.4901430534871</v>
+        <v>177.0500486000827</v>
       </c>
       <c r="W28" t="n">
-        <v>285.8754980662501</v>
+        <v>211.4354036128457</v>
       </c>
       <c r="X28" t="n">
-        <v>225.0621551186963</v>
+        <v>150.6220606652918</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.9371530817539</v>
+        <v>143.4970586283495</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>272.6423053238479</v>
+        <v>271.2259145600361</v>
       </c>
       <c r="C29" t="n">
-        <v>255.1813554313749</v>
+        <v>253.7649646675631</v>
       </c>
       <c r="D29" t="n">
-        <v>244.5915052810503</v>
+        <v>243.1751145172385</v>
       </c>
       <c r="E29" t="n">
-        <v>271.8388337326292</v>
+        <v>270.4224429688173</v>
       </c>
       <c r="F29" t="n">
-        <v>296.7845094020788</v>
+        <v>295.368118638267</v>
       </c>
       <c r="G29" t="n">
-        <v>304.7963124958324</v>
+        <v>303.654021423875</v>
       </c>
       <c r="H29" t="n">
-        <v>225.1342870854637</v>
+        <v>226.5250197908564</v>
       </c>
       <c r="I29" t="n">
-        <v>84.38935740779392</v>
+        <v>93.54019501420134</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>13.71583057719366</v>
+        <v>29.51735458183487</v>
       </c>
       <c r="S29" t="n">
-        <v>89.4742574586316</v>
+        <v>94.30391342295337</v>
       </c>
       <c r="T29" t="n">
-        <v>111.1881380292431</v>
+        <v>110.9716186665242</v>
       </c>
       <c r="U29" t="n">
-        <v>141.2209254738303</v>
+        <v>139.8264626853668</v>
       </c>
       <c r="V29" t="n">
-        <v>217.6607221305023</v>
+        <v>216.2443313666905</v>
       </c>
       <c r="W29" t="n">
-        <v>239.1494323777804</v>
+        <v>237.7330416139686</v>
       </c>
       <c r="X29" t="n">
-        <v>259.6395643388364</v>
+        <v>258.2231735750246</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.146402316421</v>
+        <v>274.7300115526091</v>
       </c>
     </row>
     <row r="30">
@@ -24756,22 +24756,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56.44164731023473</v>
+        <v>55.0252565464229</v>
       </c>
       <c r="C30" t="n">
-        <v>62.61696264868313</v>
+        <v>61.20057188487129</v>
       </c>
       <c r="D30" t="n">
-        <v>37.35352922500614</v>
+        <v>35.93713846119431</v>
       </c>
       <c r="E30" t="n">
-        <v>47.55354411576833</v>
+        <v>46.1371533519565</v>
       </c>
       <c r="F30" t="n">
-        <v>34.97767605375127</v>
+        <v>33.56128528993943</v>
       </c>
       <c r="G30" t="n">
-        <v>27.02999580973381</v>
+        <v>25.76026131029485</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24807,25 +24807,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.46836049389714</v>
+        <v>58.77604551788869</v>
       </c>
       <c r="T30" t="n">
-        <v>89.17843697043973</v>
+        <v>88.3531738687274</v>
       </c>
       <c r="U30" t="n">
-        <v>115.8352414641156</v>
+        <v>114.4284991387494</v>
       </c>
       <c r="V30" t="n">
-        <v>122.7090508097927</v>
+        <v>121.2926600459808</v>
       </c>
       <c r="W30" t="n">
-        <v>141.603446821287</v>
+        <v>140.1870560574752</v>
       </c>
       <c r="X30" t="n">
-        <v>95.68144886384486</v>
+        <v>94.26505810003303</v>
       </c>
       <c r="Y30" t="n">
-        <v>95.59115943767175</v>
+        <v>94.17476867385992</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.74044384230469</v>
+        <v>68.32405307849285</v>
       </c>
       <c r="C31" t="n">
-        <v>57.15528475899522</v>
+        <v>55.73889399518339</v>
       </c>
       <c r="D31" t="n">
-        <v>38.52393667857974</v>
+        <v>37.10754591476791</v>
       </c>
       <c r="E31" t="n">
-        <v>36.34242630693656</v>
+        <v>34.92603554312473</v>
       </c>
       <c r="F31" t="n">
-        <v>35.32951168329863</v>
+        <v>33.9131209194868</v>
       </c>
       <c r="G31" t="n">
-        <v>57.71333824017907</v>
+        <v>56.41989916191426</v>
       </c>
       <c r="H31" t="n">
-        <v>50.48099549947206</v>
+        <v>50.15775699443276</v>
       </c>
       <c r="I31" t="n">
-        <v>39.7622603352209</v>
+        <v>42.04336207858651</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>58.83390744491476</v>
+        <v>62.94587156033498</v>
       </c>
       <c r="S31" t="n">
-        <v>110.6817629640083</v>
+        <v>111.4080847565022</v>
       </c>
       <c r="T31" t="n">
-        <v>117.0588781253387</v>
+        <v>116.1678263815913</v>
       </c>
       <c r="U31" t="n">
-        <v>176.2173418471139</v>
+        <v>174.8076575388773</v>
       </c>
       <c r="V31" t="n">
-        <v>142.0461069841954</v>
+        <v>140.6297162203836</v>
       </c>
       <c r="W31" t="n">
-        <v>176.4314619969584</v>
+        <v>175.0150712331466</v>
       </c>
       <c r="X31" t="n">
-        <v>115.6181190494045</v>
+        <v>114.2017282855927</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.4931170124622</v>
+        <v>107.0767262486503</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>272.6423053238479</v>
+        <v>271.2259145600361</v>
       </c>
       <c r="C32" t="n">
-        <v>255.1813554313749</v>
+        <v>253.7649646675631</v>
       </c>
       <c r="D32" t="n">
-        <v>244.5915052810503</v>
+        <v>243.1751145172385</v>
       </c>
       <c r="E32" t="n">
-        <v>271.8388337326292</v>
+        <v>270.4224429688173</v>
       </c>
       <c r="F32" t="n">
-        <v>296.7845094020788</v>
+        <v>295.368118638267</v>
       </c>
       <c r="G32" t="n">
-        <v>304.7963124958324</v>
+        <v>303.654021423875</v>
       </c>
       <c r="H32" t="n">
-        <v>225.1342870854637</v>
+        <v>226.5250197908564</v>
       </c>
       <c r="I32" t="n">
-        <v>84.38935740779392</v>
+        <v>93.54019501420134</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>13.71583057719366</v>
+        <v>29.51735458183487</v>
       </c>
       <c r="S32" t="n">
-        <v>89.4742574586316</v>
+        <v>94.30391342295337</v>
       </c>
       <c r="T32" t="n">
-        <v>111.1881380292431</v>
+        <v>110.9716186665242</v>
       </c>
       <c r="U32" t="n">
-        <v>141.2209254738303</v>
+        <v>139.8264626853668</v>
       </c>
       <c r="V32" t="n">
-        <v>217.6607221305023</v>
+        <v>216.2443313666905</v>
       </c>
       <c r="W32" t="n">
-        <v>239.1494323777804</v>
+        <v>237.7330416139686</v>
       </c>
       <c r="X32" t="n">
-        <v>259.6395643388364</v>
+        <v>258.2231735750246</v>
       </c>
       <c r="Y32" t="n">
-        <v>276.146402316421</v>
+        <v>274.7300115526091</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>56.44164731023473</v>
+        <v>55.0252565464229</v>
       </c>
       <c r="C33" t="n">
-        <v>62.61696264868313</v>
+        <v>61.20057188487129</v>
       </c>
       <c r="D33" t="n">
-        <v>37.35352922500614</v>
+        <v>35.93713846119431</v>
       </c>
       <c r="E33" t="n">
-        <v>47.55354411576833</v>
+        <v>46.1371533519565</v>
       </c>
       <c r="F33" t="n">
-        <v>34.97767605375127</v>
+        <v>33.56128528993943</v>
       </c>
       <c r="G33" t="n">
-        <v>27.02999580973381</v>
+        <v>25.76026131029485</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.46836049389714</v>
+        <v>58.77604551788869</v>
       </c>
       <c r="T33" t="n">
-        <v>89.17843697043973</v>
+        <v>88.3531738687274</v>
       </c>
       <c r="U33" t="n">
-        <v>115.8352414641156</v>
+        <v>114.4284991387494</v>
       </c>
       <c r="V33" t="n">
-        <v>122.7090508097927</v>
+        <v>121.2926600459808</v>
       </c>
       <c r="W33" t="n">
-        <v>141.603446821287</v>
+        <v>140.1870560574752</v>
       </c>
       <c r="X33" t="n">
-        <v>95.68144886384486</v>
+        <v>94.26505810003303</v>
       </c>
       <c r="Y33" t="n">
-        <v>95.59115943767175</v>
+        <v>94.17476867385992</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.74044384230469</v>
+        <v>68.32405307849285</v>
       </c>
       <c r="C34" t="n">
-        <v>57.15528475899522</v>
+        <v>55.73889399518339</v>
       </c>
       <c r="D34" t="n">
-        <v>38.52393667857974</v>
+        <v>37.10754591476791</v>
       </c>
       <c r="E34" t="n">
-        <v>36.34242630693656</v>
+        <v>34.92603554312473</v>
       </c>
       <c r="F34" t="n">
-        <v>35.32951168329863</v>
+        <v>33.9131209194868</v>
       </c>
       <c r="G34" t="n">
-        <v>57.71333824017907</v>
+        <v>56.41989916191426</v>
       </c>
       <c r="H34" t="n">
-        <v>50.48099549947206</v>
+        <v>50.15775699443276</v>
       </c>
       <c r="I34" t="n">
-        <v>39.7622603352209</v>
+        <v>42.04336207858651</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>58.83390744491476</v>
+        <v>62.94587156033498</v>
       </c>
       <c r="S34" t="n">
-        <v>110.6817629640083</v>
+        <v>111.4080847565022</v>
       </c>
       <c r="T34" t="n">
-        <v>117.0588781253387</v>
+        <v>116.1678263815913</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2173418471139</v>
+        <v>174.8076575388773</v>
       </c>
       <c r="V34" t="n">
-        <v>142.0461069841954</v>
+        <v>140.6297162203836</v>
       </c>
       <c r="W34" t="n">
-        <v>176.4314619969584</v>
+        <v>175.0150712331466</v>
       </c>
       <c r="X34" t="n">
-        <v>115.6181190494045</v>
+        <v>114.2017282855927</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.4931170124622</v>
+        <v>107.0767262486503</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.6423053238479</v>
+        <v>271.2259145600361</v>
       </c>
       <c r="C35" t="n">
-        <v>255.1813554313749</v>
+        <v>253.7649646675631</v>
       </c>
       <c r="D35" t="n">
-        <v>244.5915052810503</v>
+        <v>243.1751145172385</v>
       </c>
       <c r="E35" t="n">
-        <v>271.8388337326292</v>
+        <v>270.4224429688173</v>
       </c>
       <c r="F35" t="n">
-        <v>296.7845094020788</v>
+        <v>295.368118638267</v>
       </c>
       <c r="G35" t="n">
-        <v>304.7963124958324</v>
+        <v>303.654021423875</v>
       </c>
       <c r="H35" t="n">
-        <v>225.1342870854637</v>
+        <v>226.5250197908564</v>
       </c>
       <c r="I35" t="n">
-        <v>84.38935740779392</v>
+        <v>93.54019501420134</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>13.71583057719366</v>
+        <v>29.51735458183487</v>
       </c>
       <c r="S35" t="n">
-        <v>89.4742574586316</v>
+        <v>94.30391342295337</v>
       </c>
       <c r="T35" t="n">
-        <v>111.1881380292431</v>
+        <v>110.9716186665242</v>
       </c>
       <c r="U35" t="n">
-        <v>141.2209254738303</v>
+        <v>139.8264626853668</v>
       </c>
       <c r="V35" t="n">
-        <v>217.6607221305023</v>
+        <v>216.2443313666905</v>
       </c>
       <c r="W35" t="n">
-        <v>239.1494323777804</v>
+        <v>237.7330416139686</v>
       </c>
       <c r="X35" t="n">
-        <v>259.6395643388364</v>
+        <v>258.2231735750246</v>
       </c>
       <c r="Y35" t="n">
-        <v>276.146402316421</v>
+        <v>274.7300115526091</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25230,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>56.44164731023473</v>
+        <v>55.0252565464229</v>
       </c>
       <c r="C36" t="n">
-        <v>62.61696264868313</v>
+        <v>61.20057188487129</v>
       </c>
       <c r="D36" t="n">
-        <v>37.35352922500614</v>
+        <v>35.93713846119431</v>
       </c>
       <c r="E36" t="n">
-        <v>47.55354411576833</v>
+        <v>46.1371533519565</v>
       </c>
       <c r="F36" t="n">
-        <v>34.97767605375127</v>
+        <v>33.56128528993943</v>
       </c>
       <c r="G36" t="n">
-        <v>27.02999580973381</v>
+        <v>25.76026131029485</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.46836049389714</v>
+        <v>58.77604551788869</v>
       </c>
       <c r="T36" t="n">
-        <v>89.17843697043973</v>
+        <v>88.3531738687274</v>
       </c>
       <c r="U36" t="n">
-        <v>115.8352414641156</v>
+        <v>114.4284991387494</v>
       </c>
       <c r="V36" t="n">
-        <v>122.7090508097927</v>
+        <v>121.2926600459808</v>
       </c>
       <c r="W36" t="n">
-        <v>141.603446821287</v>
+        <v>140.1870560574752</v>
       </c>
       <c r="X36" t="n">
-        <v>95.68144886384486</v>
+        <v>94.26505810003303</v>
       </c>
       <c r="Y36" t="n">
-        <v>95.59115943767175</v>
+        <v>94.17476867385992</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.74044384230469</v>
+        <v>68.32405307849285</v>
       </c>
       <c r="C37" t="n">
-        <v>57.15528475899522</v>
+        <v>55.73889399518339</v>
       </c>
       <c r="D37" t="n">
-        <v>38.52393667857974</v>
+        <v>37.10754591476791</v>
       </c>
       <c r="E37" t="n">
-        <v>36.34242630693656</v>
+        <v>34.92603554312473</v>
       </c>
       <c r="F37" t="n">
-        <v>35.32951168329863</v>
+        <v>33.9131209194868</v>
       </c>
       <c r="G37" t="n">
-        <v>57.71333824017907</v>
+        <v>56.41989916191426</v>
       </c>
       <c r="H37" t="n">
-        <v>50.48099549947206</v>
+        <v>50.15775699443276</v>
       </c>
       <c r="I37" t="n">
-        <v>39.7622603352209</v>
+        <v>42.04336207858651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>58.83390744491476</v>
+        <v>62.94587156033498</v>
       </c>
       <c r="S37" t="n">
-        <v>110.6817629640083</v>
+        <v>111.4080847565022</v>
       </c>
       <c r="T37" t="n">
-        <v>117.0588781253387</v>
+        <v>116.1678263815913</v>
       </c>
       <c r="U37" t="n">
-        <v>176.2173418471139</v>
+        <v>174.8076575388773</v>
       </c>
       <c r="V37" t="n">
-        <v>142.0461069841954</v>
+        <v>140.6297162203836</v>
       </c>
       <c r="W37" t="n">
-        <v>176.4314619969584</v>
+        <v>175.0150712331466</v>
       </c>
       <c r="X37" t="n">
-        <v>115.6181190494045</v>
+        <v>114.2017282855927</v>
       </c>
       <c r="Y37" t="n">
-        <v>108.4931170124622</v>
+        <v>107.0767262486503</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.6423053238479</v>
+        <v>271.2259145600361</v>
       </c>
       <c r="C38" t="n">
-        <v>255.1813554313749</v>
+        <v>253.7649646675631</v>
       </c>
       <c r="D38" t="n">
-        <v>244.5915052810503</v>
+        <v>243.1751145172385</v>
       </c>
       <c r="E38" t="n">
-        <v>271.8388337326292</v>
+        <v>270.4224429688173</v>
       </c>
       <c r="F38" t="n">
-        <v>296.7845094020788</v>
+        <v>295.368118638267</v>
       </c>
       <c r="G38" t="n">
-        <v>304.7963124958324</v>
+        <v>303.654021423875</v>
       </c>
       <c r="H38" t="n">
-        <v>225.1342870854637</v>
+        <v>226.5250197908564</v>
       </c>
       <c r="I38" t="n">
-        <v>84.38935740779392</v>
+        <v>93.54019501420134</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>13.71583057719366</v>
+        <v>29.51735458183487</v>
       </c>
       <c r="S38" t="n">
-        <v>89.4742574586316</v>
+        <v>94.30391342295337</v>
       </c>
       <c r="T38" t="n">
-        <v>111.1881380292431</v>
+        <v>110.9716186665242</v>
       </c>
       <c r="U38" t="n">
-        <v>141.2209254738303</v>
+        <v>139.8264626853668</v>
       </c>
       <c r="V38" t="n">
-        <v>217.6607221305023</v>
+        <v>216.2443313666905</v>
       </c>
       <c r="W38" t="n">
-        <v>239.1494323777804</v>
+        <v>237.7330416139686</v>
       </c>
       <c r="X38" t="n">
-        <v>259.6395643388364</v>
+        <v>258.2231735750246</v>
       </c>
       <c r="Y38" t="n">
-        <v>276.146402316421</v>
+        <v>274.7300115526091</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25467,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>56.44164731023473</v>
+        <v>55.0252565464229</v>
       </c>
       <c r="C39" t="n">
-        <v>62.61696264868313</v>
+        <v>61.20057188487129</v>
       </c>
       <c r="D39" t="n">
-        <v>37.35352922500614</v>
+        <v>35.93713846119431</v>
       </c>
       <c r="E39" t="n">
-        <v>47.55354411576833</v>
+        <v>46.1371533519565</v>
       </c>
       <c r="F39" t="n">
-        <v>34.97767605375127</v>
+        <v>33.56128528993943</v>
       </c>
       <c r="G39" t="n">
-        <v>27.02999580973381</v>
+        <v>25.76026131029485</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25518,25 +25518,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.46836049389714</v>
+        <v>58.77604551788869</v>
       </c>
       <c r="T39" t="n">
-        <v>89.17843697043973</v>
+        <v>88.3531738687274</v>
       </c>
       <c r="U39" t="n">
-        <v>115.8352414641156</v>
+        <v>114.4284991387494</v>
       </c>
       <c r="V39" t="n">
-        <v>122.7090508097927</v>
+        <v>121.2926600459808</v>
       </c>
       <c r="W39" t="n">
-        <v>141.603446821287</v>
+        <v>140.1870560574752</v>
       </c>
       <c r="X39" t="n">
-        <v>95.68144886384486</v>
+        <v>94.26505810003303</v>
       </c>
       <c r="Y39" t="n">
-        <v>95.59115943767175</v>
+        <v>94.17476867385992</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.74044384230469</v>
+        <v>68.32405307849285</v>
       </c>
       <c r="C40" t="n">
-        <v>57.15528475899522</v>
+        <v>55.73889399518339</v>
       </c>
       <c r="D40" t="n">
-        <v>38.52393667857974</v>
+        <v>37.10754591476791</v>
       </c>
       <c r="E40" t="n">
-        <v>36.34242630693656</v>
+        <v>34.92603554312473</v>
       </c>
       <c r="F40" t="n">
-        <v>35.32951168329863</v>
+        <v>33.9131209194868</v>
       </c>
       <c r="G40" t="n">
-        <v>57.71333824017907</v>
+        <v>56.41989916191426</v>
       </c>
       <c r="H40" t="n">
-        <v>50.48099549947206</v>
+        <v>50.15775699443276</v>
       </c>
       <c r="I40" t="n">
-        <v>39.7622603352209</v>
+        <v>42.04336207858651</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>58.83390744491476</v>
+        <v>62.94587156033498</v>
       </c>
       <c r="S40" t="n">
-        <v>110.6817629640083</v>
+        <v>111.4080847565022</v>
       </c>
       <c r="T40" t="n">
-        <v>117.0588781253387</v>
+        <v>116.1678263815913</v>
       </c>
       <c r="U40" t="n">
-        <v>176.2173418471139</v>
+        <v>174.8076575388773</v>
       </c>
       <c r="V40" t="n">
-        <v>142.0461069841954</v>
+        <v>140.6297162203836</v>
       </c>
       <c r="W40" t="n">
-        <v>176.4314619969584</v>
+        <v>175.0150712331466</v>
       </c>
       <c r="X40" t="n">
-        <v>115.6181190494045</v>
+        <v>114.2017282855927</v>
       </c>
       <c r="Y40" t="n">
-        <v>108.4931170124622</v>
+        <v>107.0767262486503</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>272.6423053238479</v>
+        <v>271.2259145600361</v>
       </c>
       <c r="C41" t="n">
-        <v>255.1813554313749</v>
+        <v>253.7649646675631</v>
       </c>
       <c r="D41" t="n">
-        <v>244.5915052810503</v>
+        <v>243.1751145172385</v>
       </c>
       <c r="E41" t="n">
-        <v>271.8388337326292</v>
+        <v>270.4224429688173</v>
       </c>
       <c r="F41" t="n">
-        <v>296.7845094020788</v>
+        <v>295.368118638267</v>
       </c>
       <c r="G41" t="n">
-        <v>304.7963124958324</v>
+        <v>303.654021423875</v>
       </c>
       <c r="H41" t="n">
-        <v>225.1342870854637</v>
+        <v>226.5250197908564</v>
       </c>
       <c r="I41" t="n">
-        <v>84.38935740779392</v>
+        <v>93.54019501420134</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>13.71583057719366</v>
+        <v>29.51735458183487</v>
       </c>
       <c r="S41" t="n">
-        <v>89.4742574586316</v>
+        <v>94.30391342295337</v>
       </c>
       <c r="T41" t="n">
-        <v>111.1881380292431</v>
+        <v>110.9716186665242</v>
       </c>
       <c r="U41" t="n">
-        <v>141.2209254738303</v>
+        <v>139.8264626853668</v>
       </c>
       <c r="V41" t="n">
-        <v>217.6607221305023</v>
+        <v>216.2443313666905</v>
       </c>
       <c r="W41" t="n">
-        <v>239.1494323777804</v>
+        <v>237.7330416139686</v>
       </c>
       <c r="X41" t="n">
-        <v>259.6395643388364</v>
+        <v>258.2231735750246</v>
       </c>
       <c r="Y41" t="n">
-        <v>276.146402316421</v>
+        <v>274.7300115526091</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56.44164731023473</v>
+        <v>55.0252565464229</v>
       </c>
       <c r="C42" t="n">
-        <v>62.61696264868313</v>
+        <v>61.20057188487129</v>
       </c>
       <c r="D42" t="n">
-        <v>37.35352922500614</v>
+        <v>35.93713846119431</v>
       </c>
       <c r="E42" t="n">
-        <v>47.55354411576833</v>
+        <v>46.1371533519565</v>
       </c>
       <c r="F42" t="n">
-        <v>34.97767605375127</v>
+        <v>33.56128528993943</v>
       </c>
       <c r="G42" t="n">
-        <v>27.02999580973381</v>
+        <v>25.76026131029487</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25755,25 +25755,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.46836049389714</v>
+        <v>58.77604551788869</v>
       </c>
       <c r="T42" t="n">
-        <v>89.17843697043973</v>
+        <v>88.3531738687274</v>
       </c>
       <c r="U42" t="n">
-        <v>115.8352414641156</v>
+        <v>114.4284991387494</v>
       </c>
       <c r="V42" t="n">
-        <v>122.7090508097927</v>
+        <v>121.2926600459808</v>
       </c>
       <c r="W42" t="n">
-        <v>141.603446821287</v>
+        <v>140.1870560574752</v>
       </c>
       <c r="X42" t="n">
-        <v>95.68144886384486</v>
+        <v>94.26505810003303</v>
       </c>
       <c r="Y42" t="n">
-        <v>95.59115943767175</v>
+        <v>94.17476867385992</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.74044384230469</v>
+        <v>68.32405307849285</v>
       </c>
       <c r="C43" t="n">
-        <v>57.15528475899522</v>
+        <v>55.73889399518339</v>
       </c>
       <c r="D43" t="n">
-        <v>38.52393667857974</v>
+        <v>37.10754591476791</v>
       </c>
       <c r="E43" t="n">
-        <v>36.34242630693656</v>
+        <v>34.92603554312473</v>
       </c>
       <c r="F43" t="n">
-        <v>35.32951168329863</v>
+        <v>33.9131209194868</v>
       </c>
       <c r="G43" t="n">
-        <v>57.71333824017907</v>
+        <v>56.41989916191425</v>
       </c>
       <c r="H43" t="n">
-        <v>50.48099549947206</v>
+        <v>50.15775699443276</v>
       </c>
       <c r="I43" t="n">
-        <v>39.7622603352209</v>
+        <v>42.04336207858651</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>58.83390744491476</v>
+        <v>62.94587156033498</v>
       </c>
       <c r="S43" t="n">
-        <v>110.6817629640083</v>
+        <v>111.4080847565022</v>
       </c>
       <c r="T43" t="n">
-        <v>117.0588781253387</v>
+        <v>116.1678263815913</v>
       </c>
       <c r="U43" t="n">
-        <v>176.2173418471139</v>
+        <v>174.8076575388773</v>
       </c>
       <c r="V43" t="n">
-        <v>142.0461069841954</v>
+        <v>140.6297162203836</v>
       </c>
       <c r="W43" t="n">
-        <v>176.4314619969584</v>
+        <v>175.0150712331466</v>
       </c>
       <c r="X43" t="n">
-        <v>115.6181190494045</v>
+        <v>114.2017282855927</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.4931170124622</v>
+        <v>107.0767262486503</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.887848835465</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H44" t="n">
-        <v>335.2258234250963</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I44" t="n">
-        <v>194.4808937474265</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>123.8073669168263</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S44" t="n">
-        <v>199.5657937982642</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2796743688757</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3124618134629</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25956,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.1215321493664</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H45" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I45" t="n">
-        <v>81.7537277694981</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.37529092466649</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S45" t="n">
-        <v>167.5598968335298</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T45" t="n">
-        <v>199.2699733100723</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9267778037482</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,19 +26035,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8048745798117</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H46" t="n">
-        <v>160.5725318391047</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I46" t="n">
-        <v>149.8537966748535</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J46" t="n">
-        <v>80.20157226632458</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K46" t="n">
-        <v>0.6475002703408634</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,19 +26065,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.57830583243795</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R46" t="n">
-        <v>168.9254437845474</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S46" t="n">
-        <v>220.773299303641</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1504144649713</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3088781867465</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>290676.4574396686</v>
+        <v>306378.945794846</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>292079.7200255513</v>
+        <v>467809.4256480611</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>292079.7200255513</v>
+        <v>467809.4256480611</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>292079.7200255513</v>
+        <v>467809.4256480611</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>292079.7200255513</v>
+        <v>467809.4256480611</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>292079.7200255513</v>
+        <v>467809.4256480611</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>523417.3521128137</v>
+        <v>543248.4085138569</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>523417.3521128137</v>
+        <v>543248.4085138569</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>523417.3521128137</v>
+        <v>543248.4085138569</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>523417.3521128137</v>
+        <v>543248.4085138569</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>523417.3521128137</v>
+        <v>543248.4085138569</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>290676.4574396686</v>
+        <v>306378.945794846</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>696384.8879094827</v>
+        <v>696384.8879094826</v>
       </c>
       <c r="C2" t="n">
         <v>696384.8879094827</v>
       </c>
       <c r="D2" t="n">
-        <v>696384.8879094828</v>
+        <v>696384.8879094823</v>
       </c>
       <c r="E2" t="n">
-        <v>190726.6444107537</v>
+        <v>186500.2997514683</v>
       </c>
       <c r="F2" t="n">
-        <v>192051.9479640873</v>
+        <v>338962.4196128384</v>
       </c>
       <c r="G2" t="n">
-        <v>192051.9479640873</v>
+        <v>338962.4196128379</v>
       </c>
       <c r="H2" t="n">
-        <v>192051.9479640873</v>
+        <v>338962.4196128379</v>
       </c>
       <c r="I2" t="n">
-        <v>192051.9479640873</v>
+        <v>338962.4196128384</v>
       </c>
       <c r="J2" t="n">
-        <v>192051.9479640873</v>
+        <v>338962.4196128382</v>
       </c>
       <c r="K2" t="n">
-        <v>410537.489379835</v>
+        <v>410210.3478749784</v>
       </c>
       <c r="L2" t="n">
-        <v>410537.489379835</v>
+        <v>410210.3478749783</v>
       </c>
       <c r="M2" t="n">
-        <v>410537.489379835</v>
+        <v>410210.3478749783</v>
       </c>
       <c r="N2" t="n">
-        <v>410537.489379835</v>
+        <v>410210.3478749783</v>
       </c>
       <c r="O2" t="n">
-        <v>410537.489379835</v>
+        <v>410210.3478749784</v>
       </c>
       <c r="P2" t="n">
-        <v>190726.6444107537</v>
+        <v>186500.2997514683</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>82914.0489658469</v>
+        <v>28136.18592552744</v>
       </c>
       <c r="F3" t="n">
-        <v>518.0002162726921</v>
+        <v>60070.07577899624</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>88073.22907170608</v>
+        <v>89206.34168275556</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>463844.333129713</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>89251.01711914764</v>
+        <v>108908.0401756441</v>
       </c>
       <c r="F4" t="n">
-        <v>90140.94609959045</v>
+        <v>211284.9322794086</v>
       </c>
       <c r="G4" t="n">
-        <v>90140.94609959045</v>
+        <v>211284.9322794086</v>
       </c>
       <c r="H4" t="n">
-        <v>90140.94609959045</v>
+        <v>211284.9322794086</v>
       </c>
       <c r="I4" t="n">
-        <v>90140.94609959045</v>
+        <v>211284.9322794086</v>
       </c>
       <c r="J4" t="n">
-        <v>90140.94609959045</v>
+        <v>211284.9322794086</v>
       </c>
       <c r="K4" t="n">
-        <v>236851.95024994</v>
+        <v>259127.2518729065</v>
       </c>
       <c r="L4" t="n">
-        <v>236851.95024994</v>
+        <v>259127.2518729065</v>
       </c>
       <c r="M4" t="n">
-        <v>236851.95024994</v>
+        <v>259127.2518729065</v>
       </c>
       <c r="N4" t="n">
-        <v>236851.95024994</v>
+        <v>259127.2518729065</v>
       </c>
       <c r="O4" t="n">
-        <v>236851.95024994</v>
+        <v>259127.2518729065</v>
       </c>
       <c r="P4" t="n">
-        <v>89251.01711914764</v>
+        <v>108908.0401756441</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2249.837587680731</v>
+        <v>763.463483676932</v>
       </c>
       <c r="F5" t="n">
-        <v>2304.272287908017</v>
+        <v>7076.002484507477</v>
       </c>
       <c r="G5" t="n">
-        <v>2304.272287908017</v>
+        <v>7076.002484507477</v>
       </c>
       <c r="H5" t="n">
-        <v>2304.272287908017</v>
+        <v>7076.002484507477</v>
       </c>
       <c r="I5" t="n">
-        <v>2304.272287908017</v>
+        <v>7076.002484507477</v>
       </c>
       <c r="J5" t="n">
-        <v>2304.272287908017</v>
+        <v>7076.002484507477</v>
       </c>
       <c r="K5" t="n">
-        <v>11505.1229562173</v>
+        <v>10137.8234073364</v>
       </c>
       <c r="L5" t="n">
-        <v>11505.1229562173</v>
+        <v>10137.8234073364</v>
       </c>
       <c r="M5" t="n">
-        <v>11505.1229562173</v>
+        <v>10137.8234073364</v>
       </c>
       <c r="N5" t="n">
-        <v>11505.1229562173</v>
+        <v>10137.8234073364</v>
       </c>
       <c r="O5" t="n">
-        <v>11505.1229562173</v>
+        <v>10137.8234073364</v>
       </c>
       <c r="P5" t="n">
-        <v>2249.837587680731</v>
+        <v>763.463483676932</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198912.9547797698</v>
+        <v>199606.5568073728</v>
       </c>
       <c r="C6" t="n">
-        <v>198912.9547797697</v>
+        <v>199606.556807373</v>
       </c>
       <c r="D6" t="n">
-        <v>198912.9547797699</v>
+        <v>199606.5568073726</v>
       </c>
       <c r="E6" t="n">
-        <v>16311.74073807838</v>
+        <v>48692.61016661982</v>
       </c>
       <c r="F6" t="n">
-        <v>99088.72936031618</v>
+        <v>60531.40906992607</v>
       </c>
       <c r="G6" t="n">
-        <v>99606.72957658887</v>
+        <v>120601.4848489218</v>
       </c>
       <c r="H6" t="n">
-        <v>99606.72957658887</v>
+        <v>120601.4848489218</v>
       </c>
       <c r="I6" t="n">
-        <v>99606.72957658887</v>
+        <v>120601.4848489222</v>
       </c>
       <c r="J6" t="n">
-        <v>99606.72957658887</v>
+        <v>120601.4848489221</v>
       </c>
       <c r="K6" t="n">
-        <v>74107.18710197161</v>
+        <v>51738.93091197987</v>
       </c>
       <c r="L6" t="n">
-        <v>162180.4161736776</v>
+        <v>140945.2725947353</v>
       </c>
       <c r="M6" t="n">
-        <v>162180.4161736777</v>
+        <v>140945.2725947353</v>
       </c>
       <c r="N6" t="n">
-        <v>162180.4161736776</v>
+        <v>140945.2725947354</v>
       </c>
       <c r="O6" t="n">
-        <v>162180.4161736777</v>
+        <v>140945.2725947354</v>
       </c>
       <c r="P6" t="n">
-        <v>99225.78970392529</v>
+        <v>76828.79609214725</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26695,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="K2" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="L2" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="M2" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="N2" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="O2" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.2035590679235</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="F3" t="n">
-        <v>103.2035590679235</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="G3" t="n">
-        <v>103.2035590679235</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="H3" t="n">
-        <v>103.2035590679235</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="I3" t="n">
-        <v>103.2035590679235</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="J3" t="n">
-        <v>103.2035590679235</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="K3" t="n">
-        <v>103.2035590679235</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="L3" t="n">
-        <v>103.2035590679235</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="M3" t="n">
-        <v>103.2035590679235</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="N3" t="n">
-        <v>103.2035590679235</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="O3" t="n">
-        <v>103.2035590679235</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="P3" t="n">
-        <v>103.2035590679235</v>
+        <v>35.02126071912532</v>
       </c>
     </row>
     <row r="4">
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.0875947237453</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.2035590679235</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.0875947237453</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="3">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="16">
@@ -28482,34 +28482,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6475002703408634</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28527,31 +28527,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="19">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6475002703408634</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="22">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6475002703408634</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="R22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="25">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6475002703408652</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="R25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="28">
@@ -29430,34 +29430,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6475002703408652</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29475,31 +29475,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="S28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="T28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="U28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="W28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="X28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.6475002703408652</v>
+        <v>75.08759472374531</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="S29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y29" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I30" t="n">
-        <v>81.7537277694981</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.37529092466649</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29667,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="J31" t="n">
-        <v>80.20157226632458</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6475002703408634</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29712,31 +29712,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.57830583243795</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="S31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="S32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y32" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="33">
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I33" t="n">
-        <v>81.7537277694981</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.37529092466649</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y33" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="34">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="J34" t="n">
-        <v>80.20157226632458</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6475002703408634</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.57830583243795</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="S34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="S35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="36">
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I36" t="n">
-        <v>81.7537277694981</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.37529092466649</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y36" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30141,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="J37" t="n">
-        <v>80.20157226632458</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6475002703408634</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.57830583243795</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="S37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y37" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="S38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="39">
@@ -30299,28 +30299,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I39" t="n">
-        <v>81.7537277694981</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.37529092466649</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y39" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="J40" t="n">
-        <v>80.20157226632458</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K40" t="n">
-        <v>0.6475002703408634</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.57830583243795</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="S40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y40" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="S41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y41" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I42" t="n">
-        <v>81.7537277694981</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.37529092466649</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y42" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30615,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="D43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="E43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="F43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="G43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="H43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="J43" t="n">
-        <v>80.20157226632458</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K43" t="n">
-        <v>0.6475002703408634</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.57830583243795</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="S43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="U43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="V43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="W43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="X43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.0915363396326</v>
+        <v>111.5079271034444</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4148886796700437</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>4.248978690670836</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>15.99499582297937</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J11" t="n">
-        <v>35.2131580761454</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>52.77539588657837</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L11" t="n">
-        <v>65.47254531703048</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M11" t="n">
-        <v>72.85082187411261</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N11" t="n">
-        <v>74.02962433522514</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>69.90407502675613</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P11" t="n">
-        <v>59.66151074740192</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.80330990671846</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>26.06175102432341</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S11" t="n">
-        <v>9.45427578798113</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>1.816175195255617</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03319109437360349</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H12" t="n">
-        <v>2.143907896863844</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I12" t="n">
-        <v>7.642905081916973</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>20.97271571586924</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K12" t="n">
-        <v>35.84571164343149</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L12" t="n">
-        <v>48.19898294016558</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>56.24593969201828</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N12" t="n">
-        <v>57.73460235064899</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O12" t="n">
-        <v>52.81588178073248</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>42.3894014594269</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.3361922935174</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R12" t="n">
-        <v>13.78254322797665</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S12" t="n">
-        <v>4.123274270308071</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8947553847492605</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01460427722659295</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1861047786470751</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H13" t="n">
-        <v>1.654640668334905</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I13" t="n">
-        <v>5.596678252404768</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J13" t="n">
-        <v>13.1576078503482</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K13" t="n">
-        <v>21.62199155554199</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L13" t="n">
-        <v>27.66870499994787</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M13" t="n">
-        <v>29.17276998374104</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N13" t="n">
-        <v>28.4791067178747</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O13" t="n">
-        <v>26.30506453095204</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P13" t="n">
-        <v>22.50852704655169</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.58373741925644</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R13" t="n">
-        <v>8.367947592622118</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S13" t="n">
-        <v>3.243298733331298</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7951749633102295</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4148886796700437</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H14" t="n">
-        <v>4.248978690670836</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I14" t="n">
-        <v>15.99499582297937</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J14" t="n">
-        <v>35.2131580761454</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
-        <v>52.77539588657837</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L14" t="n">
-        <v>65.47254531703048</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M14" t="n">
-        <v>72.85082187411261</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N14" t="n">
-        <v>74.02962433522514</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O14" t="n">
-        <v>69.90407502675613</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P14" t="n">
-        <v>59.66151074740192</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.80330990671846</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R14" t="n">
-        <v>26.06175102432341</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S14" t="n">
-        <v>9.45427578798113</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T14" t="n">
-        <v>1.816175195255617</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03319109437360349</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H15" t="n">
-        <v>2.143907896863844</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I15" t="n">
-        <v>7.642905081916973</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J15" t="n">
-        <v>20.97271571586924</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K15" t="n">
-        <v>35.84571164343149</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L15" t="n">
-        <v>48.19898294016558</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M15" t="n">
-        <v>56.24593969201828</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N15" t="n">
-        <v>57.73460235064899</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O15" t="n">
-        <v>52.81588178073248</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P15" t="n">
-        <v>42.3894014594269</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.3361922935174</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R15" t="n">
-        <v>13.78254322797665</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S15" t="n">
-        <v>4.123274270308071</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8947553847492605</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01460427722659295</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1861047786470751</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H16" t="n">
-        <v>1.654640668334905</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I16" t="n">
-        <v>5.596678252404768</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J16" t="n">
-        <v>13.1576078503482</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K16" t="n">
-        <v>21.62199155554199</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L16" t="n">
-        <v>27.66870499994787</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M16" t="n">
-        <v>29.17276998374104</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N16" t="n">
-        <v>28.4791067178747</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O16" t="n">
-        <v>26.30506453095204</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P16" t="n">
-        <v>22.50852704655169</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.58373741925644</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R16" t="n">
-        <v>8.367947592622118</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S16" t="n">
-        <v>3.243298733331298</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7951749633102295</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4148886796700437</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H17" t="n">
-        <v>4.248978690670836</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I17" t="n">
-        <v>15.99499582297937</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J17" t="n">
-        <v>35.2131580761454</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
-        <v>52.77539588657837</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L17" t="n">
-        <v>65.47254531703048</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M17" t="n">
-        <v>72.85082187411261</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N17" t="n">
-        <v>74.02962433522514</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O17" t="n">
-        <v>69.90407502675613</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P17" t="n">
-        <v>59.66151074740192</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.80330990671846</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R17" t="n">
-        <v>26.06175102432341</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S17" t="n">
-        <v>9.45427578798113</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T17" t="n">
-        <v>1.816175195255617</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03319109437360349</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H18" t="n">
-        <v>2.143907896863844</v>
+        <v>0.7275171330520187</v>
       </c>
       <c r="I18" t="n">
-        <v>7.642905081916973</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J18" t="n">
-        <v>20.97271571586924</v>
+        <v>7.116914878779989</v>
       </c>
       <c r="K18" t="n">
-        <v>35.84571164343149</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L18" t="n">
-        <v>48.19898294016558</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M18" t="n">
-        <v>56.24593969201828</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N18" t="n">
-        <v>57.73460235064899</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O18" t="n">
-        <v>52.81588178073248</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P18" t="n">
-        <v>42.3894014594269</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.3361922935174</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R18" t="n">
-        <v>13.78254322797665</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S18" t="n">
-        <v>4.123274270308071</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8947553847492605</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01460427722659295</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1861047786470751</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H19" t="n">
-        <v>1.654640668334905</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I19" t="n">
-        <v>5.596678252404768</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J19" t="n">
-        <v>13.1576078503482</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K19" t="n">
-        <v>21.62199155554199</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L19" t="n">
-        <v>27.66870499994787</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M19" t="n">
-        <v>29.17276998374104</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N19" t="n">
-        <v>28.4791067178747</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O19" t="n">
-        <v>26.30506453095204</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P19" t="n">
-        <v>22.50852704655169</v>
+        <v>7.638079550938412</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.58373741925644</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R19" t="n">
-        <v>8.367947592622118</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S19" t="n">
-        <v>3.243298733331298</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7951749633102295</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4148886796700437</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H20" t="n">
-        <v>4.248978690670836</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I20" t="n">
-        <v>15.99499582297937</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J20" t="n">
-        <v>35.2131580761454</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
-        <v>52.77539588657837</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L20" t="n">
-        <v>65.47254531703048</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M20" t="n">
-        <v>72.85082187411261</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N20" t="n">
-        <v>74.02962433522514</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O20" t="n">
-        <v>69.90407502675613</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P20" t="n">
-        <v>59.66151074740192</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.80330990671846</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R20" t="n">
-        <v>26.06175102432341</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S20" t="n">
-        <v>9.45427578798113</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T20" t="n">
-        <v>1.816175195255617</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03319109437360349</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H21" t="n">
-        <v>2.143907896863844</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I21" t="n">
-        <v>7.642905081916973</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J21" t="n">
-        <v>20.97271571586924</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K21" t="n">
-        <v>35.84571164343149</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L21" t="n">
-        <v>48.19898294016558</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M21" t="n">
-        <v>56.24593969201828</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N21" t="n">
-        <v>57.73460235064899</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O21" t="n">
-        <v>52.81588178073248</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P21" t="n">
-        <v>42.3894014594269</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.3361922935174</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R21" t="n">
-        <v>13.78254322797665</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S21" t="n">
-        <v>4.123274270308071</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8947553847492605</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01460427722659295</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1861047786470751</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H22" t="n">
-        <v>1.654640668334905</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I22" t="n">
-        <v>5.596678252404768</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J22" t="n">
-        <v>13.1576078503482</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K22" t="n">
-        <v>21.62199155554199</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L22" t="n">
-        <v>27.66870499994787</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M22" t="n">
-        <v>29.17276998374104</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N22" t="n">
-        <v>28.4791067178747</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O22" t="n">
-        <v>26.30506453095204</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P22" t="n">
-        <v>22.50852704655169</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.58373741925644</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R22" t="n">
-        <v>8.367947592622118</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S22" t="n">
-        <v>3.243298733331298</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7951749633102295</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4148886796700437</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H23" t="n">
-        <v>4.248978690670836</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I23" t="n">
-        <v>15.99499582297937</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J23" t="n">
-        <v>35.2131580761454</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
-        <v>52.77539588657837</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L23" t="n">
-        <v>65.47254531703048</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M23" t="n">
-        <v>72.85082187411261</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N23" t="n">
-        <v>74.02962433522514</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O23" t="n">
-        <v>69.90407502675613</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P23" t="n">
-        <v>59.66151074740192</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.80330990671846</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R23" t="n">
-        <v>26.06175102432341</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S23" t="n">
-        <v>9.45427578798113</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T23" t="n">
-        <v>1.816175195255617</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03319109437360349</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H24" t="n">
-        <v>2.143907896863844</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I24" t="n">
-        <v>7.642905081916973</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J24" t="n">
-        <v>20.97271571586924</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K24" t="n">
-        <v>35.84571164343149</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L24" t="n">
-        <v>48.19898294016558</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M24" t="n">
-        <v>56.24593969201828</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N24" t="n">
-        <v>57.73460235064899</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O24" t="n">
-        <v>52.81588178073248</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P24" t="n">
-        <v>42.3894014594269</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.3361922935174</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R24" t="n">
-        <v>13.78254322797665</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S24" t="n">
-        <v>4.123274270308071</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8947553847492605</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01460427722659295</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1861047786470751</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H25" t="n">
-        <v>1.654640668334905</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I25" t="n">
-        <v>5.596678252404768</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J25" t="n">
-        <v>13.1576078503482</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K25" t="n">
-        <v>21.62199155554199</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L25" t="n">
-        <v>27.66870499994787</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M25" t="n">
-        <v>29.17276998374104</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N25" t="n">
-        <v>28.4791067178747</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O25" t="n">
-        <v>26.30506453095204</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P25" t="n">
-        <v>22.50852704655169</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.58373741925644</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R25" t="n">
-        <v>8.367947592622118</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S25" t="n">
-        <v>3.243298733331298</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7951749633102295</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4148886796700437</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H26" t="n">
-        <v>4.248978690670836</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I26" t="n">
-        <v>15.99499582297937</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J26" t="n">
-        <v>35.2131580761454</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
-        <v>52.77539588657837</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L26" t="n">
-        <v>65.47254531703048</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M26" t="n">
-        <v>72.85082187411261</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N26" t="n">
-        <v>74.02962433522514</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O26" t="n">
-        <v>69.90407502675613</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P26" t="n">
-        <v>59.66151074740192</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q26" t="n">
-        <v>44.80330990671846</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R26" t="n">
-        <v>26.06175102432341</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S26" t="n">
-        <v>9.45427578798113</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T26" t="n">
-        <v>1.816175195255617</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03319109437360349</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H27" t="n">
-        <v>2.143907896863844</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I27" t="n">
-        <v>7.642905081916973</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J27" t="n">
-        <v>20.97271571586924</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K27" t="n">
-        <v>35.84571164343149</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L27" t="n">
-        <v>48.19898294016558</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M27" t="n">
-        <v>56.24593969201828</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N27" t="n">
-        <v>57.73460235064899</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O27" t="n">
-        <v>52.81588178073248</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P27" t="n">
-        <v>42.3894014594269</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.3361922935174</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R27" t="n">
-        <v>13.78254322797665</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S27" t="n">
-        <v>4.123274270308071</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8947553847492605</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01460427722659295</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1861047786470751</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H28" t="n">
-        <v>1.654640668334905</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I28" t="n">
-        <v>5.596678252404768</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J28" t="n">
-        <v>13.1576078503482</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K28" t="n">
-        <v>21.62199155554199</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L28" t="n">
-        <v>27.66870499994787</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M28" t="n">
-        <v>29.17276998374104</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N28" t="n">
-        <v>28.4791067178747</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O28" t="n">
-        <v>26.30506453095204</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P28" t="n">
-        <v>22.50852704655169</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.58373741925644</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R28" t="n">
-        <v>8.367947592622118</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S28" t="n">
-        <v>3.243298733331298</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7951749633102295</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4148886796700437</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H29" t="n">
-        <v>4.248978690670836</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I29" t="n">
-        <v>15.99499582297937</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J29" t="n">
-        <v>35.2131580761454</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
-        <v>52.77539588657837</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L29" t="n">
-        <v>65.47254531703048</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M29" t="n">
-        <v>72.85082187411261</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N29" t="n">
-        <v>74.02962433522514</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O29" t="n">
-        <v>69.90407502675613</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P29" t="n">
-        <v>59.66151074740192</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q29" t="n">
-        <v>44.80330990671846</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R29" t="n">
-        <v>26.06175102432341</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S29" t="n">
-        <v>9.45427578798113</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T29" t="n">
-        <v>1.816175195255617</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03319109437360349</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H30" t="n">
-        <v>2.143907896863844</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I30" t="n">
-        <v>7.642905081916973</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J30" t="n">
-        <v>20.97271571586924</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K30" t="n">
-        <v>35.84571164343149</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L30" t="n">
-        <v>48.19898294016558</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M30" t="n">
-        <v>56.24593969201828</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N30" t="n">
-        <v>57.73460235064899</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O30" t="n">
-        <v>52.81588178073248</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P30" t="n">
-        <v>42.3894014594269</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.3361922935174</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R30" t="n">
-        <v>13.78254322797665</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S30" t="n">
-        <v>4.123274270308071</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8947553847492605</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01460427722659295</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1861047786470751</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H31" t="n">
-        <v>1.654640668334905</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I31" t="n">
-        <v>5.596678252404768</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J31" t="n">
-        <v>13.1576078503482</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K31" t="n">
-        <v>21.62199155554199</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L31" t="n">
-        <v>27.66870499994787</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M31" t="n">
-        <v>29.17276998374104</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N31" t="n">
-        <v>28.4791067178747</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O31" t="n">
-        <v>26.30506453095204</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P31" t="n">
-        <v>22.50852704655169</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.58373741925644</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R31" t="n">
-        <v>8.367947592622118</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S31" t="n">
-        <v>3.243298733331298</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7951749633102295</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4148886796700437</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H32" t="n">
-        <v>4.248978690670836</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I32" t="n">
-        <v>15.99499582297937</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J32" t="n">
-        <v>35.2131580761454</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
-        <v>52.77539588657837</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L32" t="n">
-        <v>65.47254531703048</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M32" t="n">
-        <v>72.85082187411261</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N32" t="n">
-        <v>74.02962433522514</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O32" t="n">
-        <v>69.90407502675613</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P32" t="n">
-        <v>59.66151074740192</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q32" t="n">
-        <v>44.80330990671846</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R32" t="n">
-        <v>26.06175102432341</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S32" t="n">
-        <v>9.45427578798113</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T32" t="n">
-        <v>1.816175195255617</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03319109437360349</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H33" t="n">
-        <v>2.143907896863844</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I33" t="n">
-        <v>7.642905081916973</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J33" t="n">
-        <v>20.97271571586924</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K33" t="n">
-        <v>35.84571164343149</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L33" t="n">
-        <v>48.19898294016558</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M33" t="n">
-        <v>56.24593969201828</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N33" t="n">
-        <v>57.73460235064899</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O33" t="n">
-        <v>52.81588178073248</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P33" t="n">
-        <v>42.3894014594269</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.3361922935174</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R33" t="n">
-        <v>13.78254322797665</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S33" t="n">
-        <v>4.123274270308071</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8947553847492605</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01460427722659295</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1861047786470751</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H34" t="n">
-        <v>1.654640668334905</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I34" t="n">
-        <v>5.596678252404768</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J34" t="n">
-        <v>13.1576078503482</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K34" t="n">
-        <v>21.62199155554199</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L34" t="n">
-        <v>27.66870499994787</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M34" t="n">
-        <v>29.17276998374104</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N34" t="n">
-        <v>28.4791067178747</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O34" t="n">
-        <v>26.30506453095204</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P34" t="n">
-        <v>22.50852704655169</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.58373741925644</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R34" t="n">
-        <v>8.367947592622118</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S34" t="n">
-        <v>3.243298733331298</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7951749633102295</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4148886796700437</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H35" t="n">
-        <v>4.248978690670836</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I35" t="n">
-        <v>15.99499582297937</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J35" t="n">
-        <v>35.2131580761454</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
-        <v>52.77539588657837</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L35" t="n">
-        <v>65.47254531703048</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M35" t="n">
-        <v>72.85082187411261</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N35" t="n">
-        <v>74.02962433522514</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O35" t="n">
-        <v>69.90407502675613</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P35" t="n">
-        <v>59.66151074740192</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.80330990671846</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R35" t="n">
-        <v>26.06175102432341</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S35" t="n">
-        <v>9.45427578798113</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T35" t="n">
-        <v>1.816175195255617</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03319109437360349</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H36" t="n">
-        <v>2.143907896863844</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I36" t="n">
-        <v>7.642905081916973</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J36" t="n">
-        <v>20.97271571586924</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K36" t="n">
-        <v>35.84571164343149</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L36" t="n">
-        <v>48.19898294016558</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M36" t="n">
-        <v>56.24593969201828</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N36" t="n">
-        <v>57.73460235064899</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O36" t="n">
-        <v>52.81588178073248</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P36" t="n">
-        <v>42.3894014594269</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.3361922935174</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R36" t="n">
-        <v>13.78254322797665</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S36" t="n">
-        <v>4.123274270308071</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8947553847492605</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01460427722659295</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1861047786470751</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H37" t="n">
-        <v>1.654640668334905</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I37" t="n">
-        <v>5.596678252404768</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J37" t="n">
-        <v>13.1576078503482</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K37" t="n">
-        <v>21.62199155554199</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L37" t="n">
-        <v>27.66870499994787</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M37" t="n">
-        <v>29.17276998374104</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N37" t="n">
-        <v>28.4791067178747</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O37" t="n">
-        <v>26.30506453095204</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P37" t="n">
-        <v>22.50852704655169</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.58373741925644</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R37" t="n">
-        <v>8.367947592622118</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S37" t="n">
-        <v>3.243298733331298</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7951749633102295</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4148886796700437</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H38" t="n">
-        <v>4.248978690670836</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I38" t="n">
-        <v>15.99499582297937</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J38" t="n">
-        <v>35.2131580761454</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
-        <v>52.77539588657837</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L38" t="n">
-        <v>65.47254531703048</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M38" t="n">
-        <v>72.85082187411261</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N38" t="n">
-        <v>74.02962433522514</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O38" t="n">
-        <v>69.90407502675613</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P38" t="n">
-        <v>59.66151074740192</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.80330990671846</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R38" t="n">
-        <v>26.06175102432341</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S38" t="n">
-        <v>9.45427578798113</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T38" t="n">
-        <v>1.816175195255617</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03319109437360349</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H39" t="n">
-        <v>2.143907896863844</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I39" t="n">
-        <v>7.642905081916973</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J39" t="n">
-        <v>20.97271571586924</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K39" t="n">
-        <v>35.84571164343149</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L39" t="n">
-        <v>48.19898294016558</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M39" t="n">
-        <v>56.24593969201828</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N39" t="n">
-        <v>57.73460235064899</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O39" t="n">
-        <v>52.81588178073248</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P39" t="n">
-        <v>42.3894014594269</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.3361922935174</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R39" t="n">
-        <v>13.78254322797665</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S39" t="n">
-        <v>4.123274270308071</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8947553847492605</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01460427722659295</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1861047786470751</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H40" t="n">
-        <v>1.654640668334905</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I40" t="n">
-        <v>5.596678252404768</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J40" t="n">
-        <v>13.1576078503482</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K40" t="n">
-        <v>21.62199155554199</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L40" t="n">
-        <v>27.66870499994787</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M40" t="n">
-        <v>29.17276998374104</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N40" t="n">
-        <v>28.4791067178747</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O40" t="n">
-        <v>26.30506453095204</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P40" t="n">
-        <v>22.50852704655169</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.58373741925644</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R40" t="n">
-        <v>8.367947592622118</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S40" t="n">
-        <v>3.243298733331298</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7951749633102295</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4148886796700437</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H41" t="n">
-        <v>4.248978690670836</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I41" t="n">
-        <v>15.99499582297937</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J41" t="n">
-        <v>35.2131580761454</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
-        <v>52.77539588657837</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L41" t="n">
-        <v>65.47254531703048</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M41" t="n">
-        <v>72.85082187411261</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N41" t="n">
-        <v>74.02962433522514</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O41" t="n">
-        <v>69.90407502675613</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P41" t="n">
-        <v>59.66151074740192</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.80330990671846</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R41" t="n">
-        <v>26.06175102432341</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S41" t="n">
-        <v>9.45427578798113</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T41" t="n">
-        <v>1.816175195255617</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03319109437360349</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H42" t="n">
-        <v>2.143907896863844</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I42" t="n">
-        <v>7.642905081916973</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J42" t="n">
-        <v>20.97271571586924</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K42" t="n">
-        <v>35.84571164343149</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L42" t="n">
-        <v>48.19898294016558</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M42" t="n">
-        <v>56.24593969201828</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N42" t="n">
-        <v>57.73460235064899</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O42" t="n">
-        <v>52.81588178073248</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P42" t="n">
-        <v>42.3894014594269</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.3361922935174</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R42" t="n">
-        <v>13.78254322797665</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S42" t="n">
-        <v>4.123274270308071</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8947553847492605</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01460427722659295</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1861047786470751</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H43" t="n">
-        <v>1.654640668334905</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I43" t="n">
-        <v>5.596678252404768</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J43" t="n">
-        <v>13.1576078503482</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K43" t="n">
-        <v>21.62199155554199</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L43" t="n">
-        <v>27.66870499994787</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M43" t="n">
-        <v>29.17276998374104</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N43" t="n">
-        <v>28.4791067178747</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O43" t="n">
-        <v>26.30506453095204</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P43" t="n">
-        <v>22.50852704655169</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.58373741925644</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R43" t="n">
-        <v>8.367947592622118</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S43" t="n">
-        <v>3.243298733331298</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7951749633102295</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4148886796700437</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H44" t="n">
-        <v>4.248978690670836</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I44" t="n">
-        <v>15.99499582297937</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J44" t="n">
-        <v>35.2131580761454</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
-        <v>52.77539588657837</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L44" t="n">
-        <v>65.47254531703048</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M44" t="n">
-        <v>72.85082187411261</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N44" t="n">
-        <v>74.02962433522514</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O44" t="n">
-        <v>69.90407502675613</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P44" t="n">
-        <v>59.66151074740192</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.80330990671846</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R44" t="n">
-        <v>26.06175102432341</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S44" t="n">
-        <v>9.45427578798113</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T44" t="n">
-        <v>1.816175195255617</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03319109437360349</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2219850138442127</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H45" t="n">
-        <v>2.143907896863844</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I45" t="n">
-        <v>7.642905081916973</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J45" t="n">
-        <v>20.97271571586924</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K45" t="n">
-        <v>35.84571164343149</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L45" t="n">
-        <v>48.19898294016558</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M45" t="n">
-        <v>56.24593969201828</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N45" t="n">
-        <v>57.73460235064899</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O45" t="n">
-        <v>52.81588178073248</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P45" t="n">
-        <v>42.3894014594269</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.3361922935174</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R45" t="n">
-        <v>13.78254322797665</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S45" t="n">
-        <v>4.123274270308071</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8947553847492605</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01460427722659295</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1861047786470751</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H46" t="n">
-        <v>1.654640668334905</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I46" t="n">
-        <v>5.596678252404768</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J46" t="n">
-        <v>13.1576078503482</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K46" t="n">
-        <v>21.62199155554199</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L46" t="n">
-        <v>27.66870499994787</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M46" t="n">
-        <v>29.17276998374104</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N46" t="n">
-        <v>28.4791067178747</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O46" t="n">
-        <v>26.30506453095204</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P46" t="n">
-        <v>22.50852704655169</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.58373741925644</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R46" t="n">
-        <v>8.367947592622118</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S46" t="n">
-        <v>3.243298733331298</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7951749633102295</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01015116974438592</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1133366.941458247</v>
+        <v>1139172.328990319</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5923717.618902254</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12530186.6620563</v>
+        <v>17785260.94054101</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6537220.483292454</v>
+        <v>4862984.575640534</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>202.1809638361346</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>213.5488567752802</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>205.6249188705004</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>204.2917325281876</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>206.3768508508745</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>210.9873633211545</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>207.1020630664799</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>125.6774978810001</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>122.1984598562864</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>123.047446830095</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>111.7499598249992</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>124.673618687554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>119.5899201578276</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>125.4955336943436</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>129.0262495446563</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>118.0213988638392</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>129.5301358016631</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>130.0899244982092</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>202.1809638361346</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>213.5488567752802</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>205.6249188705004</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>204.2917325281876</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>206.3768508508745</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>210.9873633211545</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>207.1020630664799</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>119.7207117878867</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>125.6774978810001</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>122.1984598562864</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>123.047446830095</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>111.7499598249992</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>124.673618687554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>119.5899201578276</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3661252938572</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>125.4955336943436</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>129.0262495446563</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>118.0213988638392</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>129.5301358016631</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>130.0899244982092</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>202.1809638361346</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>213.5488567752802</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>205.6249188705004</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>204.2917325281876</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>206.3768508508745</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>210.9873633211545</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>207.1020630664798</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>119.7207117878867</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>125.6774978810001</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>122.1984598562864</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>123.047446830095</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>111.7499598249992</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>124.673618687554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5899201578276</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3661252938572</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>125.4955336943436</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>129.0262495446562</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>118.0213988638391</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>129.5301358016631</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>130.0899244982092</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>202.1809638361346</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>213.5488567752802</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>205.6249188705004</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>204.2917325281876</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>206.3768508508745</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>210.9873633211545</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>207.1020630664799</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>119.7207117878867</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>125.6774978810001</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>122.1984598562864</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>123.047446830095</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>111.7499598249992</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>124.673618687554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>119.5899201578276</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3661252938572</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>125.4955336943436</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>129.0262495446563</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>118.0213988638392</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>129.5301358016631</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>130.0899244982092</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>202.1809638361346</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>213.5488567752802</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>205.6249188705004</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>204.2917325281876</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>206.3768508508745</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>210.9873633211545</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>207.1020630664799</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>119.7207117878867</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>125.6774978810001</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>122.1984598562864</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>123.047446830095</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>111.7499598249992</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>124.673618687554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>119.5899201578276</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3661252938572</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>125.4955336943436</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>129.0262495446563</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>118.0213988638392</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>129.5301358016631</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>130.0899244982092</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>202.1809638361346</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>213.5488567752802</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>205.6249188705004</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>204.2917325281876</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>206.3768508508745</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>210.9873633211545</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>207.1020630664799</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>119.7207117878867</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>125.6774978810001</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>122.1984598562864</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>123.047446830095</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>111.7499598249992</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>124.673618687554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>119.5899201578276</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3661252938572</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>125.4955336943436</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>129.0262495446563</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>118.0213988638392</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>129.5301358016631</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>130.0899244982092</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>202.1809638361346</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>213.5488567752802</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>205.6249188705004</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>204.2917325281876</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>206.3768508508745</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>210.9873633211545</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>207.1020630664799</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>119.7207117878867</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>125.6774978810001</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>122.1984598562864</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>123.047446830095</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>111.7499598249992</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>124.673618687554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>119.5899201578276</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3661252938572</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>125.4955336943436</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>129.0262495446563</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>118.0213988638392</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>129.5301358016631</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>130.0899244982092</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>202.1809638361346</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>213.5488567752802</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>205.6249188705004</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>204.2917325281876</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>206.3768508508745</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>210.9873633211545</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>207.1020630664799</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>119.7207117878867</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>125.6774978810001</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>122.1984598562864</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>123.047446830095</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>111.7499598249992</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>124.673618687554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>119.5899201578276</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3661252938572</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>125.4955336943436</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>129.0262495446563</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>118.0213988638392</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>129.5301358016631</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>130.0899244982092</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>202.1809638361346</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>213.5488567752802</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>205.6249188705004</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>204.2917325281876</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>206.3768508508745</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>210.9873633211545</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>207.1020630664799</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>119.7207117878867</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>125.6774978810001</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>122.1984598562864</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>123.047446830095</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>111.7499598249992</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>124.673618687554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>119.5899201578276</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3661252938572</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>125.4955336943436</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>129.0262495446563</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>118.0213988638392</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>129.5301358016631</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>130.0899244982092</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>202.1809638361346</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>213.5488567752802</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>205.6249188705004</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>204.2917325281876</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>206.3768508508745</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>210.9873633211545</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>207.1020630664799</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>119.7207117878867</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>125.6774978810001</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>122.1984598562864</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>123.047446830095</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>111.7499598249992</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>124.673618687554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>119.5899201578276</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3661252938572</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>125.4955336943436</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>129.0262495446563</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>118.0213988638392</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>129.5301358016631</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>130.0899244982092</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>202.1809638361346</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>213.5488567752802</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>205.6249188705004</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>204.2917325281876</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>206.3768508508745</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>210.9873633211545</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>207.1020630664799</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>119.7207117878867</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>125.6774978810001</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>122.1984598562864</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>123.047446830095</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>111.7499598249992</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>124.673618687554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>119.5899201578276</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3661252938572</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>125.4955336943436</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>129.0262495446563</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>118.0213988638392</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>129.5301358016631</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>130.0899244982092</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>202.1809638361346</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>213.5488567752802</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>205.6249188705004</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>204.2917325281876</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>206.3768508508745</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>210.9873633211545</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>207.1020630664799</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>119.7207117878867</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>125.6774978810001</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>122.1984598562864</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>123.047446830095</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>111.7499598249992</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>124.673618687554</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>119.5899201578276</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3661252938572</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>125.4955336943436</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>129.0262495446563</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>118.0213988638392</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>129.5301358016631</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>130.0899244982092</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1619485273195</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0329468943008</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I13" t="n">
-        <v>153.551289182031</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449839</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4537986637794</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S13" t="n">
-        <v>222.9160118599466</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T13" t="n">
-        <v>227.6757534850358</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>307.6462469397352</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>290.1852970472622</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>279.5954468969376</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>306.8427753485165</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>331.7884510179661</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>340.0743538035741</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H14" t="n">
-        <v>262.9453521705555</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I14" t="n">
-        <v>129.9605273939005</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.937686961534</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
-        <v>130.7242458026525</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T14" t="n">
-        <v>147.3919510462234</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U14" t="n">
-        <v>176.246795065066</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V14" t="n">
-        <v>252.6646637463896</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>274.1533739936677</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>294.6435059547237</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>311.1503439323083</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.44558892612203</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>97.62090426457043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>72.35747084089344</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>82.55748573165563</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>69.98161766963857</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>62.18059368999398</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H15" t="n">
-        <v>36.42033237969913</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>11.71548249894209</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.39324917663426</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
-        <v>95.19637789758782</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T15" t="n">
-        <v>124.7735062484265</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U15" t="n">
-        <v>150.8488315184485</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V15" t="n">
-        <v>157.7129924256799</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>176.6073884371743</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>130.6853904797322</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>130.5951010535591</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104.744385458192</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>92.15922637488252</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>73.52787829446704</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>71.34636792282386</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>70.33345329918593</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>92.84023154161339</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H16" t="n">
-        <v>86.57808937413189</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I16" t="n">
-        <v>78.46369445828564</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>13.80666171075308</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.786238159361147</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
-        <v>99.36620394003411</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S16" t="n">
-        <v>147.8284171362013</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T16" t="n">
-        <v>152.5881587612905</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U16" t="n">
-        <v>211.2279899185764</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V16" t="n">
-        <v>177.0500486000827</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>211.4354036128457</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>150.6220606652918</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.4970586283495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>307.6462469397352</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>290.1852970472622</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>279.5954468969376</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>306.8427753485165</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>331.7884510179661</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>340.0743538035741</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H17" t="n">
-        <v>262.9453521705555</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I17" t="n">
-        <v>129.9605273939005</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.937686961534</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
-        <v>130.7242458026525</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T17" t="n">
-        <v>147.3919510462234</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U17" t="n">
-        <v>176.246795065066</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V17" t="n">
-        <v>252.6646637463896</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>274.1533739936677</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>294.6435059547237</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>311.1503439323083</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.44558892612203</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>97.62090426457043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>72.35747084089344</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>82.55748573165563</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>69.98161766963857</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>62.18059368999398</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H18" t="n">
-        <v>36.42033237969913</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>11.71548249894209</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.39324917663426</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
-        <v>95.19637789758782</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T18" t="n">
-        <v>124.7735062484265</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U18" t="n">
-        <v>150.8488315184485</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V18" t="n">
-        <v>157.7129924256799</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>176.6073884371743</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>130.6853904797322</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>130.5951010535591</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>104.744385458192</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>92.15922637488252</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>73.52787829446704</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>71.34636792282386</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>70.33345329918593</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>92.84023154161339</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H19" t="n">
-        <v>86.57808937413189</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I19" t="n">
-        <v>78.46369445828564</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>13.80666171075308</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.786238159361147</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
-        <v>99.36620394003411</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S19" t="n">
-        <v>147.8284171362013</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T19" t="n">
-        <v>152.5881587612905</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U19" t="n">
-        <v>211.2279899185764</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V19" t="n">
-        <v>177.0500486000827</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>211.4354036128457</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>150.6220606652918</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>143.4970586283495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>307.6462469397352</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>290.1852970472622</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>279.5954468969376</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>306.8427753485165</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>331.7884510179661</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>340.0743538035741</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H20" t="n">
-        <v>262.9453521705555</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I20" t="n">
-        <v>129.9605273939005</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.937686961534</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
-        <v>130.7242458026525</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T20" t="n">
-        <v>147.3919510462234</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U20" t="n">
-        <v>176.246795065066</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V20" t="n">
-        <v>252.6646637463896</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>274.1533739936677</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>294.6435059547237</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>311.1503439323083</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.44558892612203</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>97.62090426457043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>72.35747084089344</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>82.55748573165563</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>69.98161766963857</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>62.18059368999398</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H21" t="n">
-        <v>36.42033237969913</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>11.71548249894209</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.39324917663426</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
-        <v>95.19637789758782</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T21" t="n">
-        <v>124.7735062484265</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U21" t="n">
-        <v>150.8488315184485</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V21" t="n">
-        <v>157.7129924256799</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>176.6073884371743</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>130.6853904797322</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>130.5951010535591</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.744385458192</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>92.15922637488252</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>73.52787829446704</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>71.34636792282386</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>70.33345329918593</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>92.84023154161339</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H22" t="n">
-        <v>86.57808937413189</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I22" t="n">
-        <v>78.46369445828564</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>13.80666171075308</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.786238159361147</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
-        <v>99.36620394003411</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S22" t="n">
-        <v>147.8284171362013</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T22" t="n">
-        <v>152.5881587612905</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U22" t="n">
-        <v>211.2279899185764</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V22" t="n">
-        <v>177.0500486000827</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>211.4354036128457</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>150.6220606652918</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.4970586283495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>307.6462469397352</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>290.1852970472622</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>279.5954468969376</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>306.8427753485165</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>331.7884510179661</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>340.0743538035741</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H23" t="n">
-        <v>262.9453521705555</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I23" t="n">
-        <v>129.9605273939005</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.937686961534</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
-        <v>130.7242458026525</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T23" t="n">
-        <v>147.3919510462234</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U23" t="n">
-        <v>176.246795065066</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V23" t="n">
-        <v>252.6646637463896</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>274.1533739936677</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>294.6435059547237</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>311.1503439323083</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.44558892612203</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>97.62090426457043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>72.35747084089344</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>82.55748573165563</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>69.98161766963857</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>62.18059368999398</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H24" t="n">
-        <v>36.42033237969913</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>11.71548249894209</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.39324917663426</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
-        <v>95.19637789758782</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T24" t="n">
-        <v>124.7735062484265</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U24" t="n">
-        <v>150.8488315184485</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V24" t="n">
-        <v>157.7129924256799</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>176.6073884371743</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>130.6853904797322</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>130.5951010535591</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.744385458192</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>92.15922637488252</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>73.52787829446704</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>71.34636792282386</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>70.33345329918593</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>92.84023154161339</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H25" t="n">
-        <v>86.57808937413189</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I25" t="n">
-        <v>78.46369445828564</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>13.80666171075308</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.786238159361147</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
-        <v>99.36620394003411</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S25" t="n">
-        <v>147.8284171362013</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T25" t="n">
-        <v>152.5881587612905</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U25" t="n">
-        <v>211.2279899185764</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V25" t="n">
-        <v>177.0500486000827</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>211.4354036128457</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>150.6220606652918</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>143.4970586283495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>307.6462469397352</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>290.1852970472622</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>279.5954468969376</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>306.8427753485165</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>331.7884510179661</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>340.0743538035741</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H26" t="n">
-        <v>262.9453521705555</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I26" t="n">
-        <v>129.9605273939005</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.937686961534</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
-        <v>130.7242458026525</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T26" t="n">
-        <v>147.3919510462234</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U26" t="n">
-        <v>176.246795065066</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V26" t="n">
-        <v>252.6646637463896</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>274.1533739936677</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>294.6435059547237</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>311.1503439323083</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>91.44558892612203</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>97.62090426457043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>72.35747084089344</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>82.55748573165563</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>69.98161766963857</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>62.18059368999398</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H27" t="n">
-        <v>36.42033237969913</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>11.71548249894209</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>20.39324917663426</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
-        <v>95.19637789758782</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T27" t="n">
-        <v>124.7735062484265</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U27" t="n">
-        <v>150.8488315184485</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V27" t="n">
-        <v>157.7129924256799</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>176.6073884371743</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>130.6853904797322</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>130.5951010535591</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.744385458192</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>92.15922637488252</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>73.52787829446704</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>71.34636792282386</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>70.33345329918593</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>92.84023154161339</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H28" t="n">
-        <v>86.57808937413189</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I28" t="n">
-        <v>78.46369445828564</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>13.80666171075308</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.786238159361147</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
-        <v>99.36620394003411</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S28" t="n">
-        <v>147.8284171362013</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T28" t="n">
-        <v>152.5881587612905</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U28" t="n">
-        <v>211.2279899185764</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V28" t="n">
-        <v>177.0500486000827</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>211.4354036128457</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>150.6220606652918</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>143.4970586283495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>271.2259145600361</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>253.7649646675631</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>243.1751145172385</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>270.4224429688173</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>295.368118638267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>303.654021423875</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H29" t="n">
-        <v>226.5250197908564</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I29" t="n">
-        <v>93.54019501420134</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>29.51735458183487</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
-        <v>94.30391342295337</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T29" t="n">
-        <v>110.9716186665242</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U29" t="n">
-        <v>139.8264626853668</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V29" t="n">
-        <v>216.2443313666905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>237.7330416139686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>258.2231735750246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7300115526091</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.0252565464229</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>61.20057188487129</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>35.93713846119431</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>46.1371533519565</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>33.56128528993943</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>25.76026131029485</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
-        <v>58.77604551788869</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T30" t="n">
-        <v>88.3531738687274</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U30" t="n">
-        <v>114.4284991387494</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V30" t="n">
-        <v>121.2926600459808</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>140.1870560574752</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>94.26505810003303</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>94.17476867385992</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.32405307849285</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>55.73889399518339</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>37.10754591476791</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>34.92603554312473</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>33.9131209194868</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>56.41989916191426</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H31" t="n">
-        <v>50.15775699443276</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I31" t="n">
-        <v>42.04336207858651</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
-        <v>62.94587156033498</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S31" t="n">
-        <v>111.4080847565022</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T31" t="n">
-        <v>116.1678263815913</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U31" t="n">
-        <v>174.8076575388773</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V31" t="n">
-        <v>140.6297162203836</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>175.0150712331466</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>114.2017282855927</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>107.0767262486503</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>271.2259145600361</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>253.7649646675631</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>243.1751145172385</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>270.4224429688173</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>295.368118638267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>303.654021423875</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H32" t="n">
-        <v>226.5250197908564</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I32" t="n">
-        <v>93.54019501420134</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>29.51735458183487</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
-        <v>94.30391342295337</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T32" t="n">
-        <v>110.9716186665242</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U32" t="n">
-        <v>139.8264626853668</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V32" t="n">
-        <v>216.2443313666905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>237.7330416139686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>258.2231735750246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7300115526091</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55.0252565464229</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>61.20057188487129</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>35.93713846119431</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>46.1371533519565</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>33.56128528993943</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>25.76026131029485</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
-        <v>58.77604551788869</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T33" t="n">
-        <v>88.3531738687274</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U33" t="n">
-        <v>114.4284991387494</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V33" t="n">
-        <v>121.2926600459808</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>140.1870560574752</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>94.26505810003303</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>94.17476867385992</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.32405307849285</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>55.73889399518339</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>37.10754591476791</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>34.92603554312473</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>33.9131209194868</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>56.41989916191426</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H34" t="n">
-        <v>50.15775699443276</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I34" t="n">
-        <v>42.04336207858651</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
-        <v>62.94587156033498</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S34" t="n">
-        <v>111.4080847565022</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T34" t="n">
-        <v>116.1678263815913</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U34" t="n">
-        <v>174.8076575388773</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V34" t="n">
-        <v>140.6297162203836</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>175.0150712331466</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>114.2017282855927</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.0767262486503</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>271.2259145600361</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>253.7649646675631</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>243.1751145172385</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>270.4224429688173</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>295.368118638267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>303.654021423875</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H35" t="n">
-        <v>226.5250197908564</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I35" t="n">
-        <v>93.54019501420134</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>29.51735458183487</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
-        <v>94.30391342295337</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T35" t="n">
-        <v>110.9716186665242</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U35" t="n">
-        <v>139.8264626853668</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V35" t="n">
-        <v>216.2443313666905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>237.7330416139686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>258.2231735750246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.7300115526091</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55.0252565464229</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>61.20057188487129</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>35.93713846119431</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>46.1371533519565</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>33.56128528993943</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>25.76026131029485</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
-        <v>58.77604551788869</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T36" t="n">
-        <v>88.3531738687274</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U36" t="n">
-        <v>114.4284991387494</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V36" t="n">
-        <v>121.2926600459808</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>140.1870560574752</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>94.26505810003303</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>94.17476867385992</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.32405307849285</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>55.73889399518339</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>37.10754591476791</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>34.92603554312473</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>33.9131209194868</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>56.41989916191426</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H37" t="n">
-        <v>50.15775699443276</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I37" t="n">
-        <v>42.04336207858651</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
-        <v>62.94587156033498</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S37" t="n">
-        <v>111.4080847565022</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T37" t="n">
-        <v>116.1678263815913</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U37" t="n">
-        <v>174.8076575388773</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V37" t="n">
-        <v>140.6297162203836</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>175.0150712331466</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>114.2017282855927</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>107.0767262486503</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>271.2259145600361</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>253.7649646675631</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>243.1751145172385</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>270.4224429688173</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>295.368118638267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>303.654021423875</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H38" t="n">
-        <v>226.5250197908564</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I38" t="n">
-        <v>93.54019501420134</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>29.51735458183487</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
-        <v>94.30391342295337</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T38" t="n">
-        <v>110.9716186665242</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U38" t="n">
-        <v>139.8264626853668</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V38" t="n">
-        <v>216.2443313666905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>237.7330416139686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>258.2231735750246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7300115526091</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55.0252565464229</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>61.20057188487129</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>35.93713846119431</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>46.1371533519565</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>33.56128528993943</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>25.76026131029485</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
-        <v>58.77604551788869</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T39" t="n">
-        <v>88.3531738687274</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U39" t="n">
-        <v>114.4284991387494</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V39" t="n">
-        <v>121.2926600459808</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>140.1870560574752</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>94.26505810003303</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>94.17476867385992</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.32405307849285</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>55.73889399518339</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>37.10754591476791</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>34.92603554312473</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>33.9131209194868</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>56.41989916191426</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H40" t="n">
-        <v>50.15775699443276</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I40" t="n">
-        <v>42.04336207858651</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
-        <v>62.94587156033498</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S40" t="n">
-        <v>111.4080847565022</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T40" t="n">
-        <v>116.1678263815913</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U40" t="n">
-        <v>174.8076575388773</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V40" t="n">
-        <v>140.6297162203836</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>175.0150712331466</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>114.2017282855927</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>107.0767262486503</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>271.2259145600361</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>253.7649646675631</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>243.1751145172385</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>270.4224429688173</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>295.368118638267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>303.654021423875</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H41" t="n">
-        <v>226.5250197908564</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I41" t="n">
-        <v>93.54019501420134</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>29.51735458183487</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
-        <v>94.30391342295337</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T41" t="n">
-        <v>110.9716186665242</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U41" t="n">
-        <v>139.8264626853668</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V41" t="n">
-        <v>216.2443313666905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>237.7330416139686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>258.2231735750246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7300115526091</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55.0252565464229</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>61.20057188487129</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>35.93713846119431</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>46.1371533519565</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>33.56128528993943</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>25.76026131029487</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
-        <v>58.77604551788869</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T42" t="n">
-        <v>88.3531738687274</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U42" t="n">
-        <v>114.4284991387494</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V42" t="n">
-        <v>121.2926600459808</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>140.1870560574752</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>94.26505810003303</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>94.17476867385992</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.32405307849285</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>55.73889399518339</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>37.10754591476791</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>34.92603554312473</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>33.9131209194868</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>56.41989916191425</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H43" t="n">
-        <v>50.15775699443276</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I43" t="n">
-        <v>42.04336207858651</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
-        <v>62.94587156033498</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S43" t="n">
-        <v>111.4080847565022</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T43" t="n">
-        <v>116.1678263815913</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U43" t="n">
-        <v>174.8076575388773</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V43" t="n">
-        <v>140.6297162203836</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>175.0150712331466</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>114.2017282855927</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>107.0767262486503</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.1619485273195</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H44" t="n">
-        <v>338.0329468943008</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I44" t="n">
-        <v>205.0481221176458</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.0252816852793</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8118405263978</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4795457699687</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2681884137393</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H45" t="n">
-        <v>111.5079271034444</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>86.80307722268741</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>95.48084390037957</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
-        <v>170.2839726213331</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T45" t="n">
-        <v>199.8611009721718</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,19 +26037,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9278262653587</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6656840978772</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I46" t="n">
-        <v>153.551289182031</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>88.89425643449839</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.87383288310646</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
-        <v>174.4537986637794</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S46" t="n">
-        <v>222.9160118599466</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T46" t="n">
-        <v>227.6757534850358</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>306378.945794846</v>
+        <v>275857.3706737142</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>467809.4256480611</v>
+        <v>275857.3706737142</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>467809.4256480611</v>
+        <v>275857.3706737142</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>467809.4256480611</v>
+        <v>275857.3706737142</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>467809.4256480611</v>
+        <v>275857.3706737142</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>467809.4256480611</v>
+        <v>275857.3706737142</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>543248.4085138569</v>
+        <v>275857.3706737142</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>543248.4085138569</v>
+        <v>275857.3706737142</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>543248.4085138569</v>
+        <v>275857.3706737142</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>543248.4085138569</v>
+        <v>275857.3706737142</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>543248.4085138569</v>
+        <v>275857.3706737142</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>306378.945794846</v>
+        <v>275857.3706737142</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>696384.8879094828</v>
+      </c>
+      <c r="C2" t="n">
         <v>696384.8879094826</v>
       </c>
-      <c r="C2" t="n">
-        <v>696384.8879094827</v>
-      </c>
       <c r="D2" t="n">
-        <v>696384.8879094823</v>
+        <v>696384.8879094826</v>
       </c>
       <c r="E2" t="n">
-        <v>186500.2997514683</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="F2" t="n">
-        <v>338962.4196128384</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="G2" t="n">
-        <v>338962.4196128379</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="H2" t="n">
-        <v>338962.4196128379</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="I2" t="n">
-        <v>338962.4196128384</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="J2" t="n">
-        <v>338962.4196128382</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="K2" t="n">
-        <v>410210.3478749784</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="L2" t="n">
-        <v>410210.3478749783</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="M2" t="n">
-        <v>410210.3478749783</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="N2" t="n">
-        <v>410210.3478749783</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="O2" t="n">
-        <v>410210.3478749784</v>
+        <v>194344.9318547681</v>
       </c>
       <c r="P2" t="n">
-        <v>186500.2997514683</v>
+        <v>194344.9318547681</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>28136.18592552744</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>60070.07577899624</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,7 +26392,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>89206.34168275556</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>108908.0401756441</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="F4" t="n">
-        <v>211284.9322794086</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="G4" t="n">
-        <v>211284.9322794086</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="H4" t="n">
-        <v>211284.9322794086</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="I4" t="n">
-        <v>211284.9322794086</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="J4" t="n">
-        <v>211284.9322794086</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="K4" t="n">
-        <v>259127.2518729065</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="L4" t="n">
-        <v>259127.2518729065</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="M4" t="n">
-        <v>259127.2518729065</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="N4" t="n">
-        <v>259127.2518729065</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="O4" t="n">
-        <v>259127.2518729065</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="P4" t="n">
-        <v>108908.0401756441</v>
+        <v>70080.38400395971</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>763.463483676932</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="F5" t="n">
-        <v>7076.002484507477</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="G5" t="n">
-        <v>7076.002484507477</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="H5" t="n">
-        <v>7076.002484507477</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="I5" t="n">
-        <v>7076.002484507477</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="J5" t="n">
-        <v>7076.002484507477</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="K5" t="n">
-        <v>10137.8234073364</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="L5" t="n">
-        <v>10137.8234073364</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="M5" t="n">
-        <v>10137.8234073364</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="N5" t="n">
-        <v>10137.8234073364</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="O5" t="n">
-        <v>10137.8234073364</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="P5" t="n">
-        <v>763.463483676932</v>
+        <v>3611.612105008322</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>199606.556807373</v>
+      </c>
+      <c r="C6" t="n">
         <v>199606.5568073728</v>
       </c>
-      <c r="C6" t="n">
-        <v>199606.556807373</v>
-      </c>
       <c r="D6" t="n">
-        <v>199606.5568073726</v>
+        <v>199606.5568073728</v>
       </c>
       <c r="E6" t="n">
-        <v>48692.61016661982</v>
+        <v>-12447.06425419999</v>
       </c>
       <c r="F6" t="n">
-        <v>60531.40906992607</v>
+        <v>120652.9357458001</v>
       </c>
       <c r="G6" t="n">
-        <v>120601.4848489218</v>
+        <v>120652.9357458001</v>
       </c>
       <c r="H6" t="n">
-        <v>120601.4848489218</v>
+        <v>120652.9357458001</v>
       </c>
       <c r="I6" t="n">
-        <v>120601.4848489222</v>
+        <v>120652.9357458001</v>
       </c>
       <c r="J6" t="n">
-        <v>120601.4848489221</v>
+        <v>120652.9357458001</v>
       </c>
       <c r="K6" t="n">
-        <v>51738.93091197987</v>
+        <v>120652.9357458001</v>
       </c>
       <c r="L6" t="n">
-        <v>140945.2725947353</v>
+        <v>120652.9357458001</v>
       </c>
       <c r="M6" t="n">
-        <v>140945.2725947353</v>
+        <v>120652.9357458001</v>
       </c>
       <c r="N6" t="n">
-        <v>140945.2725947354</v>
+        <v>120652.9357458001</v>
       </c>
       <c r="O6" t="n">
-        <v>140945.2725947354</v>
+        <v>120652.9357458001</v>
       </c>
       <c r="P6" t="n">
-        <v>76828.79609214725</v>
+        <v>120652.9357458001</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26697,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912532</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912532</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912533</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="H3" t="n">
-        <v>35.02126071912532</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="I3" t="n">
-        <v>35.02126071912532</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="J3" t="n">
-        <v>35.02126071912532</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="K3" t="n">
-        <v>35.02126071912532</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="L3" t="n">
-        <v>35.02126071912532</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="M3" t="n">
-        <v>35.02126071912532</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="N3" t="n">
-        <v>35.02126071912532</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="O3" t="n">
-        <v>35.02126071912532</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="P3" t="n">
-        <v>35.02126071912532</v>
+        <v>165.6702800462533</v>
       </c>
     </row>
     <row r="4">
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>75.0875947237453</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912532</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>75.0875947237453</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28405,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,34 +28484,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28527,31 +28529,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28611,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28719,34 +28721,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28764,31 +28766,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28848,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,34 +28958,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29001,31 +29003,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29085,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29116,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,34 +29195,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29238,31 +29240,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29322,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,34 +29432,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29475,31 +29477,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>75.08759472374531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29559,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29712,31 +29714,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29796,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29825,28 +29827,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29949,31 +29951,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30033,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30062,28 +30064,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30186,31 +30188,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30270,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30299,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,31 +30425,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,31 +30662,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4418552214663</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760118</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884598</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470701</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677232</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840334</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081217</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411506</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796963</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R11" t="n">
-        <v>8.843836255870377</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847512</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626978</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520186</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727678</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779988</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335884</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358773</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M12" t="n">
-        <v>19.0865870919233</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833408</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689049</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650263</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164373</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263568</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504676</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497751</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623702</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227321</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174387</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170844</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894682</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948817</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394047</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179684</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938411</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587923</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390062</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025626</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4418552214663</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760118</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K14" t="n">
-        <v>17.90888720884598</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L14" t="n">
-        <v>22.21755819470701</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M14" t="n">
-        <v>24.72131435677232</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840334</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081217</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411506</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796963</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R14" t="n">
-        <v>8.843836255870377</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847512</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941626978</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7275171330520186</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727678</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779988</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335884</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358773</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M15" t="n">
-        <v>19.0865870919233</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N15" t="n">
-        <v>19.59175225833408</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O15" t="n">
-        <v>17.92262575689049</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650263</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164373</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263568</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S15" t="n">
-        <v>1.399198482504676</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497751</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623702</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I16" t="n">
-        <v>1.899185745227321</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174387</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170844</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894682</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402948817</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N16" t="n">
-        <v>9.664145601394047</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179684</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938411</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.288210368587923</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R16" t="n">
-        <v>2.839592713390062</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S16" t="n">
-        <v>1.100586177025626</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4418552214663</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I17" t="n">
-        <v>5.427767452760119</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884599</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L17" t="n">
-        <v>22.21755819470702</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M17" t="n">
-        <v>24.72131435677232</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840334</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O17" t="n">
-        <v>23.72136057081217</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411506</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.20362680796963</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R17" t="n">
-        <v>8.843836255870377</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847512</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6163037941626978</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7275171330520187</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727678</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779989</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335884</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L18" t="n">
-        <v>16.35591992358773</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M18" t="n">
-        <v>19.0865870919233</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N18" t="n">
-        <v>19.59175225833408</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689049</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650263</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164375</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263569</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S18" t="n">
-        <v>1.399198482504676</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497752</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623703</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I19" t="n">
-        <v>1.899185745227321</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174387</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170845</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894682</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M19" t="n">
-        <v>9.899534402948818</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N19" t="n">
-        <v>9.664145601394049</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179684</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938412</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.288210368587925</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R19" t="n">
-        <v>2.839592713390063</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S19" t="n">
-        <v>1.100586177025627</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4418552214663</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I20" t="n">
-        <v>5.427767452760118</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K20" t="n">
-        <v>17.90888720884598</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L20" t="n">
-        <v>22.21755819470701</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M20" t="n">
-        <v>24.72131435677232</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N20" t="n">
-        <v>25.12133106840334</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O20" t="n">
-        <v>23.72136057081217</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P20" t="n">
-        <v>20.24563243411506</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.20362680796963</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R20" t="n">
-        <v>8.843836255870377</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S20" t="n">
-        <v>3.208229059847512</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6163037941626978</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7275171330520186</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I21" t="n">
-        <v>2.593555628727678</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J21" t="n">
-        <v>7.116914878779988</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K21" t="n">
-        <v>12.16394109335884</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L21" t="n">
-        <v>16.35591992358773</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M21" t="n">
-        <v>19.0865870919233</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N21" t="n">
-        <v>19.59175225833408</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O21" t="n">
-        <v>17.92262575689049</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P21" t="n">
-        <v>14.38448725650263</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.615648792164373</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263568</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S21" t="n">
-        <v>1.399198482504676</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3036277226497751</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5614884095623702</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I22" t="n">
-        <v>1.899185745227321</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J22" t="n">
-        <v>4.464923682174387</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K22" t="n">
-        <v>7.337241180170844</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L22" t="n">
-        <v>9.389142586894682</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M22" t="n">
-        <v>9.899534402948817</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N22" t="n">
-        <v>9.664145601394047</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O22" t="n">
-        <v>8.926402650179684</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938411</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.288210368587923</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R22" t="n">
-        <v>2.839592713390062</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S22" t="n">
-        <v>1.100586177025626</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4418552214663</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I23" t="n">
-        <v>5.427767452760118</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K23" t="n">
-        <v>17.90888720884598</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L23" t="n">
-        <v>22.21755819470701</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M23" t="n">
-        <v>24.72131435677232</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N23" t="n">
-        <v>25.12133106840334</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O23" t="n">
-        <v>23.72136057081217</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P23" t="n">
-        <v>20.24563243411506</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q23" t="n">
-        <v>15.20362680796963</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R23" t="n">
-        <v>8.843836255870377</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S23" t="n">
-        <v>3.208229059847512</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6163037941626978</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7275171330520186</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I24" t="n">
-        <v>2.593555628727678</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J24" t="n">
-        <v>7.116914878779988</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K24" t="n">
-        <v>12.16394109335884</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L24" t="n">
-        <v>16.35591992358773</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M24" t="n">
-        <v>19.0865870919233</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N24" t="n">
-        <v>19.59175225833408</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O24" t="n">
-        <v>17.92262575689049</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P24" t="n">
-        <v>14.38448725650263</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.615648792164373</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R24" t="n">
-        <v>4.676990252263568</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S24" t="n">
-        <v>1.399198482504676</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3036277226497751</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5614884095623702</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I25" t="n">
-        <v>1.899185745227321</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J25" t="n">
-        <v>4.464923682174387</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K25" t="n">
-        <v>7.337241180170844</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L25" t="n">
-        <v>9.389142586894682</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M25" t="n">
-        <v>9.899534402948817</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N25" t="n">
-        <v>9.664145601394047</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O25" t="n">
-        <v>8.926402650179684</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P25" t="n">
-        <v>7.638079550938411</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.288210368587923</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R25" t="n">
-        <v>2.839592713390062</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S25" t="n">
-        <v>1.100586177025626</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4418552214663</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I26" t="n">
-        <v>5.427767452760118</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K26" t="n">
-        <v>17.90888720884598</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L26" t="n">
-        <v>22.21755819470701</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M26" t="n">
-        <v>24.72131435677232</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N26" t="n">
-        <v>25.12133106840334</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O26" t="n">
-        <v>23.72136057081217</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P26" t="n">
-        <v>20.24563243411506</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q26" t="n">
-        <v>15.20362680796963</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R26" t="n">
-        <v>8.843836255870377</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S26" t="n">
-        <v>3.208229059847512</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6163037941626978</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7275171330520186</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I27" t="n">
-        <v>2.593555628727678</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J27" t="n">
-        <v>7.116914878779988</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K27" t="n">
-        <v>12.16394109335884</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L27" t="n">
-        <v>16.35591992358773</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M27" t="n">
-        <v>19.0865870919233</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N27" t="n">
-        <v>19.59175225833408</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O27" t="n">
-        <v>17.92262575689049</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P27" t="n">
-        <v>14.38448725650263</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.615648792164373</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R27" t="n">
-        <v>4.676990252263568</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S27" t="n">
-        <v>1.399198482504676</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3036277226497751</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5614884095623702</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I28" t="n">
-        <v>1.899185745227321</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J28" t="n">
-        <v>4.464923682174387</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K28" t="n">
-        <v>7.337241180170844</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L28" t="n">
-        <v>9.389142586894682</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M28" t="n">
-        <v>9.899534402948817</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N28" t="n">
-        <v>9.664145601394047</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O28" t="n">
-        <v>8.926402650179684</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P28" t="n">
-        <v>7.638079550938411</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.288210368587923</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R28" t="n">
-        <v>2.839592713390062</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S28" t="n">
-        <v>1.100586177025626</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4418552214663</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I29" t="n">
-        <v>5.427767452760118</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K29" t="n">
-        <v>17.90888720884598</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L29" t="n">
-        <v>22.21755819470701</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M29" t="n">
-        <v>24.72131435677232</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N29" t="n">
-        <v>25.12133106840334</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O29" t="n">
-        <v>23.72136057081217</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P29" t="n">
-        <v>20.24563243411506</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q29" t="n">
-        <v>15.20362680796963</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R29" t="n">
-        <v>8.843836255870377</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S29" t="n">
-        <v>3.208229059847512</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6163037941626978</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7275171330520186</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I30" t="n">
-        <v>2.593555628727678</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J30" t="n">
-        <v>7.116914878779988</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K30" t="n">
-        <v>12.16394109335884</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L30" t="n">
-        <v>16.35591992358773</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M30" t="n">
-        <v>19.0865870919233</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N30" t="n">
-        <v>19.59175225833408</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O30" t="n">
-        <v>17.92262575689049</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P30" t="n">
-        <v>14.38448725650263</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.615648792164373</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R30" t="n">
-        <v>4.676990252263568</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S30" t="n">
-        <v>1.399198482504676</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3036277226497751</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5614884095623702</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I31" t="n">
-        <v>1.899185745227321</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J31" t="n">
-        <v>4.464923682174387</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K31" t="n">
-        <v>7.337241180170844</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L31" t="n">
-        <v>9.389142586894682</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M31" t="n">
-        <v>9.899534402948817</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N31" t="n">
-        <v>9.664145601394047</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O31" t="n">
-        <v>8.926402650179684</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P31" t="n">
-        <v>7.638079550938411</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.288210368587923</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R31" t="n">
-        <v>2.839592713390062</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S31" t="n">
-        <v>1.100586177025626</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4418552214663</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I32" t="n">
-        <v>5.427767452760118</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K32" t="n">
-        <v>17.90888720884598</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L32" t="n">
-        <v>22.21755819470701</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M32" t="n">
-        <v>24.72131435677232</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N32" t="n">
-        <v>25.12133106840334</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O32" t="n">
-        <v>23.72136057081217</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P32" t="n">
-        <v>20.24563243411506</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q32" t="n">
-        <v>15.20362680796963</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R32" t="n">
-        <v>8.843836255870377</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S32" t="n">
-        <v>3.208229059847512</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6163037941626978</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7275171330520186</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I33" t="n">
-        <v>2.593555628727678</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J33" t="n">
-        <v>7.116914878779988</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K33" t="n">
-        <v>12.16394109335884</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L33" t="n">
-        <v>16.35591992358773</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M33" t="n">
-        <v>19.0865870919233</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N33" t="n">
-        <v>19.59175225833408</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O33" t="n">
-        <v>17.92262575689049</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P33" t="n">
-        <v>14.38448725650263</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.615648792164373</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R33" t="n">
-        <v>4.676990252263568</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S33" t="n">
-        <v>1.399198482504676</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3036277226497751</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5614884095623702</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I34" t="n">
-        <v>1.899185745227321</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J34" t="n">
-        <v>4.464923682174387</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K34" t="n">
-        <v>7.337241180170844</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L34" t="n">
-        <v>9.389142586894682</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M34" t="n">
-        <v>9.899534402948817</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N34" t="n">
-        <v>9.664145601394047</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O34" t="n">
-        <v>8.926402650179684</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P34" t="n">
-        <v>7.638079550938411</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.288210368587923</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R34" t="n">
-        <v>2.839592713390062</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S34" t="n">
-        <v>1.100586177025626</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4418552214663</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I35" t="n">
-        <v>5.427767452760118</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K35" t="n">
-        <v>17.90888720884598</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L35" t="n">
-        <v>22.21755819470701</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M35" t="n">
-        <v>24.72131435677232</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N35" t="n">
-        <v>25.12133106840334</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O35" t="n">
-        <v>23.72136057081217</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P35" t="n">
-        <v>20.24563243411506</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q35" t="n">
-        <v>15.20362680796963</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R35" t="n">
-        <v>8.843836255870377</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S35" t="n">
-        <v>3.208229059847512</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6163037941626978</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7275171330520186</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I36" t="n">
-        <v>2.593555628727678</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J36" t="n">
-        <v>7.116914878779988</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K36" t="n">
-        <v>12.16394109335884</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L36" t="n">
-        <v>16.35591992358773</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M36" t="n">
-        <v>19.0865870919233</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N36" t="n">
-        <v>19.59175225833408</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O36" t="n">
-        <v>17.92262575689049</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P36" t="n">
-        <v>14.38448725650263</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.615648792164373</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R36" t="n">
-        <v>4.676990252263568</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S36" t="n">
-        <v>1.399198482504676</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3036277226497751</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5614884095623702</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I37" t="n">
-        <v>1.899185745227321</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J37" t="n">
-        <v>4.464923682174387</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K37" t="n">
-        <v>7.337241180170844</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L37" t="n">
-        <v>9.389142586894682</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M37" t="n">
-        <v>9.899534402948817</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N37" t="n">
-        <v>9.664145601394047</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O37" t="n">
-        <v>8.926402650179684</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P37" t="n">
-        <v>7.638079550938411</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.288210368587923</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R37" t="n">
-        <v>2.839592713390062</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S37" t="n">
-        <v>1.100586177025626</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4418552214663</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I38" t="n">
-        <v>5.427767452760118</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K38" t="n">
-        <v>17.90888720884598</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L38" t="n">
-        <v>22.21755819470701</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M38" t="n">
-        <v>24.72131435677232</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N38" t="n">
-        <v>25.12133106840334</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O38" t="n">
-        <v>23.72136057081217</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P38" t="n">
-        <v>20.24563243411506</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q38" t="n">
-        <v>15.20362680796963</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R38" t="n">
-        <v>8.843836255870377</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S38" t="n">
-        <v>3.208229059847512</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6163037941626978</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7275171330520186</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I39" t="n">
-        <v>2.593555628727678</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J39" t="n">
-        <v>7.116914878779988</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K39" t="n">
-        <v>12.16394109335884</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L39" t="n">
-        <v>16.35591992358773</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M39" t="n">
-        <v>19.0865870919233</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N39" t="n">
-        <v>19.59175225833408</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O39" t="n">
-        <v>17.92262575689049</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P39" t="n">
-        <v>14.38448725650263</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.615648792164373</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R39" t="n">
-        <v>4.676990252263568</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S39" t="n">
-        <v>1.399198482504676</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3036277226497751</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5614884095623702</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I40" t="n">
-        <v>1.899185745227321</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J40" t="n">
-        <v>4.464923682174387</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K40" t="n">
-        <v>7.337241180170844</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L40" t="n">
-        <v>9.389142586894682</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M40" t="n">
-        <v>9.899534402948817</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N40" t="n">
-        <v>9.664145601394047</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O40" t="n">
-        <v>8.926402650179684</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P40" t="n">
-        <v>7.638079550938411</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.288210368587923</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R40" t="n">
-        <v>2.839592713390062</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S40" t="n">
-        <v>1.100586177025626</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4418552214663</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I41" t="n">
-        <v>5.427767452760118</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K41" t="n">
-        <v>17.90888720884598</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L41" t="n">
-        <v>22.21755819470701</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M41" t="n">
-        <v>24.72131435677232</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N41" t="n">
-        <v>25.12133106840334</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O41" t="n">
-        <v>23.72136057081217</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P41" t="n">
-        <v>20.24563243411506</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q41" t="n">
-        <v>15.20362680796963</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R41" t="n">
-        <v>8.843836255870377</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S41" t="n">
-        <v>3.208229059847512</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6163037941626978</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7275171330520186</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I42" t="n">
-        <v>2.593555628727678</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J42" t="n">
-        <v>7.116914878779988</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K42" t="n">
-        <v>12.16394109335884</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L42" t="n">
-        <v>16.35591992358773</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M42" t="n">
-        <v>19.0865870919233</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N42" t="n">
-        <v>19.59175225833408</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O42" t="n">
-        <v>17.92262575689049</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P42" t="n">
-        <v>14.38448725650263</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.615648792164373</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R42" t="n">
-        <v>4.676990252263568</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S42" t="n">
-        <v>1.399198482504676</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3036277226497751</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5614884095623702</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I43" t="n">
-        <v>1.899185745227321</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J43" t="n">
-        <v>4.464923682174387</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K43" t="n">
-        <v>7.337241180170844</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L43" t="n">
-        <v>9.389142586894682</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M43" t="n">
-        <v>9.899534402948817</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N43" t="n">
-        <v>9.664145601394047</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O43" t="n">
-        <v>8.926402650179684</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P43" t="n">
-        <v>7.638079550938411</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.288210368587923</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R43" t="n">
-        <v>2.839592713390062</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S43" t="n">
-        <v>1.100586177025626</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H44" t="n">
-        <v>1.4418552214663</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I44" t="n">
-        <v>5.427767452760118</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K44" t="n">
-        <v>17.90888720884598</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L44" t="n">
-        <v>22.21755819470701</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M44" t="n">
-        <v>24.72131435677232</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N44" t="n">
-        <v>25.12133106840334</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O44" t="n">
-        <v>23.72136057081217</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P44" t="n">
-        <v>20.24563243411506</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q44" t="n">
-        <v>15.20362680796963</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R44" t="n">
-        <v>8.843836255870377</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S44" t="n">
-        <v>3.208229059847512</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6163037941626978</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7275171330520186</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I45" t="n">
-        <v>2.593555628727678</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J45" t="n">
-        <v>7.116914878779988</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K45" t="n">
-        <v>12.16394109335884</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L45" t="n">
-        <v>16.35591992358773</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M45" t="n">
-        <v>19.0865870919233</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N45" t="n">
-        <v>19.59175225833408</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O45" t="n">
-        <v>17.92262575689049</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P45" t="n">
-        <v>14.38448725650263</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.615648792164373</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R45" t="n">
-        <v>4.676990252263568</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S45" t="n">
-        <v>1.399198482504676</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3036277226497751</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5614884095623702</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I46" t="n">
-        <v>1.899185745227321</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J46" t="n">
-        <v>4.464923682174387</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K46" t="n">
-        <v>7.337241180170844</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L46" t="n">
-        <v>9.389142586894682</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M46" t="n">
-        <v>9.899534402948817</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N46" t="n">
-        <v>9.664145601394047</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O46" t="n">
-        <v>8.926402650179684</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P46" t="n">
-        <v>7.638079550938411</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.288210368587923</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R46" t="n">
-        <v>2.839592713390062</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S46" t="n">
-        <v>1.100586177025626</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1139172.328990319</v>
+        <v>1061096.713997579</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8041589.773721423</v>
+        <v>5739672.253402798</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17785260.94054101</v>
+        <v>12703441.69178931</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4862984.575640534</v>
+        <v>6590494.319851534</v>
       </c>
     </row>
     <row r="11">
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>214.5102874732695</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>129.5917403577181</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>214.5102874732695</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>129.5917403577181</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>221.1666787354325</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>217.9290633046619</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>130.8188201934043</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>121.3349826493853</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>214.5102874732695</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>129.5917403577181</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>214.5102874732695</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>129.5917403577181</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>214.5102874732695</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>129.5917403577181</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>214.5102874732695</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>129.5917403577181</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>214.5102874732695</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>129.5917403577181</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>300.0468191974913</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>282.5858693050184</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>271.9960191546937</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>299.2433476062726</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>324.1890232757222</v>
       </c>
       <c r="G11" t="n">
-        <v>414.6367263390697</v>
+        <v>332.5231989378422</v>
       </c>
       <c r="H11" t="n">
-        <v>332.654015158888</v>
+        <v>255.8402990248892</v>
       </c>
       <c r="I11" t="n">
-        <v>184.7994937051469</v>
+        <v>124.2221397233818</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.0327934026353</v>
+        <v>61.37058029848096</v>
       </c>
       <c r="S11" t="n">
-        <v>193.8433399116564</v>
+        <v>124.2248362339236</v>
       </c>
       <c r="T11" t="n">
-        <v>220.1803856409053</v>
+        <v>140.0038378209103</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2923720137513</v>
+        <v>168.651229152943</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>245.0652360041457</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>266.5539462514238</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>287.0440782124798</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>303.5509161900644</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>83.84616118387814</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>90.02147652232654</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>64.75804309864955</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>74.95805798941174</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>62.38218992739468</v>
       </c>
       <c r="G12" t="n">
-        <v>136.9871697683942</v>
+        <v>54.60699421370645</v>
       </c>
       <c r="H12" t="n">
-        <v>108.7938786076111</v>
+        <v>29.07035131129679</v>
       </c>
       <c r="I12" t="n">
-        <v>77.12765456497084</v>
+        <v>5.00531742230044</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>78.03303713061706</v>
+        <v>14.39743956104837</v>
       </c>
       <c r="S12" t="n">
-        <v>165.0641745378389</v>
+        <v>88.07669886729623</v>
       </c>
       <c r="T12" t="n">
-        <v>198.728398625364</v>
+        <v>117.2781845430856</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9179381734211</v>
+        <v>143.251103004228</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>150.1135646834361</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>169.0079606949304</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>123.0859627374883</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>122.9956733113152</v>
       </c>
     </row>
     <row r="13">
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>97.1449577159481</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>84.55979863263863</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>65.92845055222315</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>63.74694018057997</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>62.73402555694204</v>
       </c>
       <c r="G13" t="n">
-        <v>167.6922296731294</v>
+        <v>85.26245734991961</v>
       </c>
       <c r="H13" t="n">
-        <v>159.571016214239</v>
+        <v>79.17118138132447</v>
       </c>
       <c r="I13" t="n">
-        <v>146.4662571175369</v>
+        <v>71.51544803622156</v>
       </c>
       <c r="J13" t="n">
-        <v>72.23757736389061</v>
+        <v>7.738139992402253</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>163.8605191622716</v>
+        <v>92.74039857070717</v>
       </c>
       <c r="S13" t="n">
-        <v>218.8102057935515</v>
+        <v>140.6063517249081</v>
       </c>
       <c r="T13" t="n">
-        <v>226.6691135000563</v>
+        <v>145.0812507350334</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3027339191093</v>
+        <v>203.6297432790899</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>169.4506208578388</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>203.8359758706018</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.022632923048</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>135.8976308861056</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>300.0468191974913</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>282.5858693050184</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>271.9960191546937</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>299.2433476062726</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>324.1890232757222</v>
       </c>
       <c r="G14" t="n">
-        <v>414.6367263390697</v>
+        <v>332.5231989378422</v>
       </c>
       <c r="H14" t="n">
-        <v>332.654015158888</v>
+        <v>255.8402990248892</v>
       </c>
       <c r="I14" t="n">
-        <v>184.7994937051469</v>
+        <v>124.2221397233818</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>108.0327934026353</v>
+        <v>61.37058029848096</v>
       </c>
       <c r="S14" t="n">
-        <v>193.8433399116564</v>
+        <v>124.2248362339236</v>
       </c>
       <c r="T14" t="n">
-        <v>220.1803856409053</v>
+        <v>140.0038378209103</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2923720137513</v>
+        <v>168.651229152943</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>245.0652360041457</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>266.5539462514238</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>287.0440782124798</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>303.5509161900644</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>83.84616118387814</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>90.02147652232654</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>64.75804309864955</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>74.95805798941174</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>62.38218992739468</v>
       </c>
       <c r="G15" t="n">
-        <v>136.9871697683942</v>
+        <v>54.60699421370645</v>
       </c>
       <c r="H15" t="n">
-        <v>108.7938786076111</v>
+        <v>29.07035131129679</v>
       </c>
       <c r="I15" t="n">
-        <v>77.12765456497084</v>
+        <v>5.00531742230044</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>78.03303713061706</v>
+        <v>14.39743956104837</v>
       </c>
       <c r="S15" t="n">
-        <v>165.0641745378389</v>
+        <v>88.07669886729623</v>
       </c>
       <c r="T15" t="n">
-        <v>198.728398625364</v>
+        <v>117.2781845430856</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9179381734211</v>
+        <v>143.251103004228</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>150.1135646834361</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>169.0079606949304</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>123.0859627374883</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>122.9956733113152</v>
       </c>
     </row>
     <row r="16">
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>97.1449577159481</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>84.55979863263863</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>65.92845055222315</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>63.74694018057997</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.73402555694204</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6922296731294</v>
+        <v>85.26245734991961</v>
       </c>
       <c r="H16" t="n">
-        <v>159.571016214239</v>
+        <v>79.17118138132447</v>
       </c>
       <c r="I16" t="n">
-        <v>146.4662571175369</v>
+        <v>71.51544803622156</v>
       </c>
       <c r="J16" t="n">
-        <v>72.23757736389061</v>
+        <v>7.738139992402253</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>163.8605191622716</v>
+        <v>92.74039857070717</v>
       </c>
       <c r="S16" t="n">
-        <v>218.8102057935515</v>
+        <v>140.6063517249081</v>
       </c>
       <c r="T16" t="n">
-        <v>226.6691135000563</v>
+        <v>145.0812507350334</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3027339191093</v>
+        <v>203.6297432790899</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>169.4506208578388</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.8359758706018</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.022632923048</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>135.8976308861056</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>292.7227606539022</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>275.2618107614292</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>264.6719606111046</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>291.9192890626834</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>316.8649647321331</v>
       </c>
       <c r="G17" t="n">
-        <v>414.6367263390697</v>
+        <v>325.199140394253</v>
       </c>
       <c r="H17" t="n">
-        <v>332.654015158888</v>
+        <v>248.5162404813001</v>
       </c>
       <c r="I17" t="n">
-        <v>184.7994937051469</v>
+        <v>116.8980811797926</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>108.0327934026353</v>
+        <v>54.04652175489184</v>
       </c>
       <c r="S17" t="n">
-        <v>193.8433399116564</v>
+        <v>116.9007776903345</v>
       </c>
       <c r="T17" t="n">
-        <v>220.1803856409053</v>
+        <v>132.6797792773212</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2923720137513</v>
+        <v>161.3271706093539</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>237.7411774605566</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>259.2298877078347</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>279.7200196688907</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>296.2268576464753</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>76.52210264028902</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>82.69741797873742</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>57.43398455506043</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>67.63399944582262</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>55.05813138380556</v>
       </c>
       <c r="G18" t="n">
-        <v>136.9871697683942</v>
+        <v>47.28293567011733</v>
       </c>
       <c r="H18" t="n">
-        <v>108.7938786076111</v>
+        <v>21.74629276770767</v>
       </c>
       <c r="I18" t="n">
-        <v>77.12765456497084</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>78.03303713061706</v>
+        <v>7.07338101745925</v>
       </c>
       <c r="S18" t="n">
-        <v>165.0641745378389</v>
+        <v>80.75264032370711</v>
       </c>
       <c r="T18" t="n">
-        <v>198.728398625364</v>
+        <v>109.9541259994965</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9179381734211</v>
+        <v>135.9270444606389</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>142.7895061398469</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>161.6839021513413</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>115.7619041938992</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>115.671614767726</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>89.82089917235898</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>77.23574008904951</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>58.60439200863404</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>56.42288163699085</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>55.40996701335293</v>
       </c>
       <c r="G19" t="n">
-        <v>167.6922296731294</v>
+        <v>77.9383988063305</v>
       </c>
       <c r="H19" t="n">
-        <v>159.571016214239</v>
+        <v>71.84712283773536</v>
       </c>
       <c r="I19" t="n">
-        <v>146.4662571175369</v>
+        <v>64.19138949263244</v>
       </c>
       <c r="J19" t="n">
-        <v>72.23757736389061</v>
+        <v>0.4140814488131355</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>163.8605191622716</v>
+        <v>85.41634002711805</v>
       </c>
       <c r="S19" t="n">
-        <v>218.8102057935515</v>
+        <v>133.2822931813189</v>
       </c>
       <c r="T19" t="n">
-        <v>226.6691135000563</v>
+        <v>137.7571921914443</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3027339191093</v>
+        <v>196.3056847355007</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>162.1265623142497</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>196.5119173270127</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>135.6985743794588</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>128.5735723425165</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>292.7227606539022</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>275.2618107614292</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>264.6719606111046</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>291.9192890626834</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>316.8649647321331</v>
       </c>
       <c r="G20" t="n">
-        <v>414.6367263390697</v>
+        <v>325.199140394253</v>
       </c>
       <c r="H20" t="n">
-        <v>332.654015158888</v>
+        <v>248.5162404813001</v>
       </c>
       <c r="I20" t="n">
-        <v>184.7994937051469</v>
+        <v>116.8980811797926</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>108.0327934026353</v>
+        <v>54.04652175489184</v>
       </c>
       <c r="S20" t="n">
-        <v>193.8433399116564</v>
+        <v>116.9007776903345</v>
       </c>
       <c r="T20" t="n">
-        <v>220.1803856409053</v>
+        <v>132.6797792773212</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2923720137513</v>
+        <v>161.3271706093539</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>237.7411774605566</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>259.2298877078347</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>279.7200196688907</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>296.2268576464753</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>76.52210264028902</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>82.69741797873742</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>57.43398455506043</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>67.63399944582262</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>55.05813138380556</v>
       </c>
       <c r="G21" t="n">
-        <v>136.9871697683942</v>
+        <v>47.28293567011733</v>
       </c>
       <c r="H21" t="n">
-        <v>108.7938786076111</v>
+        <v>21.74629276770767</v>
       </c>
       <c r="I21" t="n">
-        <v>77.12765456497084</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>78.03303713061706</v>
+        <v>7.07338101745925</v>
       </c>
       <c r="S21" t="n">
-        <v>165.0641745378389</v>
+        <v>80.75264032370711</v>
       </c>
       <c r="T21" t="n">
-        <v>198.728398625364</v>
+        <v>109.9541259994965</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9179381734211</v>
+        <v>135.9270444606389</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>142.7895061398469</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>161.6839021513413</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>115.7619041938992</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>115.671614767726</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>89.82089917235898</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>77.23574008904951</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>58.60439200863404</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>56.42288163699085</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>55.40996701335293</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6922296731294</v>
+        <v>77.9383988063305</v>
       </c>
       <c r="H22" t="n">
-        <v>159.571016214239</v>
+        <v>71.84712283773536</v>
       </c>
       <c r="I22" t="n">
-        <v>146.4662571175369</v>
+        <v>64.19138949263244</v>
       </c>
       <c r="J22" t="n">
-        <v>72.23757736389061</v>
+        <v>0.4140814488131355</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>163.8605191622716</v>
+        <v>85.41634002711805</v>
       </c>
       <c r="S22" t="n">
-        <v>218.8102057935515</v>
+        <v>133.2822931813189</v>
       </c>
       <c r="T22" t="n">
-        <v>226.6691135000563</v>
+        <v>137.7571921914443</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3027339191093</v>
+        <v>196.3056847355007</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>162.1265623142497</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>196.5119173270127</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>135.6985743794588</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>128.5735723425165</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>292.7227606539022</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>275.2618107614292</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>264.6719606111046</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>291.9192890626834</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>316.8649647321331</v>
       </c>
       <c r="G23" t="n">
-        <v>414.6367263390697</v>
+        <v>325.199140394253</v>
       </c>
       <c r="H23" t="n">
-        <v>332.654015158888</v>
+        <v>248.5162404813001</v>
       </c>
       <c r="I23" t="n">
-        <v>184.7994937051469</v>
+        <v>116.8980811797926</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>108.0327934026353</v>
+        <v>54.04652175489184</v>
       </c>
       <c r="S23" t="n">
-        <v>193.8433399116564</v>
+        <v>116.9007776903345</v>
       </c>
       <c r="T23" t="n">
-        <v>220.1803856409053</v>
+        <v>132.6797792773212</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2923720137513</v>
+        <v>161.3271706093539</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>237.7411774605566</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>259.2298877078347</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>279.7200196688907</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>296.2268576464753</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>76.52210264028902</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>82.69741797873742</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>57.43398455506043</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>67.63399944582262</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>55.05813138380556</v>
       </c>
       <c r="G24" t="n">
-        <v>136.9871697683942</v>
+        <v>47.28293567011733</v>
       </c>
       <c r="H24" t="n">
-        <v>108.7938786076111</v>
+        <v>21.74629276770767</v>
       </c>
       <c r="I24" t="n">
-        <v>77.12765456497084</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>78.03303713061706</v>
+        <v>7.07338101745925</v>
       </c>
       <c r="S24" t="n">
-        <v>165.0641745378389</v>
+        <v>80.75264032370711</v>
       </c>
       <c r="T24" t="n">
-        <v>198.728398625364</v>
+        <v>109.9541259994965</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9179381734211</v>
+        <v>135.9270444606389</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>142.7895061398469</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>161.6839021513413</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>115.7619041938992</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>115.671614767726</v>
       </c>
     </row>
     <row r="25">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>89.82089917235898</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>77.23574008904951</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>58.60439200863404</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>56.42288163699085</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>55.40996701335293</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6922296731294</v>
+        <v>77.9383988063305</v>
       </c>
       <c r="H25" t="n">
-        <v>159.571016214239</v>
+        <v>71.84712283773536</v>
       </c>
       <c r="I25" t="n">
-        <v>146.4662571175369</v>
+        <v>64.19138949263244</v>
       </c>
       <c r="J25" t="n">
-        <v>72.23757736389061</v>
+        <v>0.4140814488131346</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>163.8605191622716</v>
+        <v>85.41634002711805</v>
       </c>
       <c r="S25" t="n">
-        <v>218.8102057935515</v>
+        <v>133.2822931813189</v>
       </c>
       <c r="T25" t="n">
-        <v>226.6691135000563</v>
+        <v>137.7571921914443</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3027339191093</v>
+        <v>196.3056847355007</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>162.1265623142497</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>196.5119173270127</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>135.6985743794588</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>128.5735723425165</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>300.0468191974913</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>282.5858693050184</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>271.9960191546937</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>299.2433476062726</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>324.1890232757222</v>
       </c>
       <c r="G26" t="n">
-        <v>414.6367263390697</v>
+        <v>332.5231989378422</v>
       </c>
       <c r="H26" t="n">
-        <v>332.654015158888</v>
+        <v>255.8402990248892</v>
       </c>
       <c r="I26" t="n">
-        <v>184.7994937051469</v>
+        <v>124.2221397233818</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>108.0327934026353</v>
+        <v>61.37058029848096</v>
       </c>
       <c r="S26" t="n">
-        <v>193.8433399116564</v>
+        <v>124.2248362339236</v>
       </c>
       <c r="T26" t="n">
-        <v>220.1803856409053</v>
+        <v>140.0038378209103</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2923720137513</v>
+        <v>168.651229152943</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>245.0652360041457</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>266.5539462514238</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>287.0440782124798</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>303.5509161900644</v>
       </c>
     </row>
     <row r="27">
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>83.84616118387814</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>90.02147652232654</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>64.75804309864955</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>74.95805798941174</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>62.38218992739468</v>
       </c>
       <c r="G27" t="n">
-        <v>136.9871697683942</v>
+        <v>54.60699421370645</v>
       </c>
       <c r="H27" t="n">
-        <v>108.7938786076111</v>
+        <v>29.07035131129679</v>
       </c>
       <c r="I27" t="n">
-        <v>77.12765456497084</v>
+        <v>5.00531742230044</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>78.03303713061706</v>
+        <v>14.39743956104837</v>
       </c>
       <c r="S27" t="n">
-        <v>165.0641745378389</v>
+        <v>88.07669886729623</v>
       </c>
       <c r="T27" t="n">
-        <v>198.728398625364</v>
+        <v>117.2781845430856</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9179381734211</v>
+        <v>143.251103004228</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>150.1135646834361</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>169.0079606949304</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>123.0859627374883</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>122.9956733113152</v>
       </c>
     </row>
     <row r="28">
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>97.1449577159481</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>84.55979863263863</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.92845055222315</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.74694018057997</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>62.73402555694204</v>
       </c>
       <c r="G28" t="n">
-        <v>167.6922296731294</v>
+        <v>85.26245734991961</v>
       </c>
       <c r="H28" t="n">
-        <v>159.571016214239</v>
+        <v>79.17118138132447</v>
       </c>
       <c r="I28" t="n">
-        <v>146.4662571175369</v>
+        <v>71.51544803622156</v>
       </c>
       <c r="J28" t="n">
-        <v>72.23757736389061</v>
+        <v>7.738139992402252</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>163.8605191622716</v>
+        <v>92.74039857070717</v>
       </c>
       <c r="S28" t="n">
-        <v>218.8102057935515</v>
+        <v>140.6063517249081</v>
       </c>
       <c r="T28" t="n">
-        <v>226.6691135000563</v>
+        <v>145.0812507350334</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3027339191093</v>
+        <v>203.6297432790899</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>169.4506208578388</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>203.8359758706018</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.022632923048</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>135.8976308861056</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>300.0468191974913</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>282.5858693050184</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>271.9960191546937</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>299.2433476062726</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>324.1890232757222</v>
       </c>
       <c r="G29" t="n">
-        <v>414.6367263390697</v>
+        <v>332.5231989378422</v>
       </c>
       <c r="H29" t="n">
-        <v>332.654015158888</v>
+        <v>255.8402990248892</v>
       </c>
       <c r="I29" t="n">
-        <v>184.7994937051469</v>
+        <v>124.2221397233818</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>108.0327934026353</v>
+        <v>61.37058029848097</v>
       </c>
       <c r="S29" t="n">
-        <v>193.8433399116564</v>
+        <v>124.2248362339236</v>
       </c>
       <c r="T29" t="n">
-        <v>220.1803856409053</v>
+        <v>140.0038378209103</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2923720137513</v>
+        <v>168.651229152943</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>245.0652360041457</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>266.5539462514238</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>287.0440782124798</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>303.5509161900644</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>83.84616118387814</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>90.02147652232654</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>64.75804309864955</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>74.95805798941174</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>62.38218992739468</v>
       </c>
       <c r="G30" t="n">
-        <v>136.9871697683942</v>
+        <v>54.60699421370645</v>
       </c>
       <c r="H30" t="n">
-        <v>108.7938786076111</v>
+        <v>29.07035131129679</v>
       </c>
       <c r="I30" t="n">
-        <v>77.12765456497084</v>
+        <v>5.005317422300442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>78.03303713061706</v>
+        <v>14.39743956104837</v>
       </c>
       <c r="S30" t="n">
-        <v>165.0641745378389</v>
+        <v>88.07669886729623</v>
       </c>
       <c r="T30" t="n">
-        <v>198.728398625364</v>
+        <v>117.2781845430856</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9179381734211</v>
+        <v>143.251103004228</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>150.1135646834361</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>169.0079606949304</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>123.0859627374883</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>122.9956733113152</v>
       </c>
     </row>
     <row r="31">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>97.1449577159481</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>84.55979863263863</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>65.92845055222315</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>63.74694018057997</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.73402555694204</v>
       </c>
       <c r="G31" t="n">
-        <v>167.6922296731294</v>
+        <v>85.26245734991961</v>
       </c>
       <c r="H31" t="n">
-        <v>159.571016214239</v>
+        <v>79.17118138132447</v>
       </c>
       <c r="I31" t="n">
-        <v>146.4662571175369</v>
+        <v>71.51544803622156</v>
       </c>
       <c r="J31" t="n">
-        <v>72.23757736389061</v>
+        <v>7.738139992402257</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>163.8605191622716</v>
+        <v>92.74039857070717</v>
       </c>
       <c r="S31" t="n">
-        <v>218.8102057935515</v>
+        <v>140.6063517249081</v>
       </c>
       <c r="T31" t="n">
-        <v>226.6691135000563</v>
+        <v>145.0812507350334</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3027339191093</v>
+        <v>203.6297432790899</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>169.4506208578388</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>203.8359758706018</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.022632923048</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>135.8976308861056</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>292.3086792050891</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>274.8477293126161</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>264.2578791622915</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>291.5052076138703</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>316.45088328332</v>
       </c>
       <c r="G32" t="n">
-        <v>414.6367263390697</v>
+        <v>324.7850589454399</v>
       </c>
       <c r="H32" t="n">
-        <v>332.654015158888</v>
+        <v>248.102159032487</v>
       </c>
       <c r="I32" t="n">
-        <v>184.7994937051469</v>
+        <v>116.4839997309795</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>108.0327934026353</v>
+        <v>53.63244030607872</v>
       </c>
       <c r="S32" t="n">
-        <v>193.8433399116564</v>
+        <v>116.4866962415214</v>
       </c>
       <c r="T32" t="n">
-        <v>220.1803856409053</v>
+        <v>132.2656978285081</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2923720137513</v>
+        <v>160.9130891605407</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3270960117435</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>258.8158062590215</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>279.3059382200776</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>295.8127761976622</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>76.1080211914759</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>82.2833365299243</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>57.01990310624731</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>67.2199179970095</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>54.64404993499244</v>
       </c>
       <c r="G33" t="n">
-        <v>136.9871697683942</v>
+        <v>46.86885422130421</v>
       </c>
       <c r="H33" t="n">
-        <v>108.7938786076111</v>
+        <v>21.33221131889455</v>
       </c>
       <c r="I33" t="n">
-        <v>77.12765456497084</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>78.03303713061706</v>
+        <v>6.659299568646128</v>
       </c>
       <c r="S33" t="n">
-        <v>165.0641745378389</v>
+        <v>80.33855887489399</v>
       </c>
       <c r="T33" t="n">
-        <v>198.728398625364</v>
+        <v>109.5400445506834</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9179381734211</v>
+        <v>135.5129630118258</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>142.3754246910338</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>161.2698207025282</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>115.347822745086</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>115.2575333189129</v>
       </c>
     </row>
     <row r="34">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>89.40681772354586</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>76.82165864023639</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>58.19031055982092</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>56.00880018817773</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>54.9958855645398</v>
       </c>
       <c r="G34" t="n">
-        <v>167.6922296731294</v>
+        <v>77.52431735751738</v>
       </c>
       <c r="H34" t="n">
-        <v>159.571016214239</v>
+        <v>71.43304138892223</v>
       </c>
       <c r="I34" t="n">
-        <v>146.4662571175369</v>
+        <v>63.77730804381932</v>
       </c>
       <c r="J34" t="n">
-        <v>72.23757736389061</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>163.8605191622716</v>
+        <v>85.00225857830493</v>
       </c>
       <c r="S34" t="n">
-        <v>218.8102057935515</v>
+        <v>132.8682117325058</v>
       </c>
       <c r="T34" t="n">
-        <v>226.6691135000563</v>
+        <v>137.3431107426312</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3027339191093</v>
+        <v>195.8916032866876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>161.7124808654366</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>196.0978358781996</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>135.2844929306457</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>128.1594908937033</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>292.3086792050891</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>274.8477293126161</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>264.2578791622915</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>291.5052076138703</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>316.45088328332</v>
       </c>
       <c r="G35" t="n">
-        <v>414.6367263390697</v>
+        <v>324.7850589454399</v>
       </c>
       <c r="H35" t="n">
-        <v>332.654015158888</v>
+        <v>248.102159032487</v>
       </c>
       <c r="I35" t="n">
-        <v>184.7994937051469</v>
+        <v>116.4839997309795</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.0327934026353</v>
+        <v>53.63244030607872</v>
       </c>
       <c r="S35" t="n">
-        <v>193.8433399116564</v>
+        <v>116.4866962415214</v>
       </c>
       <c r="T35" t="n">
-        <v>220.1803856409053</v>
+        <v>132.2656978285081</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2923720137513</v>
+        <v>160.9130891605407</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3270960117435</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>258.8158062590215</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>279.3059382200776</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>295.8127761976622</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>76.1080211914759</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>82.2833365299243</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>57.01990310624731</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>67.2199179970095</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>54.64404993499244</v>
       </c>
       <c r="G36" t="n">
-        <v>136.9871697683942</v>
+        <v>46.86885422130421</v>
       </c>
       <c r="H36" t="n">
-        <v>108.7938786076111</v>
+        <v>21.33221131889455</v>
       </c>
       <c r="I36" t="n">
-        <v>77.12765456497084</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>78.03303713061706</v>
+        <v>6.659299568646128</v>
       </c>
       <c r="S36" t="n">
-        <v>165.0641745378389</v>
+        <v>80.33855887489399</v>
       </c>
       <c r="T36" t="n">
-        <v>198.728398625364</v>
+        <v>109.5400445506834</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9179381734211</v>
+        <v>135.5129630118258</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>142.3754246910338</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>161.2698207025282</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>115.347822745086</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>115.2575333189129</v>
       </c>
     </row>
     <row r="37">
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>89.40681772354586</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>76.82165864023639</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>58.19031055982092</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>56.00880018817773</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>54.9958855645398</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6922296731294</v>
+        <v>77.52431735751738</v>
       </c>
       <c r="H37" t="n">
-        <v>159.571016214239</v>
+        <v>71.43304138892223</v>
       </c>
       <c r="I37" t="n">
-        <v>146.4662571175369</v>
+        <v>63.77730804381932</v>
       </c>
       <c r="J37" t="n">
-        <v>72.23757736389061</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>163.8605191622716</v>
+        <v>85.00225857830493</v>
       </c>
       <c r="S37" t="n">
-        <v>218.8102057935515</v>
+        <v>132.8682117325058</v>
       </c>
       <c r="T37" t="n">
-        <v>226.6691135000563</v>
+        <v>137.3431107426312</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3027339191093</v>
+        <v>195.8916032866876</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>161.7124808654366</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>196.0978358781996</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>135.2844929306457</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>128.1594908937033</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>292.3086792050891</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>274.8477293126161</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>264.2578791622915</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>291.5052076138703</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>316.45088328332</v>
       </c>
       <c r="G38" t="n">
-        <v>414.6367263390697</v>
+        <v>324.7850589454399</v>
       </c>
       <c r="H38" t="n">
-        <v>332.654015158888</v>
+        <v>248.1021590324869</v>
       </c>
       <c r="I38" t="n">
-        <v>184.7994937051469</v>
+        <v>116.4839997309795</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.0327934026353</v>
+        <v>53.63244030607871</v>
       </c>
       <c r="S38" t="n">
-        <v>193.8433399116564</v>
+        <v>116.4866962415214</v>
       </c>
       <c r="T38" t="n">
-        <v>220.1803856409053</v>
+        <v>132.2656978285081</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2923720137513</v>
+        <v>160.9130891605407</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3270960117434</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>258.8158062590215</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>279.3059382200776</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>295.8127761976621</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>76.10802119147588</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>82.28333652992428</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>57.0199031062473</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>67.21991799700949</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>54.64404993499242</v>
       </c>
       <c r="G39" t="n">
-        <v>136.9871697683942</v>
+        <v>46.8688542213042</v>
       </c>
       <c r="H39" t="n">
-        <v>108.7938786076111</v>
+        <v>21.33221131889454</v>
       </c>
       <c r="I39" t="n">
-        <v>77.12765456497084</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>78.03303713061706</v>
+        <v>6.659299568646114</v>
       </c>
       <c r="S39" t="n">
-        <v>165.0641745378389</v>
+        <v>80.33855887489398</v>
       </c>
       <c r="T39" t="n">
-        <v>198.728398625364</v>
+        <v>109.5400445506834</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9179381734211</v>
+        <v>135.5129630118258</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>142.3754246910338</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>161.2698207025281</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>115.347822745086</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>115.2575333189129</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>89.40681772354584</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>76.82165864023638</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>58.1903105598209</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>56.00880018817772</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>54.99588556453979</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6922296731294</v>
+        <v>77.52431735751736</v>
       </c>
       <c r="H40" t="n">
-        <v>159.571016214239</v>
+        <v>71.43304138892222</v>
       </c>
       <c r="I40" t="n">
-        <v>146.4662571175369</v>
+        <v>63.7773080438193</v>
       </c>
       <c r="J40" t="n">
-        <v>72.23757736389061</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>163.8605191622716</v>
+        <v>85.00225857830492</v>
       </c>
       <c r="S40" t="n">
-        <v>218.8102057935515</v>
+        <v>132.8682117325058</v>
       </c>
       <c r="T40" t="n">
-        <v>226.6691135000563</v>
+        <v>137.3431107426312</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3027339191093</v>
+        <v>195.8916032866876</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>161.7124808654365</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>196.0978358781995</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>135.2844929306457</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>128.1594908937033</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>367.6716431274892</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>350.2106932350162</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>339.6208430846916</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>366.8681715362704</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>391.8138472057201</v>
       </c>
       <c r="G41" t="n">
-        <v>414.6367263390697</v>
+        <v>400.14802286784</v>
       </c>
       <c r="H41" t="n">
-        <v>332.654015158888</v>
+        <v>323.465122954887</v>
       </c>
       <c r="I41" t="n">
-        <v>184.7994937051469</v>
+        <v>191.8469636533796</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.0327934026353</v>
+        <v>128.9954042284788</v>
       </c>
       <c r="S41" t="n">
-        <v>193.8433399116564</v>
+        <v>191.8496601639215</v>
       </c>
       <c r="T41" t="n">
-        <v>220.1803856409053</v>
+        <v>207.6286617509082</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2923720137513</v>
+        <v>236.2760530829408</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>312.6900599341435</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>334.1787701814217</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>354.6689021424777</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>371.1757401200622</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>151.470985113876</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>157.6463004523244</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>132.3828670286474</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>142.5828819194096</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>130.0070138573925</v>
       </c>
       <c r="G42" t="n">
-        <v>136.9871697683942</v>
+        <v>122.2318181437043</v>
       </c>
       <c r="H42" t="n">
-        <v>108.7938786076111</v>
+        <v>96.69517524129462</v>
       </c>
       <c r="I42" t="n">
-        <v>77.12765456497084</v>
+        <v>72.63014135229827</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>78.03303713061706</v>
+        <v>82.0222634910462</v>
       </c>
       <c r="S42" t="n">
-        <v>165.0641745378389</v>
+        <v>155.7015227972941</v>
       </c>
       <c r="T42" t="n">
-        <v>198.728398625364</v>
+        <v>184.9030084730834</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9179381734211</v>
+        <v>210.8759269342259</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>217.7383886134339</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>236.6327846249282</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>190.7107866674861</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>190.620497241313</v>
       </c>
     </row>
     <row r="43">
@@ -25785,34 +25785,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>164.7697816459459</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>152.1846225626365</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>133.553274482221</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>131.3717641105778</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>130.3588494869399</v>
       </c>
       <c r="G43" t="n">
-        <v>167.6922296731294</v>
+        <v>152.8872812799174</v>
       </c>
       <c r="H43" t="n">
-        <v>159.571016214239</v>
+        <v>146.7960053113223</v>
       </c>
       <c r="I43" t="n">
-        <v>146.4662571175369</v>
+        <v>139.1402719662194</v>
       </c>
       <c r="J43" t="n">
-        <v>72.23757736389061</v>
+        <v>75.36296392240008</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.385800982724801</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.14583096471014</v>
+        <v>67.62482392999783</v>
       </c>
       <c r="R43" t="n">
-        <v>163.8605191622716</v>
+        <v>160.365222500705</v>
       </c>
       <c r="S43" t="n">
-        <v>218.8102057935515</v>
+        <v>208.2311756549059</v>
       </c>
       <c r="T43" t="n">
-        <v>226.6691135000563</v>
+        <v>212.7060746650313</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3027339191093</v>
+        <v>271.2545672090877</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>237.0754447878366</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>271.4607998005996</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>210.6474568530458</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>203.5224548161034</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>367.6716431274892</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>350.2106932350162</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>339.6208430846916</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>366.8681715362704</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>391.8138472057201</v>
       </c>
       <c r="G44" t="n">
-        <v>414.6367263390697</v>
+        <v>400.14802286784</v>
       </c>
       <c r="H44" t="n">
-        <v>332.654015158888</v>
+        <v>323.465122954887</v>
       </c>
       <c r="I44" t="n">
-        <v>184.7994937051469</v>
+        <v>191.8469636533796</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>128.9954042284788</v>
       </c>
       <c r="S44" t="n">
-        <v>193.8433399116564</v>
+        <v>191.8496601639215</v>
       </c>
       <c r="T44" t="n">
-        <v>220.1803856409053</v>
+        <v>207.6286617509082</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2923720137513</v>
+        <v>236.2760530829408</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>312.6900599341435</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>334.1787701814217</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>354.6689021424777</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>371.1757401200622</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>151.470985113876</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>157.6463004523244</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>132.3828670286474</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>142.5828819194096</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>130.0070138573925</v>
       </c>
       <c r="G45" t="n">
-        <v>136.9871697683942</v>
+        <v>122.2318181437043</v>
       </c>
       <c r="H45" t="n">
-        <v>108.7938786076111</v>
+        <v>96.69517524129462</v>
       </c>
       <c r="I45" t="n">
-        <v>77.12765456497084</v>
+        <v>72.63014135229827</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>78.03303713061706</v>
+        <v>82.0222634910462</v>
       </c>
       <c r="S45" t="n">
-        <v>165.0641745378389</v>
+        <v>155.7015227972941</v>
       </c>
       <c r="T45" t="n">
-        <v>198.728398625364</v>
+        <v>184.9030084730834</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9179381734211</v>
+        <v>210.8759269342259</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>217.7383886134339</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>236.6327846249282</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>190.7107866674861</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>190.620497241313</v>
       </c>
     </row>
     <row r="46">
@@ -26022,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>164.7697816459459</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>152.1846225626365</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>133.553274482221</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>131.3717641105778</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>130.3588494869399</v>
       </c>
       <c r="G46" t="n">
-        <v>167.6922296731294</v>
+        <v>152.8872812799174</v>
       </c>
       <c r="H46" t="n">
-        <v>159.571016214239</v>
+        <v>146.7960053113223</v>
       </c>
       <c r="I46" t="n">
-        <v>146.4662571175369</v>
+        <v>139.1402719662194</v>
       </c>
       <c r="J46" t="n">
-        <v>72.23757736389061</v>
+        <v>75.36296392240008</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.385800982724801</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.14583096471014</v>
+        <v>67.62482392999783</v>
       </c>
       <c r="R46" t="n">
-        <v>163.8605191622716</v>
+        <v>160.365222500705</v>
       </c>
       <c r="S46" t="n">
-        <v>218.8102057935515</v>
+        <v>208.2311756549059</v>
       </c>
       <c r="T46" t="n">
-        <v>226.6691135000563</v>
+        <v>212.7060746650313</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3027339191093</v>
+        <v>271.2545672090877</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>237.0754447878366</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>271.4607998005996</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>210.6474568530458</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>203.5224548161034</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>275857.3706737142</v>
+        <v>486755.159758016</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>275857.3706737142</v>
+        <v>486755.159758016</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>275857.3706737142</v>
+        <v>502222.9769434108</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>275857.3706737142</v>
+        <v>502222.9769434108</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>275857.3706737142</v>
+        <v>502222.9769434108</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>275857.3706737142</v>
+        <v>486755.159758016</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>275857.3706737142</v>
+        <v>486755.1597580161</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>275857.3706737142</v>
+        <v>503086.684592603</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>275857.3706737142</v>
+        <v>503086.684592603</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>275857.3706737142</v>
+        <v>503086.684592603</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>275857.3706737142</v>
+        <v>341607.8042325858</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275857.3706737142</v>
+        <v>341607.8042325858</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>696384.8879094827</v>
+      </c>
+      <c r="C2" t="n">
+        <v>696384.887909483</v>
+      </c>
+      <c r="D2" t="n">
         <v>696384.8879094828</v>
       </c>
-      <c r="C2" t="n">
-        <v>696384.8879094826</v>
-      </c>
-      <c r="D2" t="n">
-        <v>696384.8879094826</v>
-      </c>
       <c r="E2" t="n">
-        <v>194344.9318547681</v>
+        <v>353668.9015177587</v>
       </c>
       <c r="F2" t="n">
-        <v>194344.9318547681</v>
+        <v>353668.9015177587</v>
       </c>
       <c r="G2" t="n">
-        <v>194344.9318547681</v>
+        <v>368277.3955261869</v>
       </c>
       <c r="H2" t="n">
-        <v>194344.9318547681</v>
+        <v>368277.3955261869</v>
       </c>
       <c r="I2" t="n">
-        <v>194344.9318547681</v>
+        <v>368277.395526187</v>
       </c>
       <c r="J2" t="n">
-        <v>194344.9318547681</v>
+        <v>353668.9015177587</v>
       </c>
       <c r="K2" t="n">
-        <v>194344.9318547681</v>
+        <v>353668.9015177587</v>
       </c>
       <c r="L2" t="n">
-        <v>194344.9318547681</v>
+        <v>369093.1194170908</v>
       </c>
       <c r="M2" t="n">
-        <v>194344.9318547681</v>
+        <v>369093.1194170908</v>
       </c>
       <c r="N2" t="n">
-        <v>194344.9318547681</v>
+        <v>369093.1194170908</v>
       </c>
       <c r="O2" t="n">
-        <v>194344.9318547681</v>
+        <v>216585.2879659636</v>
       </c>
       <c r="P2" t="n">
-        <v>194344.9318547681</v>
+        <v>216585.2879659636</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>84638.63866350596</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5859.246834871294</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60290.37113792007</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>12049.75882879309</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70080.38400395971</v>
+        <v>225220.3103677904</v>
       </c>
       <c r="F4" t="n">
-        <v>70080.38400395971</v>
+        <v>225220.3103677904</v>
       </c>
       <c r="G4" t="n">
-        <v>70080.38400395971</v>
+        <v>235029.7779014916</v>
       </c>
       <c r="H4" t="n">
-        <v>70080.38400395971</v>
+        <v>235029.7779014916</v>
       </c>
       <c r="I4" t="n">
-        <v>70080.38400395971</v>
+        <v>235029.7779014916</v>
       </c>
       <c r="J4" t="n">
-        <v>70080.38400395971</v>
+        <v>225220.3103677904</v>
       </c>
       <c r="K4" t="n">
-        <v>70080.38400395971</v>
+        <v>225220.3103677904</v>
       </c>
       <c r="L4" t="n">
-        <v>70080.38400395971</v>
+        <v>235577.5288893532</v>
       </c>
       <c r="M4" t="n">
-        <v>70080.38400395971</v>
+        <v>235577.5288893532</v>
       </c>
       <c r="N4" t="n">
-        <v>70080.38400395971</v>
+        <v>235577.5288893532</v>
       </c>
       <c r="O4" t="n">
-        <v>70080.38400395971</v>
+        <v>133169.9418792293</v>
       </c>
       <c r="P4" t="n">
-        <v>70080.38400395971</v>
+        <v>133169.9418792293</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3611.612105008322</v>
+        <v>7453.107034265254</v>
       </c>
       <c r="F5" t="n">
-        <v>3611.612105008322</v>
+        <v>7453.107034265254</v>
       </c>
       <c r="G5" t="n">
-        <v>3611.612105008322</v>
+        <v>8068.833311966247</v>
       </c>
       <c r="H5" t="n">
-        <v>3611.612105008322</v>
+        <v>8068.833311966247</v>
       </c>
       <c r="I5" t="n">
-        <v>3611.612105008322</v>
+        <v>8068.833311966247</v>
       </c>
       <c r="J5" t="n">
-        <v>3611.612105008322</v>
+        <v>7453.107034265254</v>
       </c>
       <c r="K5" t="n">
-        <v>3611.612105008322</v>
+        <v>7453.107034265253</v>
       </c>
       <c r="L5" t="n">
-        <v>3611.612105008322</v>
+        <v>8103.644725286518</v>
       </c>
       <c r="M5" t="n">
-        <v>3611.612105008322</v>
+        <v>8103.644725286518</v>
       </c>
       <c r="N5" t="n">
-        <v>3611.612105008322</v>
+        <v>8103.644725286519</v>
       </c>
       <c r="O5" t="n">
-        <v>3611.612105008322</v>
+        <v>1767.955711294266</v>
       </c>
       <c r="P5" t="n">
-        <v>3611.612105008322</v>
+        <v>1767.955711294266</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199606.556807373</v>
+        <v>199562.4210286918</v>
       </c>
       <c r="C6" t="n">
-        <v>199606.5568073728</v>
+        <v>199562.4210286922</v>
       </c>
       <c r="D6" t="n">
-        <v>199606.5568073728</v>
+        <v>199562.4210286919</v>
       </c>
       <c r="E6" t="n">
-        <v>-12447.06425419999</v>
+        <v>26232.82772081823</v>
       </c>
       <c r="F6" t="n">
-        <v>120652.9357458001</v>
+        <v>110871.4663843242</v>
       </c>
       <c r="G6" t="n">
-        <v>120652.9357458001</v>
+        <v>109625.181334962</v>
       </c>
       <c r="H6" t="n">
-        <v>120652.9357458001</v>
+        <v>115484.4281698333</v>
       </c>
       <c r="I6" t="n">
-        <v>120652.9357458001</v>
+        <v>115484.4281698334</v>
       </c>
       <c r="J6" t="n">
-        <v>120652.9357458001</v>
+        <v>50581.09524640412</v>
       </c>
       <c r="K6" t="n">
-        <v>120652.9357458001</v>
+        <v>110871.4663843242</v>
       </c>
       <c r="L6" t="n">
-        <v>120652.9357458001</v>
+        <v>103691.8227099066</v>
       </c>
       <c r="M6" t="n">
-        <v>120652.9357458001</v>
+        <v>115741.5815386997</v>
       </c>
       <c r="N6" t="n">
-        <v>120652.9357458001</v>
+        <v>115741.5815386997</v>
       </c>
       <c r="O6" t="n">
-        <v>120652.9357458001</v>
+        <v>67491.50165724363</v>
       </c>
       <c r="P6" t="n">
-        <v>120652.9357458001</v>
+        <v>67491.5016572436</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="F3" t="n">
-        <v>165.6702800462533</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6702800462533</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="H3" t="n">
-        <v>165.6702800462533</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="I3" t="n">
-        <v>165.6702800462533</v>
+        <v>23.01338268678933</v>
       </c>
       <c r="J3" t="n">
-        <v>165.6702800462533</v>
+        <v>23.01338268678933</v>
       </c>
       <c r="K3" t="n">
-        <v>165.6702800462533</v>
+        <v>23.0133826867893</v>
       </c>
       <c r="L3" t="n">
-        <v>165.6702800462533</v>
+        <v>23.01338268678933</v>
       </c>
       <c r="M3" t="n">
-        <v>165.6702800462533</v>
+        <v>23.01338268678933</v>
       </c>
       <c r="N3" t="n">
-        <v>165.6702800462533</v>
+        <v>23.01338268678933</v>
       </c>
       <c r="O3" t="n">
-        <v>165.6702800462533</v>
+        <v>23.01338268678933</v>
       </c>
       <c r="P3" t="n">
-        <v>165.6702800462533</v>
+        <v>23.01338268678933</v>
       </c>
     </row>
     <row r="4">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.324058543589118</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75.36296392240008</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15.06219853599136</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.324058543589118</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>75.36296392240008</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,31 +28089,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="12">
@@ -28168,28 +28168,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28216,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="13">
@@ -28247,34 +28247,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28292,31 +28292,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="14">
@@ -28326,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="15">
@@ -28405,28 +28405,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28453,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="16">
@@ -28484,34 +28484,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28529,31 +28529,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="17">
@@ -28563,31 +28563,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28611,28 +28611,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
     </row>
     <row r="19">
@@ -28721,34 +28721,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28766,31 +28766,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
     </row>
     <row r="20">
@@ -28800,31 +28800,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28848,28 +28848,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
     </row>
     <row r="22">
@@ -28958,34 +28958,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29003,31 +29003,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
     </row>
     <row r="23">
@@ -29037,31 +29037,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4.097100052852172</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29085,28 +29085,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
     </row>
     <row r="24">
@@ -29116,28 +29116,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
     </row>
     <row r="25">
@@ -29195,34 +29195,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29240,31 +29240,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>90.01108100957832</v>
       </c>
     </row>
     <row r="26">
@@ -29274,31 +29274,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>4.097100052852172</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29322,28 +29322,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="27">
@@ -29353,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="28">
@@ -29432,34 +29432,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29477,31 +29477,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="29">
@@ -29511,31 +29511,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>4.097100052852182</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29559,28 +29559,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="31">
@@ -29669,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>17.44799951871618</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29714,31 +29714,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
     </row>
     <row r="32">
@@ -29748,31 +29748,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>4.097100052852172</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29796,28 +29796,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
     </row>
     <row r="33">
@@ -29827,28 +29827,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29875,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
     </row>
     <row r="34">
@@ -29906,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29951,31 +29951,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
     </row>
     <row r="35">
@@ -29985,31 +29985,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>4.097100052852172</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30033,28 +30033,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
     </row>
     <row r="36">
@@ -30064,28 +30064,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30112,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
     </row>
     <row r="37">
@@ -30143,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30188,31 +30188,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
     </row>
     <row r="38">
@@ -30222,31 +30222,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>4.097100052852172</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30270,28 +30270,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
     </row>
     <row r="40">
@@ -30380,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30425,31 +30425,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
     </row>
     <row r="41">
@@ -30459,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>4.097100052852172</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
     </row>
     <row r="43">
@@ -30617,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30662,31 +30662,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
     </row>
     <row r="44">
@@ -30696,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>4.097100052852172</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
     </row>
     <row r="46">
@@ -30854,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30899,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>15.06219853599137</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H11" t="n">
-        <v>6.820786956879159</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I11" t="n">
-        <v>25.67639586525902</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J11" t="n">
-        <v>56.52686605457566</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K11" t="n">
-        <v>84.71911913742149</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L11" t="n">
-        <v>105.1015586669311</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M11" t="n">
-        <v>116.9457349192831</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N11" t="n">
-        <v>118.8380391732788</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O11" t="n">
-        <v>112.215390541279</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P11" t="n">
-        <v>95.77323963216597</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.92171438932597</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>41.83632453851442</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S11" t="n">
-        <v>15.17672967458894</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T11" t="n">
-        <v>2.915463923226025</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H12" t="n">
-        <v>3.441565628885376</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I12" t="n">
-        <v>12.26897828644423</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J12" t="n">
-        <v>33.66701417430512</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K12" t="n">
-        <v>57.54228962700857</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L12" t="n">
-        <v>77.37270956311104</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M12" t="n">
-        <v>90.29030262520804</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N12" t="n">
-        <v>92.68001826851675</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O12" t="n">
-        <v>84.7841102044255</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P12" t="n">
-        <v>68.04672313824318</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.48743236288827</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R12" t="n">
-        <v>22.12479702202607</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S12" t="n">
-        <v>6.61899656599889</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T12" t="n">
-        <v>1.436330069457611</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H13" t="n">
-        <v>2.656156293200588</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I13" t="n">
-        <v>8.984217809721411</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J13" t="n">
-        <v>21.12160275278216</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K13" t="n">
-        <v>34.70928162280519</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L13" t="n">
-        <v>44.41593048977749</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M13" t="n">
-        <v>46.83037112848434</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N13" t="n">
-        <v>45.71684957407514</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O13" t="n">
-        <v>42.22691006818274</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P13" t="n">
-        <v>36.1324164874648</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.01621228698425</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R13" t="n">
-        <v>13.43287221489784</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S13" t="n">
-        <v>5.206392243420778</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T13" t="n">
-        <v>1.27647592822523</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H14" t="n">
-        <v>6.820786956879159</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I14" t="n">
-        <v>25.67639586525902</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J14" t="n">
-        <v>56.52686605457566</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K14" t="n">
-        <v>84.71911913742149</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L14" t="n">
-        <v>105.1015586669311</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M14" t="n">
-        <v>116.9457349192831</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N14" t="n">
-        <v>118.8380391732788</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O14" t="n">
-        <v>112.215390541279</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P14" t="n">
-        <v>95.77323963216597</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.92171438932597</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>41.83632453851442</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S14" t="n">
-        <v>15.17672967458894</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T14" t="n">
-        <v>2.915463923226025</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H15" t="n">
-        <v>3.441565628885376</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I15" t="n">
-        <v>12.26897828644423</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J15" t="n">
-        <v>33.66701417430512</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K15" t="n">
-        <v>57.54228962700857</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L15" t="n">
-        <v>77.37270956311104</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M15" t="n">
-        <v>90.29030262520804</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N15" t="n">
-        <v>92.68001826851675</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O15" t="n">
-        <v>84.7841102044255</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P15" t="n">
-        <v>68.04672313824318</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.48743236288827</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R15" t="n">
-        <v>22.12479702202607</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S15" t="n">
-        <v>6.61899656599889</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T15" t="n">
-        <v>1.436330069457611</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H16" t="n">
-        <v>2.656156293200588</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I16" t="n">
-        <v>8.984217809721411</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J16" t="n">
-        <v>21.12160275278216</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K16" t="n">
-        <v>34.70928162280519</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L16" t="n">
-        <v>44.41593048977749</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M16" t="n">
-        <v>46.83037112848434</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N16" t="n">
-        <v>45.71684957407514</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O16" t="n">
-        <v>42.22691006818274</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P16" t="n">
-        <v>36.1324164874648</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.01621228698425</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R16" t="n">
-        <v>13.43287221489784</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S16" t="n">
-        <v>5.206392243420778</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T16" t="n">
-        <v>1.27647592822523</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H17" t="n">
-        <v>6.820786956879159</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I17" t="n">
-        <v>25.67639586525902</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J17" t="n">
-        <v>56.52686605457566</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K17" t="n">
-        <v>84.71911913742149</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L17" t="n">
-        <v>105.1015586669311</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M17" t="n">
-        <v>116.9457349192831</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N17" t="n">
-        <v>118.8380391732788</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O17" t="n">
-        <v>112.215390541279</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P17" t="n">
-        <v>95.77323963216597</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q17" t="n">
-        <v>71.92171438932597</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>41.83632453851442</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S17" t="n">
-        <v>15.17672967458894</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T17" t="n">
-        <v>2.915463923226025</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H18" t="n">
-        <v>3.441565628885376</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I18" t="n">
-        <v>12.26897828644423</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J18" t="n">
-        <v>33.66701417430512</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K18" t="n">
-        <v>57.54228962700857</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L18" t="n">
-        <v>77.37270956311104</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M18" t="n">
-        <v>90.29030262520804</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N18" t="n">
-        <v>92.68001826851675</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O18" t="n">
-        <v>84.7841102044255</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P18" t="n">
-        <v>68.04672313824318</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q18" t="n">
-        <v>45.48743236288827</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R18" t="n">
-        <v>22.12479702202607</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S18" t="n">
-        <v>6.61899656599889</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T18" t="n">
-        <v>1.436330069457611</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H19" t="n">
-        <v>2.656156293200588</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I19" t="n">
-        <v>8.984217809721411</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J19" t="n">
-        <v>21.12160275278216</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K19" t="n">
-        <v>34.70928162280519</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L19" t="n">
-        <v>44.41593048977749</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M19" t="n">
-        <v>46.83037112848434</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N19" t="n">
-        <v>45.71684957407514</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O19" t="n">
-        <v>42.22691006818274</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P19" t="n">
-        <v>36.1324164874648</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.01621228698425</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R19" t="n">
-        <v>13.43287221489784</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S19" t="n">
-        <v>5.206392243420778</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T19" t="n">
-        <v>1.27647592822523</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H20" t="n">
-        <v>6.820786956879159</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I20" t="n">
-        <v>25.67639586525902</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J20" t="n">
-        <v>56.52686605457566</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K20" t="n">
-        <v>84.71911913742149</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L20" t="n">
-        <v>105.1015586669311</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M20" t="n">
-        <v>116.9457349192831</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N20" t="n">
-        <v>118.8380391732788</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O20" t="n">
-        <v>112.215390541279</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P20" t="n">
-        <v>95.77323963216597</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.92171438932597</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>41.83632453851442</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S20" t="n">
-        <v>15.17672967458894</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T20" t="n">
-        <v>2.915463923226025</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H21" t="n">
-        <v>3.441565628885376</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I21" t="n">
-        <v>12.26897828644423</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J21" t="n">
-        <v>33.66701417430512</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K21" t="n">
-        <v>57.54228962700857</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L21" t="n">
-        <v>77.37270956311104</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M21" t="n">
-        <v>90.29030262520804</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N21" t="n">
-        <v>92.68001826851675</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O21" t="n">
-        <v>84.7841102044255</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P21" t="n">
-        <v>68.04672313824318</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.48743236288827</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R21" t="n">
-        <v>22.12479702202607</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S21" t="n">
-        <v>6.61899656599889</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T21" t="n">
-        <v>1.436330069457611</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H22" t="n">
-        <v>2.656156293200588</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I22" t="n">
-        <v>8.984217809721411</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J22" t="n">
-        <v>21.12160275278216</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K22" t="n">
-        <v>34.70928162280519</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L22" t="n">
-        <v>44.41593048977749</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M22" t="n">
-        <v>46.83037112848434</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N22" t="n">
-        <v>45.71684957407514</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O22" t="n">
-        <v>42.22691006818274</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P22" t="n">
-        <v>36.1324164874648</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.01621228698425</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R22" t="n">
-        <v>13.43287221489784</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S22" t="n">
-        <v>5.206392243420778</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T22" t="n">
-        <v>1.27647592822523</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.09251611130367562</v>
       </c>
       <c r="H23" t="n">
-        <v>6.820786956879159</v>
+        <v>0.9474806248887682</v>
       </c>
       <c r="I23" t="n">
-        <v>25.67639586525902</v>
+        <v>3.566727381034958</v>
       </c>
       <c r="J23" t="n">
-        <v>56.52686605457566</v>
+        <v>7.852189301760346</v>
       </c>
       <c r="K23" t="n">
-        <v>84.71911913742149</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L23" t="n">
-        <v>105.1015586669311</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M23" t="n">
-        <v>116.9457349192831</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N23" t="n">
-        <v>118.8380391732788</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O23" t="n">
-        <v>112.215390541279</v>
+        <v>15.58792394841719</v>
       </c>
       <c r="P23" t="n">
-        <v>95.77323963216597</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q23" t="n">
-        <v>71.92171438932597</v>
+        <v>9.990699214544808</v>
       </c>
       <c r="R23" t="n">
-        <v>41.83632453851442</v>
+        <v>5.811515176679519</v>
       </c>
       <c r="S23" t="n">
-        <v>15.17672967458894</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T23" t="n">
-        <v>2.915463923226025</v>
+        <v>0.4049892772318403</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.007401288904294048</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.04950048351498082</v>
       </c>
       <c r="H24" t="n">
-        <v>3.441565628885376</v>
+        <v>0.4780704592104727</v>
       </c>
       <c r="I24" t="n">
-        <v>12.26897828644423</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J24" t="n">
-        <v>33.66701417430512</v>
+        <v>4.6767101552465</v>
       </c>
       <c r="K24" t="n">
-        <v>57.54228962700857</v>
+        <v>7.993242550750215</v>
       </c>
       <c r="L24" t="n">
-        <v>77.37270956311104</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M24" t="n">
-        <v>90.29030262520804</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N24" t="n">
-        <v>92.68001826851675</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O24" t="n">
-        <v>84.7841102044255</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P24" t="n">
-        <v>68.04672313824318</v>
+        <v>9.45242127752296</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.48743236288827</v>
+        <v>6.318693299210534</v>
       </c>
       <c r="R24" t="n">
-        <v>22.12479702202607</v>
+        <v>3.073372125605565</v>
       </c>
       <c r="S24" t="n">
-        <v>6.61899656599889</v>
+        <v>0.9194497705523843</v>
       </c>
       <c r="T24" t="n">
-        <v>1.436330069457611</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H25" t="n">
-        <v>2.656156293200588</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I25" t="n">
-        <v>8.984217809721411</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J25" t="n">
-        <v>21.12160275278216</v>
+        <v>2.934017658281321</v>
       </c>
       <c r="K25" t="n">
-        <v>34.70928162280519</v>
+        <v>4.821492307166681</v>
       </c>
       <c r="L25" t="n">
-        <v>44.41593048977749</v>
+        <v>6.169850171471356</v>
       </c>
       <c r="M25" t="n">
-        <v>46.83037112848434</v>
+        <v>6.50524192898866</v>
       </c>
       <c r="N25" t="n">
-        <v>45.71684957407514</v>
+        <v>6.350561815847951</v>
       </c>
       <c r="O25" t="n">
-        <v>42.22691006818274</v>
+        <v>5.865771705150829</v>
       </c>
       <c r="P25" t="n">
-        <v>36.1324164874648</v>
+        <v>5.019181037131887</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.01621228698425</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R25" t="n">
-        <v>13.43287221489784</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S25" t="n">
-        <v>5.206392243420778</v>
+        <v>0.723223846075002</v>
       </c>
       <c r="T25" t="n">
-        <v>1.27647592822523</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.09251611130367562</v>
       </c>
       <c r="H26" t="n">
-        <v>6.820786956879159</v>
+        <v>0.9474806248887682</v>
       </c>
       <c r="I26" t="n">
-        <v>25.67639586525902</v>
+        <v>3.566727381034958</v>
       </c>
       <c r="J26" t="n">
-        <v>56.52686605457566</v>
+        <v>7.852189301760346</v>
       </c>
       <c r="K26" t="n">
-        <v>84.71911913742149</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L26" t="n">
-        <v>105.1015586669311</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M26" t="n">
-        <v>116.9457349192831</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N26" t="n">
-        <v>118.8380391732788</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O26" t="n">
-        <v>112.215390541279</v>
+        <v>15.58792394841719</v>
       </c>
       <c r="P26" t="n">
-        <v>95.77323963216597</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q26" t="n">
-        <v>71.92171438932597</v>
+        <v>9.990699214544808</v>
       </c>
       <c r="R26" t="n">
-        <v>41.83632453851442</v>
+        <v>5.811515176679519</v>
       </c>
       <c r="S26" t="n">
-        <v>15.17672967458894</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T26" t="n">
-        <v>2.915463923226025</v>
+        <v>0.4049892772318403</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.007401288904294048</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.04950048351498082</v>
       </c>
       <c r="H27" t="n">
-        <v>3.441565628885376</v>
+        <v>0.4780704592104727</v>
       </c>
       <c r="I27" t="n">
-        <v>12.26897828644423</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J27" t="n">
-        <v>33.66701417430512</v>
+        <v>4.6767101552465</v>
       </c>
       <c r="K27" t="n">
-        <v>57.54228962700857</v>
+        <v>7.993242550750215</v>
       </c>
       <c r="L27" t="n">
-        <v>77.37270956311104</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M27" t="n">
-        <v>90.29030262520804</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N27" t="n">
-        <v>92.68001826851675</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O27" t="n">
-        <v>84.7841102044255</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P27" t="n">
-        <v>68.04672313824318</v>
+        <v>9.45242127752296</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.48743236288827</v>
+        <v>6.318693299210534</v>
       </c>
       <c r="R27" t="n">
-        <v>22.12479702202607</v>
+        <v>3.073372125605565</v>
       </c>
       <c r="S27" t="n">
-        <v>6.61899656599889</v>
+        <v>0.9194497705523843</v>
       </c>
       <c r="T27" t="n">
-        <v>1.436330069457611</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H28" t="n">
-        <v>2.656156293200588</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I28" t="n">
-        <v>8.984217809721411</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J28" t="n">
-        <v>21.12160275278216</v>
+        <v>2.934017658281321</v>
       </c>
       <c r="K28" t="n">
-        <v>34.70928162280519</v>
+        <v>4.821492307166681</v>
       </c>
       <c r="L28" t="n">
-        <v>44.41593048977749</v>
+        <v>6.169850171471356</v>
       </c>
       <c r="M28" t="n">
-        <v>46.83037112848434</v>
+        <v>6.50524192898866</v>
       </c>
       <c r="N28" t="n">
-        <v>45.71684957407514</v>
+        <v>6.350561815847951</v>
       </c>
       <c r="O28" t="n">
-        <v>42.22691006818274</v>
+        <v>5.865771705150829</v>
       </c>
       <c r="P28" t="n">
-        <v>36.1324164874648</v>
+        <v>5.019181037131887</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.01621228698425</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R28" t="n">
-        <v>13.43287221489784</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S28" t="n">
-        <v>5.206392243420778</v>
+        <v>0.723223846075002</v>
       </c>
       <c r="T28" t="n">
-        <v>1.27647592822523</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.09251611130367549</v>
       </c>
       <c r="H29" t="n">
-        <v>6.820786956879159</v>
+        <v>0.9474806248887668</v>
       </c>
       <c r="I29" t="n">
-        <v>25.67639586525902</v>
+        <v>3.566727381034953</v>
       </c>
       <c r="J29" t="n">
-        <v>56.52686605457566</v>
+        <v>7.852189301760335</v>
       </c>
       <c r="K29" t="n">
-        <v>84.71911913742149</v>
+        <v>11.76839629324492</v>
       </c>
       <c r="L29" t="n">
-        <v>105.1015586669311</v>
+        <v>14.59973623455478</v>
       </c>
       <c r="M29" t="n">
-        <v>116.9457349192831</v>
+        <v>16.24501962895152</v>
       </c>
       <c r="N29" t="n">
-        <v>118.8380391732788</v>
+        <v>16.50788103019309</v>
       </c>
       <c r="O29" t="n">
-        <v>112.215390541279</v>
+        <v>15.58792394841717</v>
       </c>
       <c r="P29" t="n">
-        <v>95.77323963216597</v>
+        <v>13.30393245060768</v>
       </c>
       <c r="Q29" t="n">
-        <v>71.92171438932597</v>
+        <v>9.990699214544794</v>
       </c>
       <c r="R29" t="n">
-        <v>41.83632453851442</v>
+        <v>5.811515176679511</v>
       </c>
       <c r="S29" t="n">
-        <v>15.17672967458894</v>
+        <v>2.108210886332508</v>
       </c>
       <c r="T29" t="n">
-        <v>2.915463923226025</v>
+        <v>0.4049892772318396</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.007401288904294038</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.04950048351498075</v>
       </c>
       <c r="H30" t="n">
-        <v>3.441565628885376</v>
+        <v>0.4780704592104721</v>
       </c>
       <c r="I30" t="n">
-        <v>12.26897828644423</v>
+        <v>1.704292963125434</v>
       </c>
       <c r="J30" t="n">
-        <v>33.66701417430512</v>
+        <v>4.676710155246494</v>
       </c>
       <c r="K30" t="n">
-        <v>57.54228962700857</v>
+        <v>7.993242550750203</v>
       </c>
       <c r="L30" t="n">
-        <v>77.37270956311104</v>
+        <v>10.74790103688212</v>
       </c>
       <c r="M30" t="n">
-        <v>90.29030262520804</v>
+        <v>12.54229356430016</v>
       </c>
       <c r="N30" t="n">
-        <v>92.68001826851675</v>
+        <v>12.87425075418791</v>
       </c>
       <c r="O30" t="n">
-        <v>84.7841102044255</v>
+        <v>11.77742425104018</v>
       </c>
       <c r="P30" t="n">
-        <v>68.04672313824318</v>
+        <v>9.452421277522948</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.48743236288827</v>
+        <v>6.318693299210526</v>
       </c>
       <c r="R30" t="n">
-        <v>22.12479702202607</v>
+        <v>3.073372125605561</v>
       </c>
       <c r="S30" t="n">
-        <v>6.61899656599889</v>
+        <v>0.9194497705523831</v>
       </c>
       <c r="T30" t="n">
-        <v>1.436330069457611</v>
+        <v>0.1995216857467864</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.003256610757564524</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.04149954254994791</v>
       </c>
       <c r="H31" t="n">
-        <v>2.656156293200588</v>
+        <v>0.3689686601259007</v>
       </c>
       <c r="I31" t="n">
-        <v>8.984217809721411</v>
+        <v>1.248004425047525</v>
       </c>
       <c r="J31" t="n">
-        <v>21.12160275278216</v>
+        <v>2.934017658281317</v>
       </c>
       <c r="K31" t="n">
-        <v>34.70928162280519</v>
+        <v>4.821492307166674</v>
       </c>
       <c r="L31" t="n">
-        <v>44.41593048977749</v>
+        <v>6.169850171471347</v>
       </c>
       <c r="M31" t="n">
-        <v>46.83037112848434</v>
+        <v>6.505241928988651</v>
       </c>
       <c r="N31" t="n">
-        <v>45.71684957407514</v>
+        <v>6.350561815847942</v>
       </c>
       <c r="O31" t="n">
-        <v>42.22691006818274</v>
+        <v>5.865771705150821</v>
       </c>
       <c r="P31" t="n">
-        <v>36.1324164874648</v>
+        <v>5.019181037131879</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.01621228698425</v>
+        <v>3.475020785705183</v>
       </c>
       <c r="R31" t="n">
-        <v>13.43287221489784</v>
+        <v>1.865970340473112</v>
       </c>
       <c r="S31" t="n">
-        <v>5.206392243420778</v>
+        <v>0.723223846075001</v>
       </c>
       <c r="T31" t="n">
-        <v>1.27647592822523</v>
+        <v>0.1773162272588683</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.002263611411815343</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.09251611130367562</v>
       </c>
       <c r="H32" t="n">
-        <v>6.820786956879159</v>
+        <v>0.9474806248887682</v>
       </c>
       <c r="I32" t="n">
-        <v>25.67639586525902</v>
+        <v>3.566727381034958</v>
       </c>
       <c r="J32" t="n">
-        <v>56.52686605457566</v>
+        <v>7.852189301760346</v>
       </c>
       <c r="K32" t="n">
-        <v>84.71911913742149</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L32" t="n">
-        <v>105.1015586669311</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M32" t="n">
-        <v>116.9457349192831</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N32" t="n">
-        <v>118.8380391732788</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O32" t="n">
-        <v>112.215390541279</v>
+        <v>15.58792394841719</v>
       </c>
       <c r="P32" t="n">
-        <v>95.77323963216597</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q32" t="n">
-        <v>71.92171438932597</v>
+        <v>9.990699214544808</v>
       </c>
       <c r="R32" t="n">
-        <v>41.83632453851442</v>
+        <v>5.811515176679519</v>
       </c>
       <c r="S32" t="n">
-        <v>15.17672967458894</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T32" t="n">
-        <v>2.915463923226025</v>
+        <v>0.4049892772318403</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.007401288904294048</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.04950048351498082</v>
       </c>
       <c r="H33" t="n">
-        <v>3.441565628885376</v>
+        <v>0.4780704592104727</v>
       </c>
       <c r="I33" t="n">
-        <v>12.26897828644423</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J33" t="n">
-        <v>33.66701417430512</v>
+        <v>4.6767101552465</v>
       </c>
       <c r="K33" t="n">
-        <v>57.54228962700857</v>
+        <v>7.993242550750215</v>
       </c>
       <c r="L33" t="n">
-        <v>77.37270956311104</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M33" t="n">
-        <v>90.29030262520804</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N33" t="n">
-        <v>92.68001826851675</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O33" t="n">
-        <v>84.7841102044255</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P33" t="n">
-        <v>68.04672313824318</v>
+        <v>9.45242127752296</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.48743236288827</v>
+        <v>6.318693299210534</v>
       </c>
       <c r="R33" t="n">
-        <v>22.12479702202607</v>
+        <v>3.073372125605565</v>
       </c>
       <c r="S33" t="n">
-        <v>6.61899656599889</v>
+        <v>0.9194497705523843</v>
       </c>
       <c r="T33" t="n">
-        <v>1.436330069457611</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H34" t="n">
-        <v>2.656156293200588</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I34" t="n">
-        <v>8.984217809721411</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J34" t="n">
-        <v>21.12160275278216</v>
+        <v>2.934017658281321</v>
       </c>
       <c r="K34" t="n">
-        <v>34.70928162280519</v>
+        <v>4.821492307166681</v>
       </c>
       <c r="L34" t="n">
-        <v>44.41593048977749</v>
+        <v>6.169850171471356</v>
       </c>
       <c r="M34" t="n">
-        <v>46.83037112848434</v>
+        <v>6.50524192898866</v>
       </c>
       <c r="N34" t="n">
-        <v>45.71684957407514</v>
+        <v>6.350561815847951</v>
       </c>
       <c r="O34" t="n">
-        <v>42.22691006818274</v>
+        <v>5.865771705150829</v>
       </c>
       <c r="P34" t="n">
-        <v>36.1324164874648</v>
+        <v>5.019181037131887</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.01621228698425</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R34" t="n">
-        <v>13.43287221489784</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S34" t="n">
-        <v>5.206392243420778</v>
+        <v>0.723223846075002</v>
       </c>
       <c r="T34" t="n">
-        <v>1.27647592822523</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.09251611130367562</v>
       </c>
       <c r="H35" t="n">
-        <v>6.820786956879159</v>
+        <v>0.9474806248887682</v>
       </c>
       <c r="I35" t="n">
-        <v>25.67639586525902</v>
+        <v>3.566727381034958</v>
       </c>
       <c r="J35" t="n">
-        <v>56.52686605457566</v>
+        <v>7.852189301760346</v>
       </c>
       <c r="K35" t="n">
-        <v>84.71911913742149</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L35" t="n">
-        <v>105.1015586669311</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M35" t="n">
-        <v>116.9457349192831</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N35" t="n">
-        <v>118.8380391732788</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O35" t="n">
-        <v>112.215390541279</v>
+        <v>15.58792394841719</v>
       </c>
       <c r="P35" t="n">
-        <v>95.77323963216597</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q35" t="n">
-        <v>71.92171438932597</v>
+        <v>9.990699214544808</v>
       </c>
       <c r="R35" t="n">
-        <v>41.83632453851442</v>
+        <v>5.811515176679519</v>
       </c>
       <c r="S35" t="n">
-        <v>15.17672967458894</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T35" t="n">
-        <v>2.915463923226025</v>
+        <v>0.4049892772318403</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.007401288904294048</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.04950048351498082</v>
       </c>
       <c r="H36" t="n">
-        <v>3.441565628885376</v>
+        <v>0.4780704592104727</v>
       </c>
       <c r="I36" t="n">
-        <v>12.26897828644423</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J36" t="n">
-        <v>33.66701417430512</v>
+        <v>4.6767101552465</v>
       </c>
       <c r="K36" t="n">
-        <v>57.54228962700857</v>
+        <v>7.993242550750215</v>
       </c>
       <c r="L36" t="n">
-        <v>77.37270956311104</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M36" t="n">
-        <v>90.29030262520804</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N36" t="n">
-        <v>92.68001826851675</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O36" t="n">
-        <v>84.7841102044255</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P36" t="n">
-        <v>68.04672313824318</v>
+        <v>9.45242127752296</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.48743236288827</v>
+        <v>6.318693299210534</v>
       </c>
       <c r="R36" t="n">
-        <v>22.12479702202607</v>
+        <v>3.073372125605565</v>
       </c>
       <c r="S36" t="n">
-        <v>6.61899656599889</v>
+        <v>0.9194497705523843</v>
       </c>
       <c r="T36" t="n">
-        <v>1.436330069457611</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H37" t="n">
-        <v>2.656156293200588</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I37" t="n">
-        <v>8.984217809721411</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J37" t="n">
-        <v>21.12160275278216</v>
+        <v>2.934017658281321</v>
       </c>
       <c r="K37" t="n">
-        <v>34.70928162280519</v>
+        <v>4.821492307166681</v>
       </c>
       <c r="L37" t="n">
-        <v>44.41593048977749</v>
+        <v>6.169850171471356</v>
       </c>
       <c r="M37" t="n">
-        <v>46.83037112848434</v>
+        <v>6.50524192898866</v>
       </c>
       <c r="N37" t="n">
-        <v>45.71684957407514</v>
+        <v>6.350561815847951</v>
       </c>
       <c r="O37" t="n">
-        <v>42.22691006818274</v>
+        <v>5.865771705150829</v>
       </c>
       <c r="P37" t="n">
-        <v>36.1324164874648</v>
+        <v>5.019181037131887</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.01621228698425</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R37" t="n">
-        <v>13.43287221489784</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S37" t="n">
-        <v>5.206392243420778</v>
+        <v>0.723223846075002</v>
       </c>
       <c r="T37" t="n">
-        <v>1.27647592822523</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.09251611130367562</v>
       </c>
       <c r="H38" t="n">
-        <v>6.820786956879159</v>
+        <v>0.9474806248887682</v>
       </c>
       <c r="I38" t="n">
-        <v>25.67639586525902</v>
+        <v>3.566727381034958</v>
       </c>
       <c r="J38" t="n">
-        <v>56.52686605457566</v>
+        <v>7.852189301760346</v>
       </c>
       <c r="K38" t="n">
-        <v>84.71911913742149</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L38" t="n">
-        <v>105.1015586669311</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M38" t="n">
-        <v>116.9457349192831</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N38" t="n">
-        <v>118.8380391732788</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O38" t="n">
-        <v>112.215390541279</v>
+        <v>15.58792394841719</v>
       </c>
       <c r="P38" t="n">
-        <v>95.77323963216597</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q38" t="n">
-        <v>71.92171438932597</v>
+        <v>9.990699214544808</v>
       </c>
       <c r="R38" t="n">
-        <v>41.83632453851442</v>
+        <v>5.811515176679519</v>
       </c>
       <c r="S38" t="n">
-        <v>15.17672967458894</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T38" t="n">
-        <v>2.915463923226025</v>
+        <v>0.4049892772318403</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.007401288904294048</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.04950048351498082</v>
       </c>
       <c r="H39" t="n">
-        <v>3.441565628885376</v>
+        <v>0.4780704592104727</v>
       </c>
       <c r="I39" t="n">
-        <v>12.26897828644423</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J39" t="n">
-        <v>33.66701417430512</v>
+        <v>4.6767101552465</v>
       </c>
       <c r="K39" t="n">
-        <v>57.54228962700857</v>
+        <v>7.993242550750215</v>
       </c>
       <c r="L39" t="n">
-        <v>77.37270956311104</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M39" t="n">
-        <v>90.29030262520804</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N39" t="n">
-        <v>92.68001826851675</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O39" t="n">
-        <v>84.7841102044255</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P39" t="n">
-        <v>68.04672313824318</v>
+        <v>9.45242127752296</v>
       </c>
       <c r="Q39" t="n">
-        <v>45.48743236288827</v>
+        <v>6.318693299210534</v>
       </c>
       <c r="R39" t="n">
-        <v>22.12479702202607</v>
+        <v>3.073372125605565</v>
       </c>
       <c r="S39" t="n">
-        <v>6.61899656599889</v>
+        <v>0.9194497705523843</v>
       </c>
       <c r="T39" t="n">
-        <v>1.436330069457611</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H40" t="n">
-        <v>2.656156293200588</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I40" t="n">
-        <v>8.984217809721411</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J40" t="n">
-        <v>21.12160275278216</v>
+        <v>2.934017658281321</v>
       </c>
       <c r="K40" t="n">
-        <v>34.70928162280519</v>
+        <v>4.821492307166681</v>
       </c>
       <c r="L40" t="n">
-        <v>44.41593048977749</v>
+        <v>6.169850171471356</v>
       </c>
       <c r="M40" t="n">
-        <v>46.83037112848434</v>
+        <v>6.50524192898866</v>
       </c>
       <c r="N40" t="n">
-        <v>45.71684957407514</v>
+        <v>6.350561815847951</v>
       </c>
       <c r="O40" t="n">
-        <v>42.22691006818274</v>
+        <v>5.865771705150829</v>
       </c>
       <c r="P40" t="n">
-        <v>36.1324164874648</v>
+        <v>5.019181037131887</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.01621228698425</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R40" t="n">
-        <v>13.43287221489784</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S40" t="n">
-        <v>5.206392243420778</v>
+        <v>0.723223846075002</v>
       </c>
       <c r="T40" t="n">
-        <v>1.27647592822523</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.09251611130367562</v>
       </c>
       <c r="H41" t="n">
-        <v>6.820786956879159</v>
+        <v>0.9474806248887682</v>
       </c>
       <c r="I41" t="n">
-        <v>25.67639586525902</v>
+        <v>3.566727381034958</v>
       </c>
       <c r="J41" t="n">
-        <v>56.52686605457566</v>
+        <v>7.852189301760346</v>
       </c>
       <c r="K41" t="n">
-        <v>84.71911913742149</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L41" t="n">
-        <v>105.1015586669311</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M41" t="n">
-        <v>116.9457349192831</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N41" t="n">
-        <v>118.8380391732788</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O41" t="n">
-        <v>112.215390541279</v>
+        <v>15.58792394841719</v>
       </c>
       <c r="P41" t="n">
-        <v>95.77323963216597</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q41" t="n">
-        <v>71.92171438932597</v>
+        <v>9.990699214544808</v>
       </c>
       <c r="R41" t="n">
-        <v>41.83632453851442</v>
+        <v>5.811515176679519</v>
       </c>
       <c r="S41" t="n">
-        <v>15.17672967458894</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T41" t="n">
-        <v>2.915463923226025</v>
+        <v>0.4049892772318403</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.007401288904294048</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.04950048351498082</v>
       </c>
       <c r="H42" t="n">
-        <v>3.441565628885376</v>
+        <v>0.4780704592104727</v>
       </c>
       <c r="I42" t="n">
-        <v>12.26897828644423</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J42" t="n">
-        <v>33.66701417430512</v>
+        <v>4.6767101552465</v>
       </c>
       <c r="K42" t="n">
-        <v>57.54228962700857</v>
+        <v>7.993242550750215</v>
       </c>
       <c r="L42" t="n">
-        <v>77.37270956311104</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M42" t="n">
-        <v>90.29030262520804</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N42" t="n">
-        <v>92.68001826851675</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O42" t="n">
-        <v>84.7841102044255</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P42" t="n">
-        <v>68.04672313824318</v>
+        <v>9.45242127752296</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.48743236288827</v>
+        <v>6.318693299210534</v>
       </c>
       <c r="R42" t="n">
-        <v>22.12479702202607</v>
+        <v>3.073372125605565</v>
       </c>
       <c r="S42" t="n">
-        <v>6.61899656599889</v>
+        <v>0.9194497705523843</v>
       </c>
       <c r="T42" t="n">
-        <v>1.436330069457611</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H43" t="n">
-        <v>2.656156293200588</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I43" t="n">
-        <v>8.984217809721411</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J43" t="n">
-        <v>21.12160275278216</v>
+        <v>2.934017658281321</v>
       </c>
       <c r="K43" t="n">
-        <v>34.70928162280519</v>
+        <v>4.821492307166681</v>
       </c>
       <c r="L43" t="n">
-        <v>44.41593048977749</v>
+        <v>6.169850171471356</v>
       </c>
       <c r="M43" t="n">
-        <v>46.83037112848434</v>
+        <v>6.50524192898866</v>
       </c>
       <c r="N43" t="n">
-        <v>45.71684957407514</v>
+        <v>6.350561815847951</v>
       </c>
       <c r="O43" t="n">
-        <v>42.22691006818274</v>
+        <v>5.865771705150829</v>
       </c>
       <c r="P43" t="n">
-        <v>36.1324164874648</v>
+        <v>5.019181037131887</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.01621228698425</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R43" t="n">
-        <v>13.43287221489784</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S43" t="n">
-        <v>5.206392243420778</v>
+        <v>0.723223846075002</v>
       </c>
       <c r="T43" t="n">
-        <v>1.27647592822523</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.09251611130367562</v>
       </c>
       <c r="H44" t="n">
-        <v>6.820786956879159</v>
+        <v>0.9474806248887682</v>
       </c>
       <c r="I44" t="n">
-        <v>25.67639586525902</v>
+        <v>3.566727381034958</v>
       </c>
       <c r="J44" t="n">
-        <v>56.52686605457566</v>
+        <v>7.852189301760346</v>
       </c>
       <c r="K44" t="n">
-        <v>84.71911913742149</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L44" t="n">
-        <v>105.1015586669311</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M44" t="n">
-        <v>116.9457349192831</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N44" t="n">
-        <v>118.8380391732788</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O44" t="n">
-        <v>112.215390541279</v>
+        <v>15.58792394841719</v>
       </c>
       <c r="P44" t="n">
-        <v>95.77323963216597</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q44" t="n">
-        <v>71.92171438932597</v>
+        <v>9.990699214544808</v>
       </c>
       <c r="R44" t="n">
-        <v>41.83632453851442</v>
+        <v>5.811515176679519</v>
       </c>
       <c r="S44" t="n">
-        <v>15.17672967458894</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T44" t="n">
-        <v>2.915463923226025</v>
+        <v>0.4049892772318403</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.007401288904294048</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.04950048351498082</v>
       </c>
       <c r="H45" t="n">
-        <v>3.441565628885376</v>
+        <v>0.4780704592104727</v>
       </c>
       <c r="I45" t="n">
-        <v>12.26897828644423</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J45" t="n">
-        <v>33.66701417430512</v>
+        <v>4.6767101552465</v>
       </c>
       <c r="K45" t="n">
-        <v>57.54228962700857</v>
+        <v>7.993242550750215</v>
       </c>
       <c r="L45" t="n">
-        <v>77.37270956311104</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M45" t="n">
-        <v>90.29030262520804</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N45" t="n">
-        <v>92.68001826851675</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O45" t="n">
-        <v>84.7841102044255</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P45" t="n">
-        <v>68.04672313824318</v>
+        <v>9.45242127752296</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.48743236288827</v>
+        <v>6.318693299210534</v>
       </c>
       <c r="R45" t="n">
-        <v>22.12479702202607</v>
+        <v>3.073372125605565</v>
       </c>
       <c r="S45" t="n">
-        <v>6.61899656599889</v>
+        <v>0.9194497705523843</v>
       </c>
       <c r="T45" t="n">
-        <v>1.436330069457611</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H46" t="n">
-        <v>2.656156293200588</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I46" t="n">
-        <v>8.984217809721411</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J46" t="n">
-        <v>21.12160275278216</v>
+        <v>2.934017658281321</v>
       </c>
       <c r="K46" t="n">
-        <v>34.70928162280519</v>
+        <v>4.821492307166681</v>
       </c>
       <c r="L46" t="n">
-        <v>44.41593048977749</v>
+        <v>6.169850171471356</v>
       </c>
       <c r="M46" t="n">
-        <v>46.83037112848434</v>
+        <v>6.50524192898866</v>
       </c>
       <c r="N46" t="n">
-        <v>45.71684957407514</v>
+        <v>6.350561815847951</v>
       </c>
       <c r="O46" t="n">
-        <v>42.22691006818274</v>
+        <v>5.865771705150829</v>
       </c>
       <c r="P46" t="n">
-        <v>36.1324164874648</v>
+        <v>5.019181037131887</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.01621228698425</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R46" t="n">
-        <v>13.43287221489784</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S46" t="n">
-        <v>5.206392243420778</v>
+        <v>0.723223846075002</v>
       </c>
       <c r="T46" t="n">
-        <v>1.27647592822523</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
